--- a/data-input/wb-data/global-economic-monitor/Stock Markets, LCU.xlsx
+++ b/data-input/wb-data/global-economic-monitor/Stock Markets, LCU.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="annual" sheetId="1" r:id="Raab74d18ccb14712"/>
-    <sheet name="monthly" sheetId="2" r:id="R524f704ae58e4286"/>
+    <sheet name="annual" sheetId="1" r:id="R88ce8a8c53624d35"/>
+    <sheet name="monthly" sheetId="2" r:id="Re3ecfc4355c544b4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="422">
   <si>
     <t/>
   </si>
@@ -1240,6 +1240,45 @@
   <si>
     <t>2017M05</t>
   </si>
+  <si>
+    <t>2017M06</t>
+  </si>
+  <si>
+    <t>2017M07</t>
+  </si>
+  <si>
+    <t>2017M08</t>
+  </si>
+  <si>
+    <t>2017M09</t>
+  </si>
+  <si>
+    <t>2017M10</t>
+  </si>
+  <si>
+    <t>2017M11</t>
+  </si>
+  <si>
+    <t>2017M12</t>
+  </si>
+  <si>
+    <t>2018M01</t>
+  </si>
+  <si>
+    <t>2018M02</t>
+  </si>
+  <si>
+    <t>2018M03</t>
+  </si>
+  <si>
+    <t>2018M04</t>
+  </si>
+  <si>
+    <t>2018M05</t>
+  </si>
+  <si>
+    <t>2018M06</t>
+  </si>
 </sst>
 </file>
 
@@ -1284,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CA30"/>
+  <dimension ref="A1:CA31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3628,8 +3667,8 @@
       <c r="BJ10" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK10" s="0" t="s">
-        <v>79</v>
+      <c r="BK10" s="0">
+        <v>16.71011</v>
       </c>
       <c r="BL10" s="0">
         <v>25.71776</v>
@@ -3652,8 +3691,8 @@
       <c r="BR10" s="0">
         <v>82.20776</v>
       </c>
-      <c r="BS10" s="0" t="s">
-        <v>79</v>
+      <c r="BS10" s="0">
+        <v>22.04987</v>
       </c>
       <c r="BT10" s="0">
         <v>3.726308</v>
@@ -3671,7 +3710,7 @@
         <v>71.06273</v>
       </c>
       <c r="BY10" s="0">
-        <v>16.40626</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ10" s="0" t="s">
         <v>79</v>
@@ -3867,8 +3906,8 @@
       <c r="BJ11" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK11" s="0" t="s">
-        <v>79</v>
+      <c r="BK11" s="0">
+        <v>11.34214</v>
       </c>
       <c r="BL11" s="0">
         <v>12.10253</v>
@@ -3891,8 +3930,8 @@
       <c r="BR11" s="0">
         <v>48.66261</v>
       </c>
-      <c r="BS11" s="0" t="s">
-        <v>79</v>
+      <c r="BS11" s="0">
+        <v>21.14789</v>
       </c>
       <c r="BT11" s="0">
         <v>5.969699</v>
@@ -3910,7 +3949,7 @@
         <v>82.37348</v>
       </c>
       <c r="BY11" s="0">
-        <v>9.2514</v>
+        <v>8.86422</v>
       </c>
       <c r="BZ11" s="0" t="s">
         <v>79</v>
@@ -4106,8 +4145,8 @@
       <c r="BJ12" s="0">
         <v>17.12461</v>
       </c>
-      <c r="BK12" s="0" t="s">
-        <v>79</v>
+      <c r="BK12" s="0">
+        <v>8.887868</v>
       </c>
       <c r="BL12" s="0">
         <v>6.357822</v>
@@ -4130,8 +4169,8 @@
       <c r="BR12" s="0">
         <v>57.8835</v>
       </c>
-      <c r="BS12" s="0" t="s">
-        <v>79</v>
+      <c r="BS12" s="0">
+        <v>24.2034</v>
       </c>
       <c r="BT12" s="0">
         <v>10.47406</v>
@@ -4149,7 +4188,7 @@
         <v>99.93933</v>
       </c>
       <c r="BY12" s="0">
-        <v>8.511402</v>
+        <v>9.467893</v>
       </c>
       <c r="BZ12" s="0" t="s">
         <v>79</v>
@@ -4345,8 +4384,8 @@
       <c r="BJ13" s="0">
         <v>16.10745</v>
       </c>
-      <c r="BK13" s="0" t="s">
-        <v>79</v>
+      <c r="BK13" s="0">
+        <v>10.72487</v>
       </c>
       <c r="BL13" s="0">
         <v>12.75859</v>
@@ -4369,8 +4408,8 @@
       <c r="BR13" s="0">
         <v>47.09476</v>
       </c>
-      <c r="BS13" s="0" t="s">
-        <v>79</v>
+      <c r="BS13" s="0">
+        <v>30.22758</v>
       </c>
       <c r="BT13" s="0">
         <v>26.54205</v>
@@ -4388,7 +4427,7 @@
         <v>102.518</v>
       </c>
       <c r="BY13" s="0">
-        <v>10.90703</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ13" s="0">
         <v>26.82231</v>
@@ -4584,8 +4623,8 @@
       <c r="BJ14" s="0">
         <v>18.47477</v>
       </c>
-      <c r="BK14" s="0" t="s">
-        <v>79</v>
+      <c r="BK14" s="0">
+        <v>12.89632</v>
       </c>
       <c r="BL14" s="0">
         <v>12.82867</v>
@@ -4608,8 +4647,8 @@
       <c r="BR14" s="0">
         <v>41.73724</v>
       </c>
-      <c r="BS14" s="0" t="s">
-        <v>79</v>
+      <c r="BS14" s="0">
+        <v>29.34538</v>
       </c>
       <c r="BT14" s="0">
         <v>18.56126</v>
@@ -4627,7 +4666,7 @@
         <v>97.30585</v>
       </c>
       <c r="BY14" s="0">
-        <v>12.46096</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ14" s="0">
         <v>61.90963</v>
@@ -4823,8 +4862,8 @@
       <c r="BJ15" s="0">
         <v>27.44887</v>
       </c>
-      <c r="BK15" s="0" t="s">
-        <v>79</v>
+      <c r="BK15" s="0">
+        <v>24.36893</v>
       </c>
       <c r="BL15" s="0">
         <v>22.68692</v>
@@ -4847,8 +4886,8 @@
       <c r="BR15" s="0">
         <v>50.40889</v>
       </c>
-      <c r="BS15" s="0" t="s">
-        <v>79</v>
+      <c r="BS15" s="0">
+        <v>26.33567</v>
       </c>
       <c r="BT15" s="0">
         <v>20.21019</v>
@@ -4866,7 +4905,7 @@
         <v>88.11217</v>
       </c>
       <c r="BY15" s="0">
-        <v>12.20868</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ15" s="0">
         <v>38.72049</v>
@@ -5062,8 +5101,8 @@
       <c r="BJ16" s="0">
         <v>40.49329</v>
       </c>
-      <c r="BK16" s="0" t="s">
-        <v>79</v>
+      <c r="BK16" s="0">
+        <v>36.15705</v>
       </c>
       <c r="BL16" s="0">
         <v>30.72266</v>
@@ -5086,8 +5125,8 @@
       <c r="BR16" s="0">
         <v>66.34252</v>
       </c>
-      <c r="BS16" s="0" t="s">
-        <v>79</v>
+      <c r="BS16" s="0">
+        <v>25.58986</v>
       </c>
       <c r="BT16" s="0">
         <v>22.6048</v>
@@ -5105,7 +5144,7 @@
         <v>85.88855</v>
       </c>
       <c r="BY16" s="0">
-        <v>23.39767</v>
+        <v>22.89945</v>
       </c>
       <c r="BZ16" s="0">
         <v>30.57159</v>
@@ -5301,8 +5340,8 @@
       <c r="BJ17" s="0">
         <v>59.25753</v>
       </c>
-      <c r="BK17" s="0" t="s">
-        <v>79</v>
+      <c r="BK17" s="0">
+        <v>62.08835</v>
       </c>
       <c r="BL17" s="0">
         <v>41.08799</v>
@@ -5325,8 +5364,8 @@
       <c r="BR17" s="0">
         <v>91.25885</v>
       </c>
-      <c r="BS17" s="0" t="s">
-        <v>79</v>
+      <c r="BS17" s="0">
+        <v>28.94782</v>
       </c>
       <c r="BT17" s="0">
         <v>36.54399</v>
@@ -5344,7 +5383,7 @@
         <v>98.53079</v>
       </c>
       <c r="BY17" s="0">
-        <v>47.37642</v>
+        <v>50.44553</v>
       </c>
       <c r="BZ17" s="0">
         <v>47.1836</v>
@@ -5540,8 +5579,8 @@
       <c r="BJ18" s="0">
         <v>132.4248</v>
       </c>
-      <c r="BK18" s="0" t="s">
-        <v>79</v>
+      <c r="BK18" s="0">
+        <v>111.9784</v>
       </c>
       <c r="BL18" s="0">
         <v>52.35664</v>
@@ -5564,8 +5603,8 @@
       <c r="BR18" s="0">
         <v>95.08616</v>
       </c>
-      <c r="BS18" s="0" t="s">
-        <v>79</v>
+      <c r="BS18" s="0">
+        <v>33.10593</v>
       </c>
       <c r="BT18" s="0">
         <v>53.90747</v>
@@ -5583,7 +5622,7 @@
         <v>100.7299</v>
       </c>
       <c r="BY18" s="0">
-        <v>40.57897</v>
+        <v>40.08712</v>
       </c>
       <c r="BZ18" s="0">
         <v>52.09734</v>
@@ -5780,7 +5819,7 @@
         <v>102.0292</v>
       </c>
       <c r="BK19" s="0">
-        <v>151.8159</v>
+        <v>151.8072</v>
       </c>
       <c r="BL19" s="0">
         <v>101.184</v>
@@ -5804,7 +5843,7 @@
         <v>98.97601</v>
       </c>
       <c r="BS19" s="0">
-        <v>43.78977</v>
+        <v>43.79776</v>
       </c>
       <c r="BT19" s="0">
         <v>73.18308</v>
@@ -5822,7 +5861,7 @@
         <v>108.9524</v>
       </c>
       <c r="BY19" s="0">
-        <v>57.25218</v>
+        <v>58.50856</v>
       </c>
       <c r="BZ19" s="0">
         <v>100.0537</v>
@@ -6019,7 +6058,7 @@
         <v>98.5674</v>
       </c>
       <c r="BK20" s="0">
-        <v>182.5333</v>
+        <v>182.5243</v>
       </c>
       <c r="BL20" s="0">
         <v>130.2065</v>
@@ -6061,7 +6100,7 @@
         <v>125.773</v>
       </c>
       <c r="BY20" s="0">
-        <v>72.97836</v>
+        <v>74.07063</v>
       </c>
       <c r="BZ20" s="0">
         <v>201.1101</v>
@@ -6300,7 +6339,7 @@
         <v>107.4622</v>
       </c>
       <c r="BY21" s="0">
-        <v>63.52589</v>
+        <v>65.46987</v>
       </c>
       <c r="BZ21" s="0">
         <v>99.93912</v>
@@ -6539,7 +6578,7 @@
         <v>84.76696</v>
       </c>
       <c r="BY22" s="0">
-        <v>78.28699</v>
+        <v>76.97525</v>
       </c>
       <c r="BZ22" s="0">
         <v>85.11175</v>
@@ -6778,7 +6817,7 @@
         <v>101.8295</v>
       </c>
       <c r="BY23" s="0">
-        <v>107.8258</v>
+        <v>109.6031</v>
       </c>
       <c r="BZ23" s="0">
         <v>96.95633</v>
@@ -7017,7 +7056,7 @@
         <v>114.2784</v>
       </c>
       <c r="BY24" s="0">
-        <v>149.68</v>
+        <v>151.5706</v>
       </c>
       <c r="BZ24" s="0">
         <v>87.15017</v>
@@ -7256,7 +7295,7 @@
         <v>123.8352</v>
       </c>
       <c r="BY25" s="0">
-        <v>452.0959</v>
+        <v>454.5225</v>
       </c>
       <c r="BZ25" s="0">
         <v>82.0832</v>
@@ -7495,7 +7534,7 @@
         <v>143.2464</v>
       </c>
       <c r="BY26" s="0">
-        <v>2176.915</v>
+        <v>2186.589</v>
       </c>
       <c r="BZ26" s="0">
         <v>97.63868</v>
@@ -7734,7 +7773,7 @@
         <v>160.1912</v>
       </c>
       <c r="BY27" s="0">
-        <v>4536.748</v>
+        <v>4556.603</v>
       </c>
       <c r="BZ27" s="0">
         <v>115.4545</v>
@@ -7973,7 +8012,7 @@
         <v>167.9898</v>
       </c>
       <c r="BY28" s="0">
-        <v>17150.73</v>
+        <v>17226.89</v>
       </c>
       <c r="BZ28" s="0">
         <v>115.4515</v>
@@ -8212,7 +8251,7 @@
         <v>171.0216</v>
       </c>
       <c r="BY29" s="0">
-        <v>28304.4</v>
+        <v>28429.9</v>
       </c>
       <c r="BZ29" s="0">
         <v>124.3169</v>
@@ -8226,118 +8265,118 @@
         <v>2017</v>
       </c>
       <c r="B30" s="0">
-        <v>207.695</v>
+        <v>207.039</v>
       </c>
       <c r="C30" s="0">
-        <v>119.7849</v>
+        <v>120.4563</v>
       </c>
       <c r="D30" s="0">
-        <v>109.6464</v>
+        <v>118.9606</v>
       </c>
       <c r="E30" s="0">
-        <v>148.8304</v>
+        <v>153.7548</v>
       </c>
       <c r="F30" s="0">
-        <v>145.5907</v>
+        <v>153.4609</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>79</v>
       </c>
       <c r="H30" s="0">
-        <v>56.53871</v>
+        <v>52.42225</v>
       </c>
       <c r="I30" s="0">
-        <v>94.71537</v>
+        <v>99.31608</v>
       </c>
       <c r="J30" s="0">
-        <v>133.4844</v>
+        <v>133.4113</v>
       </c>
       <c r="K30" s="0">
-        <v>131.7365</v>
+        <v>136.0432</v>
       </c>
       <c r="L30" s="0">
-        <v>121.79</v>
+        <v>131.0174</v>
       </c>
       <c r="M30" s="0">
-        <v>100.1719</v>
+        <v>102.3755</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>79</v>
       </c>
       <c r="O30" s="0">
-        <v>82.34551</v>
+        <v>85.37057</v>
       </c>
       <c r="P30" s="0">
-        <v>205.7306</v>
+        <v>212.1978</v>
       </c>
       <c r="Q30" s="0">
-        <v>240.7269</v>
+        <v>253.8537</v>
       </c>
       <c r="R30" s="0">
-        <v>109.525</v>
+        <v>129.9147</v>
       </c>
       <c r="S30" s="0">
-        <v>83.1465</v>
+        <v>84.61946</v>
       </c>
       <c r="T30" s="0">
-        <v>231.3798</v>
+        <v>243.7989</v>
       </c>
       <c r="U30" s="0">
-        <v>139.0547</v>
+        <v>143.0614</v>
       </c>
       <c r="V30" s="0">
-        <v>140.6516</v>
+        <v>145.1293</v>
       </c>
       <c r="W30" s="0">
-        <v>143.767</v>
+        <v>145.8281</v>
       </c>
       <c r="X30" s="0">
-        <v>31.72744</v>
+        <v>34.70283</v>
       </c>
       <c r="Y30" s="0">
-        <v>112.1004</v>
+        <v>122.3083</v>
       </c>
       <c r="Z30" s="0">
-        <v>95.85497</v>
+        <v>90.73321</v>
       </c>
       <c r="AA30" s="0">
-        <v>148.6882</v>
+        <v>160.6769</v>
       </c>
       <c r="AB30" s="0">
-        <v>209.8018</v>
+        <v>219.0361</v>
       </c>
       <c r="AC30" s="0">
-        <v>167.984</v>
+        <v>179.075</v>
       </c>
       <c r="AD30" s="0">
-        <v>219.0519</v>
+        <v>221.8428</v>
       </c>
       <c r="AE30" s="0">
-        <v>676.8222</v>
+        <v>710.3686</v>
       </c>
       <c r="AF30" s="0">
-        <v>213.8353</v>
+        <v>210.6732</v>
       </c>
       <c r="AG30" s="0">
-        <v>117.2092</v>
+        <v>118.677</v>
       </c>
       <c r="AH30" s="0">
-        <v>86.22245</v>
+        <v>91.21087</v>
       </c>
       <c r="AI30" s="0">
-        <v>74.92969</v>
+        <v>73.55317</v>
       </c>
       <c r="AJ30" s="0">
-        <v>180.4418</v>
+        <v>189.4909</v>
       </c>
       <c r="AK30" s="0">
-        <v>81.77531</v>
+        <v>93.73947</v>
       </c>
       <c r="AL30" s="0">
-        <v>88.20951</v>
+        <v>99.58586</v>
       </c>
       <c r="AM30" s="0">
-        <v>116.6994</v>
+        <v>123.7507</v>
       </c>
       <c r="AN30" s="0" t="s">
         <v>79</v>
@@ -8346,118 +8385,357 @@
         <v>79</v>
       </c>
       <c r="AP30" s="0">
-        <v>177.9861</v>
+        <v>182.0528</v>
       </c>
       <c r="AQ30" s="0">
-        <v>199.1542</v>
+        <v>213.2479</v>
       </c>
       <c r="AR30" s="0">
-        <v>71.74364</v>
+        <v>70.08042</v>
       </c>
       <c r="AS30" s="0">
-        <v>246.4227</v>
+        <v>286.234</v>
       </c>
       <c r="AT30" s="0">
-        <v>110.7939</v>
+        <v>112.9276</v>
       </c>
       <c r="AU30" s="0">
-        <v>150.3059</v>
+        <v>153.1863</v>
       </c>
       <c r="AV30" s="0">
-        <v>80.6728</v>
+        <v>86.56323</v>
       </c>
       <c r="AW30" s="0">
-        <v>124.829</v>
+        <v>123.5425</v>
       </c>
       <c r="AX30" s="0">
-        <v>276.8221</v>
+        <v>328.4719</v>
       </c>
       <c r="AY30" s="0">
-        <v>133.6652</v>
+        <v>135.2684</v>
       </c>
       <c r="AZ30" s="0">
-        <v>118.3175</v>
+        <v>144.5764</v>
       </c>
       <c r="BA30" s="0">
-        <v>150.8657</v>
+        <v>155.2332</v>
       </c>
       <c r="BB30" s="0">
-        <v>185.4124</v>
+        <v>195.7648</v>
       </c>
       <c r="BC30" s="0">
-        <v>158.6986</v>
+        <v>165.6457</v>
       </c>
       <c r="BD30" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BE30" s="0">
-        <v>258.8976</v>
+        <v>233.1781</v>
       </c>
       <c r="BF30" s="0">
-        <v>105.3503</v>
+        <v>113.8325</v>
       </c>
       <c r="BG30" s="0">
-        <v>244.1572</v>
+        <v>257.8156</v>
       </c>
       <c r="BH30" s="0">
-        <v>90.57615</v>
+        <v>95.62094</v>
       </c>
       <c r="BI30" s="0">
-        <v>57.07518</v>
+        <v>60.3734</v>
       </c>
       <c r="BJ30" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BK30" s="0">
-        <v>156.3331</v>
+        <v>157.7383</v>
       </c>
       <c r="BL30" s="0">
-        <v>74.01427</v>
+        <v>72.53826</v>
       </c>
       <c r="BM30" s="0">
-        <v>111.0007</v>
+        <v>112.2202</v>
       </c>
       <c r="BN30" s="0">
-        <v>109.1419</v>
+        <v>112.8815</v>
       </c>
       <c r="BO30" s="0">
-        <v>129.303</v>
+        <v>132.9614</v>
       </c>
       <c r="BP30" s="0">
-        <v>76.41446</v>
+        <v>78.10258</v>
       </c>
       <c r="BQ30" s="0">
-        <v>184.0427</v>
+        <v>187.1909</v>
       </c>
       <c r="BR30" s="0">
-        <v>215.6644</v>
+        <v>221.7807</v>
       </c>
       <c r="BS30" s="0">
-        <v>123.2714</v>
+        <v>130.3658</v>
       </c>
       <c r="BT30" s="0">
-        <v>163.7524</v>
+        <v>181.7484</v>
       </c>
       <c r="BU30" s="0">
-        <v>120.0416</v>
+        <v>125.7127</v>
       </c>
       <c r="BV30" s="0">
-        <v>192.9028</v>
+        <v>211.9865</v>
       </c>
       <c r="BW30" s="0">
-        <v>44.01956</v>
+        <v>45.99628</v>
       </c>
       <c r="BX30" s="0">
-        <v>196.2875</v>
+        <v>207.6346</v>
       </c>
       <c r="BY30" s="0">
-        <v>74019.74</v>
+        <v>526468.3</v>
       </c>
       <c r="BZ30" s="0">
-        <v>141.7735</v>
+        <v>154.984</v>
       </c>
       <c r="CA30" s="0">
-        <v>190.4985</v>
+        <v>197.7356</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>2018</v>
+      </c>
+      <c r="B31" s="0">
+        <v>186.0907</v>
+      </c>
+      <c r="C31" s="0">
+        <v>125.0855</v>
+      </c>
+      <c r="D31" s="0">
+        <v>132.6111</v>
+      </c>
+      <c r="E31" s="0">
+        <v>155.9087</v>
+      </c>
+      <c r="F31" s="0">
+        <v>154.7152</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="0">
+        <v>42.14891</v>
+      </c>
+      <c r="I31" s="0">
+        <v>119.9048</v>
+      </c>
+      <c r="J31" s="0">
+        <v>135.4149</v>
+      </c>
+      <c r="K31" s="0">
+        <v>135.9119</v>
+      </c>
+      <c r="L31" s="0">
+        <v>149.9378</v>
+      </c>
+      <c r="M31" s="0">
+        <v>101.7024</v>
+      </c>
+      <c r="N31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="0">
+        <v>93.74316</v>
+      </c>
+      <c r="P31" s="0">
+        <v>216.0619</v>
+      </c>
+      <c r="Q31" s="0">
+        <v>261.9787</v>
+      </c>
+      <c r="R31" s="0">
+        <v>185.1708</v>
+      </c>
+      <c r="S31" s="0">
+        <v>82.32583</v>
+      </c>
+      <c r="T31" s="0">
+        <v>264.3959</v>
+      </c>
+      <c r="U31" s="0">
+        <v>150.0544</v>
+      </c>
+      <c r="V31" s="0">
+        <v>151.7639</v>
+      </c>
+      <c r="W31" s="0">
+        <v>148.273</v>
+      </c>
+      <c r="X31" s="0">
+        <v>38.23858</v>
+      </c>
+      <c r="Y31" s="0">
+        <v>144.6712</v>
+      </c>
+      <c r="Z31" s="0">
+        <v>86.12358</v>
+      </c>
+      <c r="AA31" s="0">
+        <v>171.5402</v>
+      </c>
+      <c r="AB31" s="0">
+        <v>238.9398</v>
+      </c>
+      <c r="AC31" s="0">
+        <v>200.0005</v>
+      </c>
+      <c r="AD31" s="0">
+        <v>225.598</v>
+      </c>
+      <c r="AE31" s="0">
+        <v>834.242</v>
+      </c>
+      <c r="AF31" s="0">
+        <v>212.8044</v>
+      </c>
+      <c r="AG31" s="0">
+        <v>125.1659</v>
+      </c>
+      <c r="AH31" s="0">
+        <v>98.76149</v>
+      </c>
+      <c r="AI31" s="0">
+        <v>75.37006</v>
+      </c>
+      <c r="AJ31" s="0">
+        <v>209.763</v>
+      </c>
+      <c r="AK31" s="0">
+        <v>128.3116</v>
+      </c>
+      <c r="AL31" s="0">
+        <v>105.0104</v>
+      </c>
+      <c r="AM31" s="0">
+        <v>162.7057</v>
+      </c>
+      <c r="AN31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP31" s="0">
+        <v>183.5162</v>
+      </c>
+      <c r="AQ31" s="0">
+        <v>242.4018</v>
+      </c>
+      <c r="AR31" s="0">
+        <v>72.2525</v>
+      </c>
+      <c r="AS31" s="0">
+        <v>328.8946</v>
+      </c>
+      <c r="AT31" s="0">
+        <v>119.0722</v>
+      </c>
+      <c r="AU31" s="0">
+        <v>148.8907</v>
+      </c>
+      <c r="AV31" s="0">
+        <v>102.5841</v>
+      </c>
+      <c r="AW31" s="0">
+        <v>117.2537</v>
+      </c>
+      <c r="AX31" s="0">
+        <v>497.1441</v>
+      </c>
+      <c r="AY31" s="0">
+        <v>141.945</v>
+      </c>
+      <c r="AZ31" s="0">
+        <v>187.3918</v>
+      </c>
+      <c r="BA31" s="0">
+        <v>163.479</v>
+      </c>
+      <c r="BB31" s="0">
+        <v>227.4105</v>
+      </c>
+      <c r="BC31" s="0">
+        <v>179.5965</v>
+      </c>
+      <c r="BD31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE31" s="0">
+        <v>213.6736</v>
+      </c>
+      <c r="BF31" s="0">
+        <v>138.9621</v>
+      </c>
+      <c r="BG31" s="0">
+        <v>267.5533</v>
+      </c>
+      <c r="BH31" s="0">
+        <v>96.08025</v>
+      </c>
+      <c r="BI31" s="0">
+        <v>65.48205</v>
+      </c>
+      <c r="BJ31" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK31" s="0">
+        <v>166.8582</v>
+      </c>
+      <c r="BL31" s="0">
+        <v>79.73159</v>
+      </c>
+      <c r="BM31" s="0">
+        <v>124.5794</v>
+      </c>
+      <c r="BN31" s="0">
+        <v>122.0487</v>
+      </c>
+      <c r="BO31" s="0">
+        <v>139.9612</v>
+      </c>
+      <c r="BP31" s="0">
+        <v>83.86785</v>
+      </c>
+      <c r="BQ31" s="0">
+        <v>188.2754</v>
+      </c>
+      <c r="BR31" s="0">
+        <v>244.5827</v>
+      </c>
+      <c r="BS31" s="0">
+        <v>154.3906</v>
+      </c>
+      <c r="BT31" s="0">
+        <v>202.1908</v>
+      </c>
+      <c r="BU31" s="0">
+        <v>134.5356</v>
+      </c>
+      <c r="BV31" s="0">
+        <v>274.0493</v>
+      </c>
+      <c r="BW31" s="0">
+        <v>62.51271</v>
+      </c>
+      <c r="BX31" s="0">
+        <v>237.6094</v>
+      </c>
+      <c r="BY31" s="0">
+        <v>26066973</v>
+      </c>
+      <c r="BZ31" s="0">
+        <v>214.5354</v>
+      </c>
+      <c r="CA31" s="0">
+        <v>209.7944</v>
       </c>
     </row>
   </sheetData>
@@ -8467,7 +8745,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:CA331"/>
+  <dimension ref="A1:CA344"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -31126,8 +31404,8 @@
       <c r="BJ95" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK95" s="0" t="s">
-        <v>79</v>
+      <c r="BK95" s="0">
+        <v>18.95829</v>
       </c>
       <c r="BL95" s="0">
         <v>32.33257</v>
@@ -31169,7 +31447,7 @@
         <v>75.1257</v>
       </c>
       <c r="BY95" s="0">
-        <v>18.09608</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ95" s="0" t="s">
         <v>79</v>
@@ -31365,8 +31643,8 @@
       <c r="BJ96" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK96" s="0" t="s">
-        <v>79</v>
+      <c r="BK96" s="0">
+        <v>18.75012</v>
       </c>
       <c r="BL96" s="0">
         <v>33.92989</v>
@@ -31408,7 +31686,7 @@
         <v>75.21385</v>
       </c>
       <c r="BY96" s="0">
-        <v>17.66523</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ96" s="0" t="s">
         <v>79</v>
@@ -31604,8 +31882,8 @@
       <c r="BJ97" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK97" s="0" t="s">
-        <v>79</v>
+      <c r="BK97" s="0">
+        <v>15.66224</v>
       </c>
       <c r="BL97" s="0">
         <v>24.6637</v>
@@ -31647,7 +31925,7 @@
         <v>73.31854</v>
       </c>
       <c r="BY97" s="0">
-        <v>15.32375</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ97" s="0" t="s">
         <v>79</v>
@@ -31843,8 +32121,8 @@
       <c r="BJ98" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK98" s="0" t="s">
-        <v>79</v>
+      <c r="BK98" s="0">
+        <v>13.46979</v>
       </c>
       <c r="BL98" s="0">
         <v>24.23652</v>
@@ -31867,8 +32145,8 @@
       <c r="BR98" s="0">
         <v>51.65438</v>
       </c>
-      <c r="BS98" s="0" t="s">
-        <v>79</v>
+      <c r="BS98" s="0">
+        <v>22.04987</v>
       </c>
       <c r="BT98" s="0">
         <v>5.612085</v>
@@ -31886,7 +32164,7 @@
         <v>75.53857</v>
       </c>
       <c r="BY98" s="0">
-        <v>14.54</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ98" s="0" t="s">
         <v>79</v>
@@ -32082,8 +32360,8 @@
       <c r="BJ99" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK99" s="0" t="s">
-        <v>79</v>
+      <c r="BK99" s="0">
+        <v>14.44511</v>
       </c>
       <c r="BL99" s="0">
         <v>21.60333</v>
@@ -32106,8 +32384,8 @@
       <c r="BR99" s="0">
         <v>54.68932</v>
       </c>
-      <c r="BS99" s="0" t="s">
-        <v>79</v>
+      <c r="BS99" s="0">
+        <v>22.03789</v>
       </c>
       <c r="BT99" s="0">
         <v>6.406301</v>
@@ -32125,7 +32403,7 @@
         <v>74.56955</v>
       </c>
       <c r="BY99" s="0">
-        <v>12.63164</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ99" s="0" t="s">
         <v>79</v>
@@ -32321,8 +32599,8 @@
       <c r="BJ100" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK100" s="0" t="s">
-        <v>79</v>
+      <c r="BK100" s="0">
+        <v>14.87632</v>
       </c>
       <c r="BL100" s="0">
         <v>19.99783</v>
@@ -32345,8 +32623,8 @@
       <c r="BR100" s="0">
         <v>71.55064</v>
       </c>
-      <c r="BS100" s="0" t="s">
-        <v>79</v>
+      <c r="BS100" s="0">
+        <v>22.2355</v>
       </c>
       <c r="BT100" s="0">
         <v>5.678729</v>
@@ -32364,7 +32642,7 @@
         <v>79.4902</v>
       </c>
       <c r="BY100" s="0">
-        <v>12.56104</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ100" s="0" t="s">
         <v>79</v>
@@ -32560,8 +32838,8 @@
       <c r="BJ101" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK101" s="0" t="s">
-        <v>79</v>
+      <c r="BK101" s="0">
+        <v>16.20478</v>
       </c>
       <c r="BL101" s="0">
         <v>22.23285</v>
@@ -32584,8 +32862,8 @@
       <c r="BR101" s="0">
         <v>68.8939</v>
       </c>
-      <c r="BS101" s="0" t="s">
-        <v>79</v>
+      <c r="BS101" s="0">
+        <v>22.16783</v>
       </c>
       <c r="BT101" s="0">
         <v>6.165707</v>
@@ -32603,7 +32881,7 @@
         <v>83.17524</v>
       </c>
       <c r="BY101" s="0">
-        <v>12.8482</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ101" s="0" t="s">
         <v>79</v>
@@ -32799,8 +33077,8 @@
       <c r="BJ102" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK102" s="0" t="s">
-        <v>79</v>
+      <c r="BK102" s="0">
+        <v>15.70697</v>
       </c>
       <c r="BL102" s="0">
         <v>20.66203</v>
@@ -32823,8 +33101,8 @@
       <c r="BR102" s="0">
         <v>59.65912</v>
       </c>
-      <c r="BS102" s="0" t="s">
-        <v>79</v>
+      <c r="BS102" s="0">
+        <v>22.14619</v>
       </c>
       <c r="BT102" s="0">
         <v>7.142802</v>
@@ -32842,7 +33120,7 @@
         <v>86.30729</v>
       </c>
       <c r="BY102" s="0">
-        <v>11.9799</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ102" s="0" t="s">
         <v>79</v>
@@ -33038,8 +33316,8 @@
       <c r="BJ103" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK103" s="0" t="s">
-        <v>79</v>
+      <c r="BK103" s="0">
+        <v>14.81103</v>
       </c>
       <c r="BL103" s="0">
         <v>16.36836</v>
@@ -33062,8 +33340,8 @@
       <c r="BR103" s="0">
         <v>50.02819</v>
       </c>
-      <c r="BS103" s="0" t="s">
-        <v>79</v>
+      <c r="BS103" s="0">
+        <v>21.69631</v>
       </c>
       <c r="BT103" s="0">
         <v>7.517842</v>
@@ -33081,7 +33359,7 @@
         <v>86.71443</v>
       </c>
       <c r="BY103" s="0">
-        <v>10.94758</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ103" s="0" t="s">
         <v>79</v>
@@ -33277,8 +33555,8 @@
       <c r="BJ104" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK104" s="0" t="s">
-        <v>79</v>
+      <c r="BK104" s="0">
+        <v>12.70006</v>
       </c>
       <c r="BL104" s="0">
         <v>11.86498</v>
@@ -33301,8 +33579,8 @@
       <c r="BR104" s="0">
         <v>39.44586</v>
       </c>
-      <c r="BS104" s="0" t="s">
-        <v>79</v>
+      <c r="BS104" s="0">
+        <v>21.23116</v>
       </c>
       <c r="BT104" s="0">
         <v>7.303309</v>
@@ -33320,7 +33598,7 @@
         <v>84.73652</v>
       </c>
       <c r="BY104" s="0">
-        <v>9.421928</v>
+        <v>14.68182</v>
       </c>
       <c r="BZ104" s="0" t="s">
         <v>79</v>
@@ -33516,8 +33794,8 @@
       <c r="BJ105" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK105" s="0" t="s">
-        <v>79</v>
+      <c r="BK105" s="0">
+        <v>11.36369</v>
       </c>
       <c r="BL105" s="0">
         <v>10.44317</v>
@@ -33540,8 +33818,8 @@
       <c r="BR105" s="0">
         <v>37.86497</v>
       </c>
-      <c r="BS105" s="0" t="s">
-        <v>79</v>
+      <c r="BS105" s="0">
+        <v>20.43074</v>
       </c>
       <c r="BT105" s="0">
         <v>8.024796</v>
@@ -33559,7 +33837,7 @@
         <v>86.8774</v>
       </c>
       <c r="BY105" s="0">
-        <v>8.367188</v>
+        <v>3.754941</v>
       </c>
       <c r="BZ105" s="0" t="s">
         <v>79</v>
@@ -33755,8 +34033,8 @@
       <c r="BJ106" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK106" s="0" t="s">
-        <v>79</v>
+      <c r="BK106" s="0">
+        <v>9.293862</v>
       </c>
       <c r="BL106" s="0">
         <v>6.80724</v>
@@ -33779,8 +34057,8 @@
       <c r="BR106" s="0">
         <v>32.77172</v>
       </c>
-      <c r="BS106" s="0" t="s">
-        <v>79</v>
+      <c r="BS106" s="0">
+        <v>20.47574</v>
       </c>
       <c r="BT106" s="0">
         <v>6.266572</v>
@@ -33798,7 +34076,7 @@
         <v>80.96961</v>
       </c>
       <c r="BY106" s="0">
-        <v>6.528914</v>
+        <v>0</v>
       </c>
       <c r="BZ106" s="0" t="s">
         <v>79</v>
@@ -33994,8 +34272,8 @@
       <c r="BJ107" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK107" s="0" t="s">
-        <v>79</v>
+      <c r="BK107" s="0">
+        <v>6.423461</v>
       </c>
       <c r="BL107" s="0">
         <v>3.690136</v>
@@ -34018,8 +34296,8 @@
       <c r="BR107" s="0">
         <v>30.84665</v>
       </c>
-      <c r="BS107" s="0" t="s">
-        <v>79</v>
+      <c r="BS107" s="0">
+        <v>20.62863</v>
       </c>
       <c r="BT107" s="0">
         <v>4.404176</v>
@@ -34037,7 +34315,7 @@
         <v>75.5383</v>
       </c>
       <c r="BY107" s="0">
-        <v>5.264455</v>
+        <v>0</v>
       </c>
       <c r="BZ107" s="0" t="s">
         <v>79</v>
@@ -34233,8 +34511,8 @@
       <c r="BJ108" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK108" s="0" t="s">
-        <v>79</v>
+      <c r="BK108" s="0">
+        <v>5.797857</v>
       </c>
       <c r="BL108" s="0">
         <v>3.360237</v>
@@ -34257,8 +34535,8 @@
       <c r="BR108" s="0">
         <v>40.96871</v>
       </c>
-      <c r="BS108" s="0" t="s">
-        <v>79</v>
+      <c r="BS108" s="0">
+        <v>20.39535</v>
       </c>
       <c r="BT108" s="0">
         <v>3.802954</v>
@@ -34276,7 +34554,7 @@
         <v>77.97047</v>
       </c>
       <c r="BY108" s="0">
-        <v>6.094909</v>
+        <v>0</v>
       </c>
       <c r="BZ108" s="0" t="s">
         <v>79</v>
@@ -34472,8 +34750,8 @@
       <c r="BJ109" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK109" s="0" t="s">
-        <v>79</v>
+      <c r="BK109" s="0">
+        <v>7.139584</v>
       </c>
       <c r="BL109" s="0">
         <v>4.176264</v>
@@ -34496,8 +34774,8 @@
       <c r="BR109" s="0">
         <v>49.38394</v>
       </c>
-      <c r="BS109" s="0" t="s">
-        <v>79</v>
+      <c r="BS109" s="0">
+        <v>20.20734</v>
       </c>
       <c r="BT109" s="0">
         <v>4.382524</v>
@@ -34515,7 +34793,7 @@
         <v>86.00467</v>
       </c>
       <c r="BY109" s="0">
-        <v>6.558394</v>
+        <v>0</v>
       </c>
       <c r="BZ109" s="0" t="s">
         <v>79</v>
@@ -34711,8 +34989,8 @@
       <c r="BJ110" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK110" s="0" t="s">
-        <v>79</v>
+      <c r="BK110" s="0">
+        <v>7.342897</v>
       </c>
       <c r="BL110" s="0">
         <v>4.023982</v>
@@ -34735,8 +35013,8 @@
       <c r="BR110" s="0">
         <v>47.84829</v>
       </c>
-      <c r="BS110" s="0" t="s">
-        <v>79</v>
+      <c r="BS110" s="0">
+        <v>20.12196</v>
       </c>
       <c r="BT110" s="0">
         <v>4.540675</v>
@@ -34754,7 +35032,7 @@
         <v>86.12814</v>
       </c>
       <c r="BY110" s="0">
-        <v>7.812654</v>
+        <v>1.570248</v>
       </c>
       <c r="BZ110" s="0" t="s">
         <v>79</v>
@@ -34950,8 +35228,8 @@
       <c r="BJ111" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK111" s="0" t="s">
-        <v>79</v>
+      <c r="BK111" s="0">
+        <v>7.403355</v>
       </c>
       <c r="BL111" s="0">
         <v>3.747646</v>
@@ -34974,8 +35252,8 @@
       <c r="BR111" s="0">
         <v>52.60656</v>
       </c>
-      <c r="BS111" s="0" t="s">
-        <v>79</v>
+      <c r="BS111" s="0">
+        <v>20.47744</v>
       </c>
       <c r="BT111" s="0">
         <v>4.805179</v>
@@ -34993,7 +35271,7 @@
         <v>89.25267</v>
       </c>
       <c r="BY111" s="0">
-        <v>7.290384</v>
+        <v>0</v>
       </c>
       <c r="BZ111" s="0" t="s">
         <v>79</v>
@@ -35189,8 +35467,8 @@
       <c r="BJ112" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK112" s="0" t="s">
-        <v>79</v>
+      <c r="BK112" s="0">
+        <v>7.373461</v>
       </c>
       <c r="BL112" s="0">
         <v>4.233044</v>
@@ -35213,8 +35491,8 @@
       <c r="BR112" s="0">
         <v>46.22017</v>
       </c>
-      <c r="BS112" s="0" t="s">
-        <v>79</v>
+      <c r="BS112" s="0">
+        <v>23.37239</v>
       </c>
       <c r="BT112" s="0">
         <v>5.894972</v>
@@ -35232,7 +35510,7 @@
         <v>89.03385</v>
       </c>
       <c r="BY112" s="0">
-        <v>6.946405</v>
+        <v>0</v>
       </c>
       <c r="BZ112" s="0" t="s">
         <v>79</v>
@@ -35428,8 +35706,8 @@
       <c r="BJ113" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK113" s="0" t="s">
-        <v>79</v>
+      <c r="BK113" s="0">
+        <v>7.608967</v>
       </c>
       <c r="BL113" s="0">
         <v>5.246651</v>
@@ -35452,8 +35730,8 @@
       <c r="BR113" s="0">
         <v>48.42032</v>
       </c>
-      <c r="BS113" s="0" t="s">
-        <v>79</v>
+      <c r="BS113" s="0">
+        <v>24.60287</v>
       </c>
       <c r="BT113" s="0">
         <v>7.482195</v>
@@ -35471,7 +35749,7 @@
         <v>93.14693</v>
       </c>
       <c r="BY113" s="0">
-        <v>6.677689</v>
+        <v>0</v>
       </c>
       <c r="BZ113" s="0" t="s">
         <v>79</v>
@@ -35667,8 +35945,8 @@
       <c r="BJ114" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK114" s="0" t="s">
-        <v>79</v>
+      <c r="BK114" s="0">
+        <v>6.684983</v>
       </c>
       <c r="BL114" s="0">
         <v>5.13181</v>
@@ -35691,8 +35969,8 @@
       <c r="BR114" s="0">
         <v>54.3131</v>
       </c>
-      <c r="BS114" s="0" t="s">
-        <v>79</v>
+      <c r="BS114" s="0">
+        <v>23.63661</v>
       </c>
       <c r="BT114" s="0">
         <v>8.904076</v>
@@ -35710,7 +35988,7 @@
         <v>99.73512</v>
       </c>
       <c r="BY114" s="0">
-        <v>8.284158</v>
+        <v>7.272727</v>
       </c>
       <c r="BZ114" s="0" t="s">
         <v>79</v>
@@ -35906,8 +36184,8 @@
       <c r="BJ115" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK115" s="0" t="s">
-        <v>79</v>
+      <c r="BK115" s="0">
+        <v>7.586318</v>
       </c>
       <c r="BL115" s="0">
         <v>6.346706</v>
@@ -35930,8 +36208,8 @@
       <c r="BR115" s="0">
         <v>65.84281</v>
       </c>
-      <c r="BS115" s="0" t="s">
-        <v>79</v>
+      <c r="BS115" s="0">
+        <v>23.6725</v>
       </c>
       <c r="BT115" s="0">
         <v>10.00943</v>
@@ -35949,7 +36227,7 @@
         <v>103.6541</v>
       </c>
       <c r="BY115" s="0">
-        <v>10.08485</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ115" s="0" t="s">
         <v>79</v>
@@ -36145,8 +36423,8 @@
       <c r="BJ116" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK116" s="0" t="s">
-        <v>79</v>
+      <c r="BK116" s="0">
+        <v>8.361374</v>
       </c>
       <c r="BL116" s="0">
         <v>7.542382</v>
@@ -36169,8 +36447,8 @@
       <c r="BR116" s="0">
         <v>70.32395</v>
       </c>
-      <c r="BS116" s="0" t="s">
-        <v>79</v>
+      <c r="BS116" s="0">
+        <v>23.50216</v>
       </c>
       <c r="BT116" s="0">
         <v>9.488454</v>
@@ -36188,7 +36466,7 @@
         <v>102.2231</v>
       </c>
       <c r="BY116" s="0">
-        <v>9.618239</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ116" s="0" t="s">
         <v>79</v>
@@ -36384,8 +36662,8 @@
       <c r="BJ117" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK117" s="0" t="s">
-        <v>79</v>
+      <c r="BK117" s="0">
+        <v>9.714794</v>
       </c>
       <c r="BL117" s="0">
         <v>8.786626</v>
@@ -36408,8 +36686,8 @@
       <c r="BR117" s="0">
         <v>67.86682</v>
       </c>
-      <c r="BS117" s="0" t="s">
-        <v>79</v>
+      <c r="BS117" s="0">
+        <v>23.4756</v>
       </c>
       <c r="BT117" s="0">
         <v>10.10762</v>
@@ -36427,7 +36705,7 @@
         <v>105.5484</v>
       </c>
       <c r="BY117" s="0">
-        <v>8.768545</v>
+        <v>13.16017</v>
       </c>
       <c r="BZ117" s="0" t="s">
         <v>79</v>
@@ -36623,8 +36901,8 @@
       <c r="BJ118" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK118" s="0" t="s">
-        <v>79</v>
+      <c r="BK118" s="0">
+        <v>10.56579</v>
       </c>
       <c r="BL118" s="0">
         <v>7.047831</v>
@@ -36647,8 +36925,8 @@
       <c r="BR118" s="0">
         <v>60.33759</v>
       </c>
-      <c r="BS118" s="0" t="s">
-        <v>79</v>
+      <c r="BS118" s="0">
+        <v>24.50966</v>
       </c>
       <c r="BT118" s="0">
         <v>10.25977</v>
@@ -36666,7 +36944,7 @@
         <v>104.4335</v>
       </c>
       <c r="BY118" s="0">
-        <v>7.919741</v>
+        <v>0</v>
       </c>
       <c r="BZ118" s="0" t="s">
         <v>79</v>
@@ -36862,8 +37140,8 @@
       <c r="BJ119" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK119" s="0" t="s">
-        <v>79</v>
+      <c r="BK119" s="0">
+        <v>10.69127</v>
       </c>
       <c r="BL119" s="0">
         <v>6.073357</v>
@@ -36886,8 +37164,8 @@
       <c r="BR119" s="0">
         <v>57.63972</v>
       </c>
-      <c r="BS119" s="0" t="s">
-        <v>79</v>
+      <c r="BS119" s="0">
+        <v>24.90323</v>
       </c>
       <c r="BT119" s="0">
         <v>10.98711</v>
@@ -36905,7 +37183,7 @@
         <v>102.3187</v>
       </c>
       <c r="BY119" s="0">
-        <v>8.731882</v>
+        <v>8.636364</v>
       </c>
       <c r="BZ119" s="0" t="s">
         <v>79</v>
@@ -37101,8 +37379,8 @@
       <c r="BJ120" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK120" s="0" t="s">
-        <v>79</v>
+      <c r="BK120" s="0">
+        <v>10.70769</v>
       </c>
       <c r="BL120" s="0">
         <v>6.221764</v>
@@ -37125,8 +37403,8 @@
       <c r="BR120" s="0">
         <v>53.26201</v>
       </c>
-      <c r="BS120" s="0" t="s">
-        <v>79</v>
+      <c r="BS120" s="0">
+        <v>26.05094</v>
       </c>
       <c r="BT120" s="0">
         <v>11.00579</v>
@@ -37144,7 +37422,7 @@
         <v>99.28994</v>
       </c>
       <c r="BY120" s="0">
-        <v>9.399573</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ120" s="0" t="s">
         <v>79</v>
@@ -37340,8 +37618,8 @@
       <c r="BJ121" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="BK121" s="0" t="s">
-        <v>79</v>
+      <c r="BK121" s="0">
+        <v>10.50876</v>
       </c>
       <c r="BL121" s="0">
         <v>7.328331</v>
@@ -37364,8 +37642,8 @@
       <c r="BR121" s="0">
         <v>56.98373</v>
       </c>
-      <c r="BS121" s="0" t="s">
-        <v>79</v>
+      <c r="BS121" s="0">
+        <v>26.16429</v>
       </c>
       <c r="BT121" s="0">
         <v>14.52919</v>
@@ -37383,7 +37661,7 @@
         <v>103.2333</v>
       </c>
       <c r="BY121" s="0">
-        <v>9.520275</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ121" s="0" t="s">
         <v>79</v>
@@ -37579,8 +37857,8 @@
       <c r="BJ122" s="0">
         <v>17.12461</v>
       </c>
-      <c r="BK122" s="0" t="s">
-        <v>79</v>
+      <c r="BK122" s="0">
+        <v>9.447654</v>
       </c>
       <c r="BL122" s="0">
         <v>8.587718</v>
@@ -37603,8 +37881,8 @@
       <c r="BR122" s="0">
         <v>60.78524</v>
       </c>
-      <c r="BS122" s="0" t="s">
-        <v>79</v>
+      <c r="BS122" s="0">
+        <v>26.07309</v>
       </c>
       <c r="BT122" s="0">
         <v>22.21488</v>
@@ -37622,7 +37900,7 @@
         <v>107.4024</v>
       </c>
       <c r="BY122" s="0">
-        <v>8.895084</v>
+        <v>15.45455</v>
       </c>
       <c r="BZ122" s="0" t="s">
         <v>79</v>
@@ -37818,8 +38096,8 @@
       <c r="BJ123" s="0">
         <v>17.19661</v>
       </c>
-      <c r="BK123" s="0" t="s">
-        <v>79</v>
+      <c r="BK123" s="0">
+        <v>10.74579</v>
       </c>
       <c r="BL123" s="0">
         <v>12.42961</v>
@@ -37842,8 +38120,8 @@
       <c r="BR123" s="0">
         <v>64.81779</v>
       </c>
-      <c r="BS123" s="0" t="s">
-        <v>79</v>
+      <c r="BS123" s="0">
+        <v>28.29701</v>
       </c>
       <c r="BT123" s="0">
         <v>32.33548</v>
@@ -37861,7 +38139,7 @@
         <v>107.7357</v>
       </c>
       <c r="BY123" s="0">
-        <v>9.386675</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ123" s="0" t="s">
         <v>79</v>
@@ -38057,8 +38335,8 @@
       <c r="BJ124" s="0">
         <v>16.43487</v>
       </c>
-      <c r="BK124" s="0" t="s">
-        <v>79</v>
+      <c r="BK124" s="0">
+        <v>12.13683</v>
       </c>
       <c r="BL124" s="0">
         <v>11.79182</v>
@@ -38081,8 +38359,8 @@
       <c r="BR124" s="0">
         <v>59.34914</v>
       </c>
-      <c r="BS124" s="0" t="s">
-        <v>79</v>
+      <c r="BS124" s="0">
+        <v>29.25018</v>
       </c>
       <c r="BT124" s="0">
         <v>28.48527</v>
@@ -38100,7 +38378,7 @@
         <v>100.6751</v>
       </c>
       <c r="BY124" s="0">
-        <v>9.810158</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ124" s="0" t="s">
         <v>79</v>
@@ -38296,8 +38574,8 @@
       <c r="BJ125" s="0">
         <v>15.69256</v>
       </c>
-      <c r="BK125" s="0" t="s">
-        <v>79</v>
+      <c r="BK125" s="0">
+        <v>11.08339</v>
       </c>
       <c r="BL125" s="0">
         <v>14.23655</v>
@@ -38320,8 +38598,8 @@
       <c r="BR125" s="0">
         <v>54.33012</v>
       </c>
-      <c r="BS125" s="0" t="s">
-        <v>79</v>
+      <c r="BS125" s="0">
+        <v>29.49038</v>
       </c>
       <c r="BT125" s="0">
         <v>31.47439</v>
@@ -38339,7 +38617,7 @@
         <v>100.1161</v>
       </c>
       <c r="BY125" s="0">
-        <v>10.10004</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ125" s="0" t="s">
         <v>79</v>
@@ -38535,8 +38813,8 @@
       <c r="BJ126" s="0">
         <v>15.11203</v>
       </c>
-      <c r="BK126" s="0" t="s">
-        <v>79</v>
+      <c r="BK126" s="0">
+        <v>10.41721</v>
       </c>
       <c r="BL126" s="0">
         <v>14.31034</v>
@@ -38559,8 +38837,8 @@
       <c r="BR126" s="0">
         <v>54.45511</v>
       </c>
-      <c r="BS126" s="0" t="s">
-        <v>79</v>
+      <c r="BS126" s="0">
+        <v>29.28628</v>
       </c>
       <c r="BT126" s="0">
         <v>31.57803</v>
@@ -38578,7 +38856,7 @@
         <v>104.5179</v>
       </c>
       <c r="BY126" s="0">
-        <v>9.474282</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ126" s="0" t="s">
         <v>79</v>
@@ -38774,8 +39052,8 @@
       <c r="BJ127" s="0">
         <v>15.62585</v>
       </c>
-      <c r="BK127" s="0" t="s">
-        <v>79</v>
+      <c r="BK127" s="0">
+        <v>10.52772</v>
       </c>
       <c r="BL127" s="0">
         <v>13.28939</v>
@@ -38798,8 +39076,8 @@
       <c r="BR127" s="0">
         <v>46.81939</v>
       </c>
-      <c r="BS127" s="0" t="s">
-        <v>79</v>
+      <c r="BS127" s="0">
+        <v>29.42381</v>
       </c>
       <c r="BT127" s="0">
         <v>31.53351</v>
@@ -38817,7 +39095,7 @@
         <v>101.0413</v>
       </c>
       <c r="BY127" s="0">
-        <v>10.87753</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ127" s="0" t="s">
         <v>79</v>
@@ -39013,8 +39291,8 @@
       <c r="BJ128" s="0">
         <v>15.96044</v>
       </c>
-      <c r="BK128" s="0" t="s">
-        <v>79</v>
+      <c r="BK128" s="0">
+        <v>10.38233</v>
       </c>
       <c r="BL128" s="0">
         <v>12.33174</v>
@@ -39037,8 +39315,8 @@
       <c r="BR128" s="0">
         <v>46.48003</v>
       </c>
-      <c r="BS128" s="0" t="s">
-        <v>79</v>
+      <c r="BS128" s="0">
+        <v>29.68174</v>
       </c>
       <c r="BT128" s="0">
         <v>28.26549</v>
@@ -39056,7 +39334,7 @@
         <v>101.0666</v>
       </c>
       <c r="BY128" s="0">
-        <v>12.10887</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ128" s="0" t="s">
         <v>79</v>
@@ -39252,8 +39530,8 @@
       <c r="BJ129" s="0">
         <v>16.1979</v>
       </c>
-      <c r="BK129" s="0" t="s">
-        <v>79</v>
+      <c r="BK129" s="0">
+        <v>10.95064</v>
       </c>
       <c r="BL129" s="0">
         <v>12.24257</v>
@@ -39276,8 +39554,8 @@
       <c r="BR129" s="0">
         <v>42.65504</v>
       </c>
-      <c r="BS129" s="0" t="s">
-        <v>79</v>
+      <c r="BS129" s="0">
+        <v>30.44946</v>
       </c>
       <c r="BT129" s="0">
         <v>25.32992</v>
@@ -39295,7 +39573,7 @@
         <v>101.8308</v>
       </c>
       <c r="BY129" s="0">
-        <v>11.82542</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ129" s="0">
         <v>20.0845</v>
@@ -39491,8 +39769,8 @@
       <c r="BJ130" s="0">
         <v>16.45506</v>
       </c>
-      <c r="BK130" s="0" t="s">
-        <v>79</v>
+      <c r="BK130" s="0">
+        <v>11.54947</v>
       </c>
       <c r="BL130" s="0">
         <v>14.75398</v>
@@ -39515,8 +39793,8 @@
       <c r="BR130" s="0">
         <v>42.85426</v>
       </c>
-      <c r="BS130" s="0" t="s">
-        <v>79</v>
+      <c r="BS130" s="0">
+        <v>31.57269</v>
       </c>
       <c r="BT130" s="0">
         <v>24.35778</v>
@@ -39534,7 +39812,7 @@
         <v>105.1883</v>
       </c>
       <c r="BY130" s="0">
-        <v>11.40749</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ130" s="0">
         <v>22.43035</v>
@@ -39730,8 +40008,8 @@
       <c r="BJ131" s="0">
         <v>16.23228</v>
       </c>
-      <c r="BK131" s="0" t="s">
-        <v>79</v>
+      <c r="BK131" s="0">
+        <v>9.974137</v>
       </c>
       <c r="BL131" s="0">
         <v>13.91181</v>
@@ -39754,8 +40032,8 @@
       <c r="BR131" s="0">
         <v>39.89766</v>
       </c>
-      <c r="BS131" s="0" t="s">
-        <v>79</v>
+      <c r="BS131" s="0">
+        <v>31.79612</v>
       </c>
       <c r="BT131" s="0">
         <v>21.55957</v>
@@ -39773,7 +40051,7 @@
         <v>104.7428</v>
       </c>
       <c r="BY131" s="0">
-        <v>11.93187</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ131" s="0">
         <v>23.26899</v>
@@ -39969,8 +40247,8 @@
       <c r="BJ132" s="0">
         <v>15.78305</v>
       </c>
-      <c r="BK132" s="0" t="s">
-        <v>79</v>
+      <c r="BK132" s="0">
+        <v>10.23185</v>
       </c>
       <c r="BL132" s="0">
         <v>12.7702</v>
@@ -39993,8 +40271,8 @@
       <c r="BR132" s="0">
         <v>36.76754</v>
       </c>
-      <c r="BS132" s="0" t="s">
-        <v>79</v>
+      <c r="BS132" s="0">
+        <v>31.37764</v>
       </c>
       <c r="BT132" s="0">
         <v>23.77865</v>
@@ -40012,7 +40290,7 @@
         <v>99.71091</v>
       </c>
       <c r="BY132" s="0">
-        <v>11.27186</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ132" s="0">
         <v>26.00503</v>
@@ -40208,8 +40486,8 @@
       <c r="BJ133" s="0">
         <v>16.26092</v>
       </c>
-      <c r="BK133" s="0" t="s">
-        <v>79</v>
+      <c r="BK133" s="0">
+        <v>10.21021</v>
       </c>
       <c r="BL133" s="0">
         <v>11.4899</v>
@@ -40232,8 +40510,8 @@
       <c r="BR133" s="0">
         <v>39.53211</v>
       </c>
-      <c r="BS133" s="0" t="s">
-        <v>79</v>
+      <c r="BS133" s="0">
+        <v>30.67859</v>
       </c>
       <c r="BT133" s="0">
         <v>22.90744</v>
@@ -40251,7 +40529,7 @@
         <v>101.8606</v>
       </c>
       <c r="BY133" s="0">
-        <v>11.10153</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ133" s="0">
         <v>31.47598</v>
@@ -40447,8 +40725,8 @@
       <c r="BJ134" s="0">
         <v>16.33784</v>
       </c>
-      <c r="BK134" s="0" t="s">
-        <v>79</v>
+      <c r="BK134" s="0">
+        <v>10.48882</v>
       </c>
       <c r="BL134" s="0">
         <v>9.545133</v>
@@ -40471,8 +40749,8 @@
       <c r="BR134" s="0">
         <v>37.17897</v>
       </c>
-      <c r="BS134" s="0" t="s">
-        <v>79</v>
+      <c r="BS134" s="0">
+        <v>31.42702</v>
       </c>
       <c r="BT134" s="0">
         <v>16.89905</v>
@@ -40490,7 +40768,7 @@
         <v>101.7302</v>
       </c>
       <c r="BY134" s="0">
-        <v>11.58859</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ134" s="0">
         <v>37.66901</v>
@@ -40686,8 +40964,8 @@
       <c r="BJ135" s="0">
         <v>16.26095</v>
       </c>
-      <c r="BK135" s="0" t="s">
-        <v>79</v>
+      <c r="BK135" s="0">
+        <v>12.10396</v>
       </c>
       <c r="BL135" s="0">
         <v>10.73132</v>
@@ -40710,8 +40988,8 @@
       <c r="BR135" s="0">
         <v>42.79717</v>
       </c>
-      <c r="BS135" s="0" t="s">
-        <v>79</v>
+      <c r="BS135" s="0">
+        <v>31.20379</v>
       </c>
       <c r="BT135" s="0">
         <v>19.5701</v>
@@ -40729,7 +41007,7 @@
         <v>102.0199</v>
       </c>
       <c r="BY135" s="0">
-        <v>13.0646</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ135" s="0">
         <v>45.36039</v>
@@ -40925,8 +41203,8 @@
       <c r="BJ136" s="0">
         <v>16.16058</v>
       </c>
-      <c r="BK136" s="0" t="s">
-        <v>79</v>
+      <c r="BK136" s="0">
+        <v>11.62814</v>
       </c>
       <c r="BL136" s="0">
         <v>11.23047</v>
@@ -40949,8 +41227,8 @@
       <c r="BR136" s="0">
         <v>44.10494</v>
       </c>
-      <c r="BS136" s="0" t="s">
-        <v>79</v>
+      <c r="BS136" s="0">
+        <v>30.72429</v>
       </c>
       <c r="BT136" s="0">
         <v>17.05841</v>
@@ -40968,7 +41246,7 @@
         <v>102.8969</v>
       </c>
       <c r="BY136" s="0">
-        <v>13.37119</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ136" s="0">
         <v>50.39993</v>
@@ -41164,8 +41442,8 @@
       <c r="BJ137" s="0">
         <v>16.00938</v>
       </c>
-      <c r="BK137" s="0" t="s">
-        <v>79</v>
+      <c r="BK137" s="0">
+        <v>11.80577</v>
       </c>
       <c r="BL137" s="0">
         <v>11.37219</v>
@@ -41188,8 +41466,8 @@
       <c r="BR137" s="0">
         <v>40.88178</v>
       </c>
-      <c r="BS137" s="0" t="s">
-        <v>79</v>
+      <c r="BS137" s="0">
+        <v>29.38055</v>
       </c>
       <c r="BT137" s="0">
         <v>15.48268</v>
@@ -41207,7 +41485,7 @@
         <v>96.27632</v>
       </c>
       <c r="BY137" s="0">
-        <v>13.14954</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ137" s="0">
         <v>51.39422</v>
@@ -41403,8 +41681,8 @@
       <c r="BJ138" s="0">
         <v>16.08192</v>
       </c>
-      <c r="BK138" s="0" t="s">
-        <v>79</v>
+      <c r="BK138" s="0">
+        <v>10.75959</v>
       </c>
       <c r="BL138" s="0">
         <v>11.17797</v>
@@ -41427,8 +41705,8 @@
       <c r="BR138" s="0">
         <v>39.89158</v>
       </c>
-      <c r="BS138" s="0" t="s">
-        <v>79</v>
+      <c r="BS138" s="0">
+        <v>30.30617</v>
       </c>
       <c r="BT138" s="0">
         <v>17.09729</v>
@@ -41446,7 +41724,7 @@
         <v>97.73934</v>
       </c>
       <c r="BY138" s="0">
-        <v>12.74925</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ138" s="0">
         <v>59.95473</v>
@@ -41642,8 +41920,8 @@
       <c r="BJ139" s="0">
         <v>18.02652</v>
       </c>
-      <c r="BK139" s="0" t="s">
-        <v>79</v>
+      <c r="BK139" s="0">
+        <v>11.29838</v>
       </c>
       <c r="BL139" s="0">
         <v>13.07936</v>
@@ -41666,8 +41944,8 @@
       <c r="BR139" s="0">
         <v>42.25808</v>
       </c>
-      <c r="BS139" s="0" t="s">
-        <v>79</v>
+      <c r="BS139" s="0">
+        <v>30.69011</v>
       </c>
       <c r="BT139" s="0">
         <v>22.04905</v>
@@ -41685,7 +41963,7 @@
         <v>105.097</v>
       </c>
       <c r="BY139" s="0">
-        <v>13.1692</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ139" s="0">
         <v>72.66893</v>
@@ -41881,8 +42159,8 @@
       <c r="BJ140" s="0">
         <v>18.35579</v>
       </c>
-      <c r="BK140" s="0" t="s">
-        <v>79</v>
+      <c r="BK140" s="0">
+        <v>12.22365</v>
       </c>
       <c r="BL140" s="0">
         <v>14.25012</v>
@@ -41905,8 +42183,8 @@
       <c r="BR140" s="0">
         <v>43.65719</v>
       </c>
-      <c r="BS140" s="0" t="s">
-        <v>79</v>
+      <c r="BS140" s="0">
+        <v>29.4272</v>
       </c>
       <c r="BT140" s="0">
         <v>20.84853</v>
@@ -41924,7 +42202,7 @@
         <v>102.8264</v>
       </c>
       <c r="BY140" s="0">
-        <v>12.90163</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ140" s="0">
         <v>96.41435</v>
@@ -42120,8 +42398,8 @@
       <c r="BJ141" s="0">
         <v>18.47267</v>
       </c>
-      <c r="BK141" s="0" t="s">
-        <v>79</v>
+      <c r="BK141" s="0">
+        <v>12.62078</v>
       </c>
       <c r="BL141" s="0">
         <v>13.36316</v>
@@ -42144,8 +42422,8 @@
       <c r="BR141" s="0">
         <v>43.13326</v>
       </c>
-      <c r="BS141" s="0" t="s">
-        <v>79</v>
+      <c r="BS141" s="0">
+        <v>29.22651</v>
       </c>
       <c r="BT141" s="0">
         <v>18.08592</v>
@@ -42163,7 +42441,7 @@
         <v>99.74468</v>
       </c>
       <c r="BY141" s="0">
-        <v>12.97154</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ141" s="0">
         <v>90.50648</v>
@@ -42359,8 +42637,8 @@
       <c r="BJ142" s="0">
         <v>19.56753</v>
       </c>
-      <c r="BK142" s="0" t="s">
-        <v>79</v>
+      <c r="BK142" s="0">
+        <v>14.64739</v>
       </c>
       <c r="BL142" s="0">
         <v>13.00171</v>
@@ -42383,8 +42661,8 @@
       <c r="BR142" s="0">
         <v>44.22237</v>
       </c>
-      <c r="BS142" s="0" t="s">
-        <v>79</v>
+      <c r="BS142" s="0">
+        <v>29.21927</v>
       </c>
       <c r="BT142" s="0">
         <v>17.86154</v>
@@ -42402,7 +42680,7 @@
         <v>98.50493</v>
       </c>
       <c r="BY142" s="0">
-        <v>12.20556</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ142" s="0">
         <v>66.36748</v>
@@ -42598,8 +42876,8 @@
       <c r="BJ143" s="0">
         <v>19.93253</v>
       </c>
-      <c r="BK143" s="0" t="s">
-        <v>79</v>
+      <c r="BK143" s="0">
+        <v>14.61705</v>
       </c>
       <c r="BL143" s="0">
         <v>12.83895</v>
@@ -42622,8 +42900,8 @@
       <c r="BR143" s="0">
         <v>41.48704</v>
       </c>
-      <c r="BS143" s="0" t="s">
-        <v>79</v>
+      <c r="BS143" s="0">
+        <v>28.28935</v>
       </c>
       <c r="BT143" s="0">
         <v>15.40792</v>
@@ -42641,7 +42919,7 @@
         <v>86.3562</v>
       </c>
       <c r="BY143" s="0">
-        <v>12.28514</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ143" s="0">
         <v>54.63514</v>
@@ -42837,8 +43115,8 @@
       <c r="BJ144" s="0">
         <v>19.65263</v>
       </c>
-      <c r="BK144" s="0" t="s">
-        <v>79</v>
+      <c r="BK144" s="0">
+        <v>13.93506</v>
       </c>
       <c r="BL144" s="0">
         <v>12.48582</v>
@@ -42861,8 +43139,8 @@
       <c r="BR144" s="0">
         <v>38.69518</v>
       </c>
-      <c r="BS144" s="0" t="s">
-        <v>79</v>
+      <c r="BS144" s="0">
+        <v>28.03038</v>
       </c>
       <c r="BT144" s="0">
         <v>15.87926</v>
@@ -42880,7 +43158,7 @@
         <v>88.05791</v>
       </c>
       <c r="BY144" s="0">
-        <v>11.60212</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ144" s="0">
         <v>46.48797</v>
@@ -43076,8 +43354,8 @@
       <c r="BJ145" s="0">
         <v>20.72804</v>
       </c>
-      <c r="BK145" s="0" t="s">
-        <v>79</v>
+      <c r="BK145" s="0">
+        <v>14.53161</v>
       </c>
       <c r="BL145" s="0">
         <v>14.49465</v>
@@ -43100,8 +43378,8 @@
       <c r="BR145" s="0">
         <v>38.57487</v>
       </c>
-      <c r="BS145" s="0" t="s">
-        <v>79</v>
+      <c r="BS145" s="0">
+        <v>27.85736</v>
       </c>
       <c r="BT145" s="0">
         <v>20.17964</v>
@@ -43119,7 +43397,7 @@
         <v>92.8431</v>
       </c>
       <c r="BY145" s="0">
-        <v>11.03602</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ145" s="0">
         <v>57.1698</v>
@@ -43315,8 +43593,8 @@
       <c r="BJ146" s="0">
         <v>22.44875</v>
       </c>
-      <c r="BK146" s="0" t="s">
-        <v>79</v>
+      <c r="BK146" s="0">
+        <v>14.58441</v>
       </c>
       <c r="BL146" s="0">
         <v>15.91835</v>
@@ -43339,8 +43617,8 @@
       <c r="BR146" s="0">
         <v>41.14335</v>
       </c>
-      <c r="BS146" s="0" t="s">
-        <v>79</v>
+      <c r="BS146" s="0">
+        <v>27.78952</v>
       </c>
       <c r="BT146" s="0">
         <v>23.21484</v>
@@ -43358,7 +43636,7 @@
         <v>95.30756</v>
       </c>
       <c r="BY146" s="0">
-        <v>11.02578</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ146" s="0">
         <v>51.55611</v>
@@ -43554,8 +43832,8 @@
       <c r="BJ147" s="0">
         <v>23.2988</v>
       </c>
-      <c r="BK147" s="0" t="s">
-        <v>79</v>
+      <c r="BK147" s="0">
+        <v>15.00642</v>
       </c>
       <c r="BL147" s="0">
         <v>18.84985</v>
@@ -43578,8 +43856,8 @@
       <c r="BR147" s="0">
         <v>44.53468</v>
       </c>
-      <c r="BS147" s="0" t="s">
-        <v>79</v>
+      <c r="BS147" s="0">
+        <v>28.20126</v>
       </c>
       <c r="BT147" s="0">
         <v>24.52376</v>
@@ -43597,7 +43875,7 @@
         <v>94.77203</v>
       </c>
       <c r="BY147" s="0">
-        <v>11.11906</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ147" s="0">
         <v>42.86186</v>
@@ -43793,8 +44071,8 @@
       <c r="BJ148" s="0">
         <v>22.41575</v>
       </c>
-      <c r="BK148" s="0" t="s">
-        <v>79</v>
+      <c r="BK148" s="0">
+        <v>15.63087</v>
       </c>
       <c r="BL148" s="0">
         <v>19.19748</v>
@@ -43817,8 +44095,8 @@
       <c r="BR148" s="0">
         <v>49.29145</v>
       </c>
-      <c r="BS148" s="0" t="s">
-        <v>79</v>
+      <c r="BS148" s="0">
+        <v>28.09827</v>
       </c>
       <c r="BT148" s="0">
         <v>21.50612</v>
@@ -43836,7 +44114,7 @@
         <v>94.45922</v>
       </c>
       <c r="BY148" s="0">
-        <v>11.43085</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ148" s="0">
         <v>39.91988</v>
@@ -44032,8 +44310,8 @@
       <c r="BJ149" s="0">
         <v>22.35213</v>
       </c>
-      <c r="BK149" s="0" t="s">
-        <v>79</v>
+      <c r="BK149" s="0">
+        <v>16.68349</v>
       </c>
       <c r="BL149" s="0">
         <v>21.9459</v>
@@ -44056,8 +44334,8 @@
       <c r="BR149" s="0">
         <v>52.72764</v>
       </c>
-      <c r="BS149" s="0" t="s">
-        <v>79</v>
+      <c r="BS149" s="0">
+        <v>27.89574</v>
       </c>
       <c r="BT149" s="0">
         <v>20.77973</v>
@@ -44075,7 +44353,7 @@
         <v>100.2838</v>
       </c>
       <c r="BY149" s="0">
-        <v>11.85981</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ149" s="0">
         <v>37.68458</v>
@@ -44271,8 +44549,8 @@
       <c r="BJ150" s="0">
         <v>23.32165</v>
       </c>
-      <c r="BK150" s="0" t="s">
-        <v>79</v>
+      <c r="BK150" s="0">
+        <v>19.38931</v>
       </c>
       <c r="BL150" s="0">
         <v>24.25428</v>
@@ -44295,8 +44573,8 @@
       <c r="BR150" s="0">
         <v>51.73733</v>
       </c>
-      <c r="BS150" s="0" t="s">
-        <v>79</v>
+      <c r="BS150" s="0">
+        <v>26.90725</v>
       </c>
       <c r="BT150" s="0">
         <v>21.84106</v>
@@ -44314,7 +44592,7 @@
         <v>97.07721</v>
       </c>
       <c r="BY150" s="0">
-        <v>11.87223</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ150" s="0">
         <v>40.16313</v>
@@ -44510,8 +44788,8 @@
       <c r="BJ151" s="0">
         <v>26.61003</v>
       </c>
-      <c r="BK151" s="0" t="s">
-        <v>79</v>
+      <c r="BK151" s="0">
+        <v>24.15219</v>
       </c>
       <c r="BL151" s="0">
         <v>26.23703</v>
@@ -44534,8 +44812,8 @@
       <c r="BR151" s="0">
         <v>53.09447</v>
       </c>
-      <c r="BS151" s="0" t="s">
-        <v>79</v>
+      <c r="BS151" s="0">
+        <v>26.45977</v>
       </c>
       <c r="BT151" s="0">
         <v>20.54529</v>
@@ -44553,7 +44831,7 @@
         <v>96.26834</v>
       </c>
       <c r="BY151" s="0">
-        <v>12.12021</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ151" s="0">
         <v>41.60542</v>
@@ -44749,8 +45027,8 @@
       <c r="BJ152" s="0">
         <v>28.33722</v>
       </c>
-      <c r="BK152" s="0" t="s">
-        <v>79</v>
+      <c r="BK152" s="0">
+        <v>24.89407</v>
       </c>
       <c r="BL152" s="0">
         <v>24.39066</v>
@@ -44773,8 +45051,8 @@
       <c r="BR152" s="0">
         <v>56.08121</v>
       </c>
-      <c r="BS152" s="0" t="s">
-        <v>79</v>
+      <c r="BS152" s="0">
+        <v>25.97454</v>
       </c>
       <c r="BT152" s="0">
         <v>17.61958</v>
@@ -44792,7 +45070,7 @@
         <v>90.65249</v>
       </c>
       <c r="BY152" s="0">
-        <v>12.79988</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ152" s="0">
         <v>40.09297</v>
@@ -44988,8 +45266,8 @@
       <c r="BJ153" s="0">
         <v>30.01254</v>
       </c>
-      <c r="BK153" s="0" t="s">
-        <v>79</v>
+      <c r="BK153" s="0">
+        <v>24.10417</v>
       </c>
       <c r="BL153" s="0">
         <v>23.65298</v>
@@ -45012,8 +45290,8 @@
       <c r="BR153" s="0">
         <v>53.64613</v>
       </c>
-      <c r="BS153" s="0" t="s">
-        <v>79</v>
+      <c r="BS153" s="0">
+        <v>26.14291</v>
       </c>
       <c r="BT153" s="0">
         <v>17.7399</v>
@@ -45031,7 +45309,7 @@
         <v>82.28755</v>
       </c>
       <c r="BY153" s="0">
-        <v>12.30874</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ153" s="0">
         <v>39.26791</v>
@@ -45227,8 +45505,8 @@
       <c r="BJ154" s="0">
         <v>31.33649</v>
       </c>
-      <c r="BK154" s="0" t="s">
-        <v>79</v>
+      <c r="BK154" s="0">
+        <v>25.91961</v>
       </c>
       <c r="BL154" s="0">
         <v>22.13495</v>
@@ -45251,8 +45529,8 @@
       <c r="BR154" s="0">
         <v>50.59281</v>
       </c>
-      <c r="BS154" s="0" t="s">
-        <v>79</v>
+      <c r="BS154" s="0">
+        <v>25.77042</v>
       </c>
       <c r="BT154" s="0">
         <v>18.33626</v>
@@ -45270,7 +45548,7 @@
         <v>82.94609</v>
       </c>
       <c r="BY154" s="0">
-        <v>11.93187</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ154" s="0">
         <v>38.22809</v>
@@ -45466,8 +45744,8 @@
       <c r="BJ155" s="0">
         <v>30.83407</v>
       </c>
-      <c r="BK155" s="0" t="s">
-        <v>79</v>
+      <c r="BK155" s="0">
+        <v>30.40029</v>
       </c>
       <c r="BL155" s="0">
         <v>22.12767</v>
@@ -45490,8 +45768,8 @@
       <c r="BR155" s="0">
         <v>48.20296</v>
       </c>
-      <c r="BS155" s="0" t="s">
-        <v>79</v>
+      <c r="BS155" s="0">
+        <v>25.4383</v>
       </c>
       <c r="BT155" s="0">
         <v>16.93307</v>
@@ -45509,7 +45787,7 @@
         <v>77.93518</v>
       </c>
       <c r="BY155" s="0">
-        <v>12.32657</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ155" s="0">
         <v>37.18677</v>
@@ -45705,8 +45983,8 @@
       <c r="BJ156" s="0">
         <v>29.90318</v>
       </c>
-      <c r="BK156" s="0" t="s">
-        <v>79</v>
+      <c r="BK156" s="0">
+        <v>32.45396</v>
       </c>
       <c r="BL156" s="0">
         <v>23.05995</v>
@@ -45729,8 +46007,8 @@
       <c r="BR156" s="0">
         <v>46.82797</v>
       </c>
-      <c r="BS156" s="0" t="s">
-        <v>79</v>
+      <c r="BS156" s="0">
+        <v>25.69584</v>
       </c>
       <c r="BT156" s="0">
         <v>17.54147</v>
@@ -45748,7 +46026,7 @@
         <v>76.85933</v>
       </c>
       <c r="BY156" s="0">
-        <v>13.16544</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ156" s="0">
         <v>35.84557</v>
@@ -45944,8 +46222,8 @@
       <c r="BJ157" s="0">
         <v>30.23397</v>
       </c>
-      <c r="BK157" s="0" t="s">
-        <v>79</v>
+      <c r="BK157" s="0">
+        <v>32.51148</v>
       </c>
       <c r="BL157" s="0">
         <v>23.27821</v>
@@ -45968,8 +46246,8 @@
       <c r="BR157" s="0">
         <v>48.99534</v>
       </c>
-      <c r="BS157" s="0" t="s">
-        <v>79</v>
+      <c r="BS157" s="0">
+        <v>24.84237</v>
       </c>
       <c r="BT157" s="0">
         <v>23.49365</v>
@@ -45987,7 +46265,7 @@
         <v>82.37541</v>
       </c>
       <c r="BY157" s="0">
-        <v>13.36077</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ157" s="0">
         <v>35.05932</v>
@@ -46183,8 +46461,8 @@
       <c r="BJ158" s="0">
         <v>30.7306</v>
       </c>
-      <c r="BK158" s="0" t="s">
-        <v>79</v>
+      <c r="BK158" s="0">
+        <v>31.28127</v>
       </c>
       <c r="BL158" s="0">
         <v>23.11411</v>
@@ -46207,8 +46485,8 @@
       <c r="BR158" s="0">
         <v>49.1747</v>
       </c>
-      <c r="BS158" s="0" t="s">
-        <v>79</v>
+      <c r="BS158" s="0">
+        <v>24.60139</v>
       </c>
       <c r="BT158" s="0">
         <v>21.66238</v>
@@ -46422,8 +46700,8 @@
       <c r="BJ159" s="0">
         <v>31.58341</v>
       </c>
-      <c r="BK159" s="0" t="s">
-        <v>79</v>
+      <c r="BK159" s="0">
+        <v>35.05723</v>
       </c>
       <c r="BL159" s="0">
         <v>23.08585</v>
@@ -46446,8 +46724,8 @@
       <c r="BR159" s="0">
         <v>50.5853</v>
       </c>
-      <c r="BS159" s="0" t="s">
-        <v>79</v>
+      <c r="BS159" s="0">
+        <v>24.18582</v>
       </c>
       <c r="BT159" s="0">
         <v>19.32465</v>
@@ -46465,7 +46743,7 @@
         <v>80.93205</v>
       </c>
       <c r="BY159" s="0">
-        <v>14.94027</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ159" s="0">
         <v>35.09985</v>
@@ -46661,8 +46939,8 @@
       <c r="BJ160" s="0">
         <v>32.24886</v>
       </c>
-      <c r="BK160" s="0" t="s">
-        <v>79</v>
+      <c r="BK160" s="0">
+        <v>34.3847</v>
       </c>
       <c r="BL160" s="0">
         <v>24.10781</v>
@@ -46685,8 +46963,8 @@
       <c r="BR160" s="0">
         <v>50.74126</v>
       </c>
-      <c r="BS160" s="0" t="s">
-        <v>79</v>
+      <c r="BS160" s="0">
+        <v>23.1509</v>
       </c>
       <c r="BT160" s="0">
         <v>20.74684</v>
@@ -46704,7 +46982,7 @@
         <v>75.59933</v>
       </c>
       <c r="BY160" s="0">
-        <v>14.03315</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ160" s="0">
         <v>33.15908</v>
@@ -46900,8 +47178,8 @@
       <c r="BJ161" s="0">
         <v>31.495</v>
       </c>
-      <c r="BK161" s="0" t="s">
-        <v>79</v>
+      <c r="BK161" s="0">
+        <v>33.11556</v>
       </c>
       <c r="BL161" s="0">
         <v>24.69213</v>
@@ -46924,8 +47202,8 @@
       <c r="BR161" s="0">
         <v>49.63445</v>
       </c>
-      <c r="BS161" s="0" t="s">
-        <v>79</v>
+      <c r="BS161" s="0">
+        <v>22.68641</v>
       </c>
       <c r="BT161" s="0">
         <v>18.53737</v>
@@ -46943,7 +47221,7 @@
         <v>76.18714</v>
       </c>
       <c r="BY161" s="0">
-        <v>14.38431</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ161" s="0">
         <v>31.6008</v>
@@ -47139,8 +47417,8 @@
       <c r="BJ162" s="0">
         <v>35.84601</v>
       </c>
-      <c r="BK162" s="0" t="s">
-        <v>79</v>
+      <c r="BK162" s="0">
+        <v>34.36162</v>
       </c>
       <c r="BL162" s="0">
         <v>25.92013</v>
@@ -47163,8 +47441,8 @@
       <c r="BR162" s="0">
         <v>51.54643</v>
       </c>
-      <c r="BS162" s="0" t="s">
-        <v>79</v>
+      <c r="BS162" s="0">
+        <v>24.53847</v>
       </c>
       <c r="BT162" s="0">
         <v>20.04045</v>
@@ -47182,7 +47460,7 @@
         <v>79.57119</v>
       </c>
       <c r="BY162" s="0">
-        <v>14.56624</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ162" s="0">
         <v>29.80937</v>
@@ -47378,8 +47656,8 @@
       <c r="BJ163" s="0">
         <v>34.87111</v>
       </c>
-      <c r="BK163" s="0" t="s">
-        <v>79</v>
+      <c r="BK163" s="0">
+        <v>34.40999</v>
       </c>
       <c r="BL163" s="0">
         <v>29.3279</v>
@@ -47402,8 +47680,8 @@
       <c r="BR163" s="0">
         <v>53.38587</v>
       </c>
-      <c r="BS163" s="0" t="s">
-        <v>79</v>
+      <c r="BS163" s="0">
+        <v>25.66422</v>
       </c>
       <c r="BT163" s="0">
         <v>19.96278</v>
@@ -47421,7 +47699,7 @@
         <v>82.35337</v>
       </c>
       <c r="BY163" s="0">
-        <v>16.46682</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ163" s="0">
         <v>30.77767</v>
@@ -47617,8 +47895,8 @@
       <c r="BJ164" s="0">
         <v>39.30794</v>
       </c>
-      <c r="BK164" s="0" t="s">
-        <v>79</v>
+      <c r="BK164" s="0">
+        <v>35.70959</v>
       </c>
       <c r="BL164" s="0">
         <v>31.63379</v>
@@ -47641,8 +47919,8 @@
       <c r="BR164" s="0">
         <v>59.89098</v>
       </c>
-      <c r="BS164" s="0" t="s">
-        <v>79</v>
+      <c r="BS164" s="0">
+        <v>25.56473</v>
       </c>
       <c r="BT164" s="0">
         <v>20.05793</v>
@@ -47660,7 +47938,7 @@
         <v>86.88634</v>
       </c>
       <c r="BY164" s="0">
-        <v>23.10532</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ164" s="0">
         <v>30.29386</v>
@@ -47856,8 +48134,8 @@
       <c r="BJ165" s="0">
         <v>43.69129</v>
       </c>
-      <c r="BK165" s="0" t="s">
-        <v>79</v>
+      <c r="BK165" s="0">
+        <v>36.2618</v>
       </c>
       <c r="BL165" s="0">
         <v>30.97818</v>
@@ -47880,8 +48158,8 @@
       <c r="BR165" s="0">
         <v>66.8761</v>
       </c>
-      <c r="BS165" s="0" t="s">
-        <v>79</v>
+      <c r="BS165" s="0">
+        <v>26.44314</v>
       </c>
       <c r="BT165" s="0">
         <v>19.45581</v>
@@ -47899,7 +48177,7 @@
         <v>87.42421</v>
       </c>
       <c r="BY165" s="0">
-        <v>24.73004</v>
+        <v>19.6281</v>
       </c>
       <c r="BZ165" s="0">
         <v>29.95832</v>
@@ -48095,8 +48373,8 @@
       <c r="BJ166" s="0">
         <v>47.73786</v>
       </c>
-      <c r="BK166" s="0" t="s">
-        <v>79</v>
+      <c r="BK166" s="0">
+        <v>36.1576</v>
       </c>
       <c r="BL166" s="0">
         <v>32.8493</v>
@@ -48119,8 +48397,8 @@
       <c r="BR166" s="0">
         <v>71.06284</v>
       </c>
-      <c r="BS166" s="0" t="s">
-        <v>79</v>
+      <c r="BS166" s="0">
+        <v>26.90197</v>
       </c>
       <c r="BT166" s="0">
         <v>21.32285</v>
@@ -48138,7 +48416,7 @@
         <v>88.66937</v>
       </c>
       <c r="BY166" s="0">
-        <v>24.49316</v>
+        <v>17.27273</v>
       </c>
       <c r="BZ166" s="0">
         <v>28.4117</v>
@@ -48334,8 +48612,8 @@
       <c r="BJ167" s="0">
         <v>47.44102</v>
       </c>
-      <c r="BK167" s="0" t="s">
-        <v>79</v>
+      <c r="BK167" s="0">
+        <v>36.99387</v>
       </c>
       <c r="BL167" s="0">
         <v>36.08796</v>
@@ -48358,8 +48636,8 @@
       <c r="BR167" s="0">
         <v>77.36624</v>
       </c>
-      <c r="BS167" s="0" t="s">
-        <v>79</v>
+      <c r="BS167" s="0">
+        <v>26.97144</v>
       </c>
       <c r="BT167" s="0">
         <v>23.42425</v>
@@ -48377,7 +48655,7 @@
         <v>90.65346</v>
       </c>
       <c r="BY167" s="0">
-        <v>28.13728</v>
+        <v>30.61983</v>
       </c>
       <c r="BZ167" s="0">
         <v>28.03799</v>
@@ -48573,8 +48851,8 @@
       <c r="BJ168" s="0">
         <v>45.34826</v>
       </c>
-      <c r="BK168" s="0" t="s">
-        <v>79</v>
+      <c r="BK168" s="0">
+        <v>37.43349</v>
       </c>
       <c r="BL168" s="0">
         <v>39.1826</v>
@@ -48597,8 +48875,8 @@
       <c r="BR168" s="0">
         <v>80.71483</v>
       </c>
-      <c r="BS168" s="0" t="s">
-        <v>79</v>
+      <c r="BS168" s="0">
+        <v>26.72501</v>
       </c>
       <c r="BT168" s="0">
         <v>27.62166</v>
@@ -48616,7 +48894,7 @@
         <v>92.46721</v>
       </c>
       <c r="BY168" s="0">
-        <v>31.91285</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ168" s="0">
         <v>26.95504</v>
@@ -48812,8 +49090,8 @@
       <c r="BJ169" s="0">
         <v>48.36925</v>
       </c>
-      <c r="BK169" s="0" t="s">
-        <v>79</v>
+      <c r="BK169" s="0">
+        <v>38.96571</v>
       </c>
       <c r="BL169" s="0">
         <v>34.41526</v>
@@ -48836,8 +49114,8 @@
       <c r="BR169" s="0">
         <v>88.44511</v>
       </c>
-      <c r="BS169" s="0" t="s">
-        <v>79</v>
+      <c r="BS169" s="0">
+        <v>26.86523</v>
       </c>
       <c r="BT169" s="0">
         <v>28.95189</v>
@@ -48855,7 +49133,7 @@
         <v>93.22874</v>
       </c>
       <c r="BY169" s="0">
-        <v>36.34725</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ169" s="0">
         <v>29.87733</v>
@@ -49051,8 +49329,8 @@
       <c r="BJ170" s="0">
         <v>47.97945</v>
       </c>
-      <c r="BK170" s="0" t="s">
-        <v>79</v>
+      <c r="BK170" s="0">
+        <v>41.03341</v>
       </c>
       <c r="BL170" s="0">
         <v>36.39097</v>
@@ -49075,8 +49353,8 @@
       <c r="BR170" s="0">
         <v>95.86088</v>
       </c>
-      <c r="BS170" s="0" t="s">
-        <v>79</v>
+      <c r="BS170" s="0">
+        <v>27.38093</v>
       </c>
       <c r="BT170" s="0">
         <v>31.81112</v>
@@ -49094,7 +49372,7 @@
         <v>96.69021</v>
       </c>
       <c r="BY170" s="0">
-        <v>37.65529</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ170" s="0">
         <v>32.87808</v>
@@ -49290,8 +49568,8 @@
       <c r="BJ171" s="0">
         <v>49.42865</v>
       </c>
-      <c r="BK171" s="0" t="s">
-        <v>79</v>
+      <c r="BK171" s="0">
+        <v>45.87983</v>
       </c>
       <c r="BL171" s="0">
         <v>39.65235</v>
@@ -49314,8 +49592,8 @@
       <c r="BR171" s="0">
         <v>104.6327</v>
       </c>
-      <c r="BS171" s="0" t="s">
-        <v>79</v>
+      <c r="BS171" s="0">
+        <v>27.90533</v>
       </c>
       <c r="BT171" s="0">
         <v>34.36962</v>
@@ -49333,7 +49611,7 @@
         <v>100.6572</v>
       </c>
       <c r="BY171" s="0">
-        <v>46.0412</v>
+        <v>50</v>
       </c>
       <c r="BZ171" s="0">
         <v>36.43397</v>
@@ -49529,8 +49807,8 @@
       <c r="BJ172" s="0">
         <v>51.40589</v>
       </c>
-      <c r="BK172" s="0" t="s">
-        <v>79</v>
+      <c r="BK172" s="0">
+        <v>50.54962</v>
       </c>
       <c r="BL172" s="0">
         <v>42.06091</v>
@@ -49553,8 +49831,8 @@
       <c r="BR172" s="0">
         <v>99.78818</v>
       </c>
-      <c r="BS172" s="0" t="s">
-        <v>79</v>
+      <c r="BS172" s="0">
+        <v>27.94854</v>
       </c>
       <c r="BT172" s="0">
         <v>33.81629</v>
@@ -49572,7 +49850,7 @@
         <v>101.244</v>
       </c>
       <c r="BY172" s="0">
-        <v>48.07837</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ172" s="0">
         <v>44.8712</v>
@@ -49768,8 +50046,8 @@
       <c r="BJ173" s="0">
         <v>56.66243</v>
       </c>
-      <c r="BK173" s="0" t="s">
-        <v>79</v>
+      <c r="BK173" s="0">
+        <v>56.01398</v>
       </c>
       <c r="BL173" s="0">
         <v>45.89374</v>
@@ -49792,8 +50070,8 @@
       <c r="BR173" s="0">
         <v>93.92731</v>
       </c>
-      <c r="BS173" s="0" t="s">
-        <v>79</v>
+      <c r="BS173" s="0">
+        <v>28.0842</v>
       </c>
       <c r="BT173" s="0">
         <v>36.23412</v>
@@ -49811,7 +50089,7 @@
         <v>98.59131</v>
       </c>
       <c r="BY173" s="0">
-        <v>47.13231</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ173" s="0">
         <v>52.85422</v>
@@ -50007,8 +50285,8 @@
       <c r="BJ174" s="0">
         <v>62.25816</v>
       </c>
-      <c r="BK174" s="0" t="s">
-        <v>79</v>
+      <c r="BK174" s="0">
+        <v>56.77957</v>
       </c>
       <c r="BL174" s="0">
         <v>47.48333</v>
@@ -50050,7 +50328,7 @@
         <v>99.49547</v>
       </c>
       <c r="BY174" s="0">
-        <v>45.48186</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ174" s="0">
         <v>52.11118</v>
@@ -50246,8 +50524,8 @@
       <c r="BJ175" s="0">
         <v>61.20956</v>
       </c>
-      <c r="BK175" s="0" t="s">
-        <v>79</v>
+      <c r="BK175" s="0">
+        <v>55.60635</v>
       </c>
       <c r="BL175" s="0">
         <v>40.27331</v>
@@ -50270,8 +50548,8 @@
       <c r="BR175" s="0">
         <v>84.71612</v>
       </c>
-      <c r="BS175" s="0" t="s">
-        <v>79</v>
+      <c r="BS175" s="0">
+        <v>29.32458</v>
       </c>
       <c r="BT175" s="0">
         <v>31.28772</v>
@@ -50289,7 +50567,7 @@
         <v>96.30006</v>
       </c>
       <c r="BY175" s="0">
-        <v>43.08481</v>
+        <v>43.18182</v>
       </c>
       <c r="BZ175" s="0">
         <v>51.71368</v>
@@ -50485,8 +50763,8 @@
       <c r="BJ176" s="0">
         <v>58.43826</v>
       </c>
-      <c r="BK176" s="0" t="s">
-        <v>79</v>
+      <c r="BK176" s="0">
+        <v>58.55745</v>
       </c>
       <c r="BL176" s="0">
         <v>38.22138</v>
@@ -50509,8 +50787,8 @@
       <c r="BR176" s="0">
         <v>86.28086</v>
       </c>
-      <c r="BS176" s="0" t="s">
-        <v>79</v>
+      <c r="BS176" s="0">
+        <v>29.33405</v>
       </c>
       <c r="BT176" s="0">
         <v>31.74295</v>
@@ -50528,7 +50806,7 @@
         <v>98.98451</v>
       </c>
       <c r="BY176" s="0">
-        <v>43.69886</v>
+        <v>49.09091</v>
       </c>
       <c r="BZ176" s="0">
         <v>49.7655</v>
@@ -50724,8 +51002,8 @@
       <c r="BJ177" s="0">
         <v>57.47377</v>
       </c>
-      <c r="BK177" s="0" t="s">
-        <v>79</v>
+      <c r="BK177" s="0">
+        <v>64.36414</v>
       </c>
       <c r="BL177" s="0">
         <v>37.39903</v>
@@ -50748,8 +51026,8 @@
       <c r="BR177" s="0">
         <v>89.3218</v>
       </c>
-      <c r="BS177" s="0" t="s">
-        <v>79</v>
+      <c r="BS177" s="0">
+        <v>29.22678</v>
       </c>
       <c r="BT177" s="0">
         <v>34.2901</v>
@@ -50767,7 +51045,7 @@
         <v>96.95215</v>
       </c>
       <c r="BY177" s="0">
-        <v>43.41937</v>
+        <v>48.52814</v>
       </c>
       <c r="BZ177" s="0">
         <v>48.63502</v>
@@ -50963,8 +51241,8 @@
       <c r="BJ178" s="0">
         <v>61.15026</v>
       </c>
-      <c r="BK178" s="0" t="s">
-        <v>79</v>
+      <c r="BK178" s="0">
+        <v>63.54924</v>
       </c>
       <c r="BL178" s="0">
         <v>36.4254</v>
@@ -50987,8 +51265,8 @@
       <c r="BR178" s="0">
         <v>83.64264</v>
       </c>
-      <c r="BS178" s="0" t="s">
-        <v>79</v>
+      <c r="BS178" s="0">
+        <v>29.29957</v>
       </c>
       <c r="BT178" s="0">
         <v>35.50611</v>
@@ -51006,7 +51284,7 @@
         <v>95.81297</v>
       </c>
       <c r="BY178" s="0">
-        <v>46.41482</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ178" s="0">
         <v>45.49359</v>
@@ -51202,8 +51480,8 @@
       <c r="BJ179" s="0">
         <v>60.82871</v>
       </c>
-      <c r="BK179" s="0" t="s">
-        <v>79</v>
+      <c r="BK179" s="0">
+        <v>64.38514</v>
       </c>
       <c r="BL179" s="0">
         <v>40.20298</v>
@@ -51226,8 +51504,8 @@
       <c r="BR179" s="0">
         <v>88.86174</v>
       </c>
-      <c r="BS179" s="0" t="s">
-        <v>79</v>
+      <c r="BS179" s="0">
+        <v>29.14505</v>
       </c>
       <c r="BT179" s="0">
         <v>39.28699</v>
@@ -51245,7 +51523,7 @@
         <v>97.45431</v>
       </c>
       <c r="BY179" s="0">
-        <v>51.06717</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ179" s="0">
         <v>46.08345</v>
@@ -51441,8 +51719,8 @@
       <c r="BJ180" s="0">
         <v>60.19964</v>
       </c>
-      <c r="BK180" s="0" t="s">
-        <v>79</v>
+      <c r="BK180" s="0">
+        <v>69.57248</v>
       </c>
       <c r="BL180" s="0">
         <v>43.68795</v>
@@ -51465,8 +51743,8 @@
       <c r="BR180" s="0">
         <v>90.12665</v>
       </c>
-      <c r="BS180" s="0" t="s">
-        <v>79</v>
+      <c r="BS180" s="0">
+        <v>29.24447</v>
       </c>
       <c r="BT180" s="0">
         <v>40.99304</v>
@@ -51484,7 +51762,7 @@
         <v>95.51502</v>
       </c>
       <c r="BY180" s="0">
-        <v>51.96076</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ180" s="0">
         <v>46.4445</v>
@@ -51680,8 +51958,8 @@
       <c r="BJ181" s="0">
         <v>62.27545</v>
       </c>
-      <c r="BK181" s="0" t="s">
-        <v>79</v>
+      <c r="BK181" s="0">
+        <v>76.48956</v>
       </c>
       <c r="BL181" s="0">
         <v>43.25217</v>
@@ -51704,8 +51982,8 @@
       <c r="BR181" s="0">
         <v>88.1945</v>
       </c>
-      <c r="BS181" s="0" t="s">
-        <v>79</v>
+      <c r="BS181" s="0">
+        <v>29.70489</v>
       </c>
       <c r="BT181" s="0">
         <v>42.1027</v>
@@ -51723,7 +52001,7 @@
         <v>99.43198</v>
       </c>
       <c r="BY181" s="0">
-        <v>51.19379</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ181" s="0">
         <v>45.2547</v>
@@ -51919,8 +52197,8 @@
       <c r="BJ182" s="0">
         <v>69.75954</v>
       </c>
-      <c r="BK182" s="0" t="s">
-        <v>79</v>
+      <c r="BK182" s="0">
+        <v>83.31283</v>
       </c>
       <c r="BL182" s="0">
         <v>38.50327</v>
@@ -51943,8 +52221,8 @@
       <c r="BR182" s="0">
         <v>90.93686</v>
       </c>
-      <c r="BS182" s="0" t="s">
-        <v>79</v>
+      <c r="BS182" s="0">
+        <v>29.20849</v>
       </c>
       <c r="BT182" s="0">
         <v>43.54833</v>
@@ -51962,7 +52240,7 @@
         <v>101.9305</v>
       </c>
       <c r="BY182" s="0">
-        <v>50.94366</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ182" s="0">
         <v>46.54212</v>
@@ -52158,8 +52436,8 @@
       <c r="BJ183" s="0">
         <v>80.83871</v>
       </c>
-      <c r="BK183" s="0" t="s">
-        <v>79</v>
+      <c r="BK183" s="0">
+        <v>104.8016</v>
       </c>
       <c r="BL183" s="0">
         <v>39.98774</v>
@@ -52182,8 +52460,8 @@
       <c r="BR183" s="0">
         <v>96.06555</v>
       </c>
-      <c r="BS183" s="0" t="s">
-        <v>79</v>
+      <c r="BS183" s="0">
+        <v>29.42695</v>
       </c>
       <c r="BT183" s="0">
         <v>48.15167</v>
@@ -52201,7 +52479,7 @@
         <v>100.6521</v>
       </c>
       <c r="BY183" s="0">
-        <v>50.90661</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ183" s="0">
         <v>46.84378</v>
@@ -52397,8 +52675,8 @@
       <c r="BJ184" s="0">
         <v>105.7816</v>
       </c>
-      <c r="BK184" s="0" t="s">
-        <v>79</v>
+      <c r="BK184" s="0">
+        <v>118.4083</v>
       </c>
       <c r="BL184" s="0">
         <v>43.78223</v>
@@ -52421,8 +52699,8 @@
       <c r="BR184" s="0">
         <v>100.3196</v>
       </c>
-      <c r="BS184" s="0" t="s">
-        <v>79</v>
+      <c r="BS184" s="0">
+        <v>29.26837</v>
       </c>
       <c r="BT184" s="0">
         <v>50.72304</v>
@@ -52440,7 +52718,7 @@
         <v>102.4121</v>
       </c>
       <c r="BY184" s="0">
-        <v>51.25398</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ184" s="0">
         <v>46.6674</v>
@@ -52636,8 +52914,8 @@
       <c r="BJ185" s="0">
         <v>153.302</v>
       </c>
-      <c r="BK185" s="0" t="s">
-        <v>79</v>
+      <c r="BK185" s="0">
+        <v>110.509</v>
       </c>
       <c r="BL185" s="0">
         <v>45.25953</v>
@@ -52660,8 +52938,8 @@
       <c r="BR185" s="0">
         <v>97.01184</v>
       </c>
-      <c r="BS185" s="0" t="s">
-        <v>79</v>
+      <c r="BS185" s="0">
+        <v>29.59022</v>
       </c>
       <c r="BT185" s="0">
         <v>48.01707</v>
@@ -52679,7 +52957,7 @@
         <v>102.0137</v>
       </c>
       <c r="BY185" s="0">
-        <v>52.0225</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ185" s="0">
         <v>47.92829</v>
@@ -52875,8 +53153,8 @@
       <c r="BJ186" s="0">
         <v>135.5806</v>
       </c>
-      <c r="BK186" s="0" t="s">
-        <v>79</v>
+      <c r="BK186" s="0">
+        <v>99.46123</v>
       </c>
       <c r="BL186" s="0">
         <v>45.32419</v>
@@ -52899,8 +53177,8 @@
       <c r="BR186" s="0">
         <v>93.18366</v>
       </c>
-      <c r="BS186" s="0" t="s">
-        <v>79</v>
+      <c r="BS186" s="0">
+        <v>32.23359</v>
       </c>
       <c r="BT186" s="0">
         <v>45.45331</v>
@@ -52918,7 +53196,7 @@
         <v>98.20414</v>
       </c>
       <c r="BY186" s="0">
-        <v>46.01939</v>
+        <v>49.22727</v>
       </c>
       <c r="BZ186" s="0">
         <v>49.01918</v>
@@ -53114,8 +53392,8 @@
       <c r="BJ187" s="0">
         <v>115.0048</v>
       </c>
-      <c r="BK187" s="0" t="s">
-        <v>79</v>
+      <c r="BK187" s="0">
+        <v>97.97924</v>
       </c>
       <c r="BL187" s="0">
         <v>43.32811</v>
@@ -53138,8 +53416,8 @@
       <c r="BR187" s="0">
         <v>92.5617</v>
       </c>
-      <c r="BS187" s="0" t="s">
-        <v>79</v>
+      <c r="BS187" s="0">
+        <v>33.52457</v>
       </c>
       <c r="BT187" s="0">
         <v>45.39611</v>
@@ -53157,7 +53435,7 @@
         <v>99.10177</v>
       </c>
       <c r="BY187" s="0">
-        <v>40.53028</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ187" s="0">
         <v>48.52847</v>
@@ -53353,8 +53631,8 @@
       <c r="BJ188" s="0">
         <v>126.9356</v>
       </c>
-      <c r="BK188" s="0" t="s">
-        <v>79</v>
+      <c r="BK188" s="0">
+        <v>95.95879</v>
       </c>
       <c r="BL188" s="0">
         <v>45.13768</v>
@@ -53377,8 +53655,8 @@
       <c r="BR188" s="0">
         <v>93.82293</v>
       </c>
-      <c r="BS188" s="0" t="s">
-        <v>79</v>
+      <c r="BS188" s="0">
+        <v>34.08053</v>
       </c>
       <c r="BT188" s="0">
         <v>48.21498</v>
@@ -53396,7 +53674,7 @@
         <v>100.1475</v>
       </c>
       <c r="BY188" s="0">
-        <v>37.70442</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ188" s="0">
         <v>49.06904</v>
@@ -53592,8 +53870,8 @@
       <c r="BJ189" s="0">
         <v>133.3431</v>
       </c>
-      <c r="BK189" s="0" t="s">
-        <v>79</v>
+      <c r="BK189" s="0">
+        <v>103.4186</v>
       </c>
       <c r="BL189" s="0">
         <v>49.48938</v>
@@ -53616,8 +53894,8 @@
       <c r="BR189" s="0">
         <v>90.22966</v>
       </c>
-      <c r="BS189" s="0" t="s">
-        <v>79</v>
+      <c r="BS189" s="0">
+        <v>33.9674</v>
       </c>
       <c r="BT189" s="0">
         <v>52.15876</v>
@@ -53635,7 +53913,7 @@
         <v>100.708</v>
       </c>
       <c r="BY189" s="0">
-        <v>36.66624</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ189" s="0">
         <v>49.29251</v>
@@ -53831,8 +54109,8 @@
       <c r="BJ190" s="0">
         <v>145.8453</v>
       </c>
-      <c r="BK190" s="0" t="s">
-        <v>79</v>
+      <c r="BK190" s="0">
+        <v>110.813</v>
       </c>
       <c r="BL190" s="0">
         <v>54.77789</v>
@@ -53855,8 +54133,8 @@
       <c r="BR190" s="0">
         <v>94.13024</v>
       </c>
-      <c r="BS190" s="0" t="s">
-        <v>79</v>
+      <c r="BS190" s="0">
+        <v>34.49268</v>
       </c>
       <c r="BT190" s="0">
         <v>53.80081</v>
@@ -53874,7 +54152,7 @@
         <v>100.793</v>
       </c>
       <c r="BY190" s="0">
-        <v>32.70762</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ190" s="0">
         <v>49.70033</v>
@@ -54070,8 +54348,8 @@
       <c r="BJ191" s="0">
         <v>158.0234</v>
       </c>
-      <c r="BK191" s="0" t="s">
-        <v>79</v>
+      <c r="BK191" s="0">
+        <v>117.7369</v>
       </c>
       <c r="BL191" s="0">
         <v>61.28567</v>
@@ -54094,8 +54372,8 @@
       <c r="BR191" s="0">
         <v>98.43251</v>
       </c>
-      <c r="BS191" s="0" t="s">
-        <v>79</v>
+      <c r="BS191" s="0">
+        <v>34.66328</v>
       </c>
       <c r="BT191" s="0">
         <v>60.146</v>
@@ -54113,7 +54391,7 @@
         <v>100.5855</v>
       </c>
       <c r="BY191" s="0">
-        <v>35.94134</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ191" s="0">
         <v>53.74649</v>
@@ -54309,8 +54587,8 @@
       <c r="BJ192" s="0">
         <v>154.2311</v>
       </c>
-      <c r="BK192" s="0" t="s">
-        <v>79</v>
+      <c r="BK192" s="0">
+        <v>125.8429</v>
       </c>
       <c r="BL192" s="0">
         <v>61.82777</v>
@@ -54333,8 +54611,8 @@
       <c r="BR192" s="0">
         <v>95.93733</v>
       </c>
-      <c r="BS192" s="0" t="s">
-        <v>79</v>
+      <c r="BS192" s="0">
+        <v>35.15491</v>
       </c>
       <c r="BT192" s="0">
         <v>59.63299</v>
@@ -54352,7 +54630,7 @@
         <v>98.5969</v>
       </c>
       <c r="BY192" s="0">
-        <v>34.34762</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ192" s="0">
         <v>59.58229</v>
@@ -54548,8 +54826,8 @@
       <c r="BJ193" s="0">
         <v>141.6506</v>
       </c>
-      <c r="BK193" s="0" t="s">
-        <v>79</v>
+      <c r="BK193" s="0">
+        <v>126.7615</v>
       </c>
       <c r="BL193" s="0">
         <v>65.70312</v>
@@ -54572,8 +54850,8 @@
       <c r="BR193" s="0">
         <v>93.94318</v>
       </c>
-      <c r="BS193" s="0" t="s">
-        <v>79</v>
+      <c r="BS193" s="0">
+        <v>35.32731</v>
       </c>
       <c r="BT193" s="0">
         <v>64.5292</v>
@@ -54591,7 +54869,7 @@
         <v>102.1393</v>
       </c>
       <c r="BY193" s="0">
-        <v>34.60705</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ193" s="0">
         <v>62.62256</v>
@@ -54787,8 +55065,8 @@
       <c r="BJ194" s="0">
         <v>138.5607</v>
       </c>
-      <c r="BK194" s="0" t="s">
-        <v>79</v>
+      <c r="BK194" s="0">
+        <v>132.0495</v>
       </c>
       <c r="BL194" s="0">
         <v>72.37633</v>
@@ -54811,8 +55089,8 @@
       <c r="BR194" s="0">
         <v>95.39573</v>
       </c>
-      <c r="BS194" s="0" t="s">
-        <v>79</v>
+      <c r="BS194" s="0">
+        <v>35.54132</v>
       </c>
       <c r="BT194" s="0">
         <v>70.66573</v>
@@ -54830,7 +55108,7 @@
         <v>103.4051</v>
       </c>
       <c r="BY194" s="0">
-        <v>34.24056</v>
+        <v>34.54545</v>
       </c>
       <c r="BZ194" s="0">
         <v>62.1677</v>
@@ -55069,7 +55347,7 @@
         <v>103.8319</v>
       </c>
       <c r="BY195" s="0">
-        <v>40.12187</v>
+        <v>38</v>
       </c>
       <c r="BZ195" s="0">
         <v>61.43005</v>
@@ -55308,7 +55586,7 @@
         <v>104.7745</v>
       </c>
       <c r="BY196" s="0">
-        <v>46.15142</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ196" s="0">
         <v>69.0175</v>
@@ -55547,7 +55825,7 @@
         <v>106.4292</v>
       </c>
       <c r="BY197" s="0">
-        <v>51.08389</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ197" s="0">
         <v>87.72504</v>
@@ -55786,7 +56064,7 @@
         <v>107.2908</v>
       </c>
       <c r="BY198" s="0">
-        <v>53.60534</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ198" s="0">
         <v>112.2606</v>
@@ -56025,7 +56303,7 @@
         <v>108.2382</v>
       </c>
       <c r="BY199" s="0">
-        <v>52.8815</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ199" s="0">
         <v>111.6065</v>
@@ -56246,7 +56524,7 @@
         <v>92.48468</v>
       </c>
       <c r="BS200" s="0">
-        <v>43.62729</v>
+        <v>43.72324</v>
       </c>
       <c r="BT200" s="0">
         <v>63.83301</v>
@@ -56264,7 +56542,7 @@
         <v>105.0303</v>
       </c>
       <c r="BY200" s="0">
-        <v>52.54494</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ200" s="0">
         <v>104.9488</v>
@@ -56503,7 +56781,7 @@
         <v>105.3603</v>
       </c>
       <c r="BY201" s="0">
-        <v>55.80435</v>
+        <v>51.81818</v>
       </c>
       <c r="BZ201" s="0">
         <v>95.74365</v>
@@ -56742,7 +57020,7 @@
         <v>107.5074</v>
       </c>
       <c r="BY202" s="0">
-        <v>60.18519</v>
+        <v>62.02479</v>
       </c>
       <c r="BZ202" s="0">
         <v>91.24885</v>
@@ -56981,7 +57259,7 @@
         <v>110.1455</v>
       </c>
       <c r="BY203" s="0">
-        <v>60.41109</v>
+        <v>66.62338</v>
       </c>
       <c r="BZ203" s="0">
         <v>102.3412</v>
@@ -57220,7 +57498,7 @@
         <v>114.2474</v>
       </c>
       <c r="BY204" s="0">
-        <v>63.90851</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ204" s="0">
         <v>104.9347</v>
@@ -57417,7 +57695,7 @@
         <v>83.76794</v>
       </c>
       <c r="BK205" s="0">
-        <v>159.5551</v>
+        <v>159.4503</v>
       </c>
       <c r="BL205" s="0">
         <v>111.7866</v>
@@ -57459,7 +57737,7 @@
         <v>116.3679</v>
       </c>
       <c r="BY205" s="0">
-        <v>69.04779</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ205" s="0">
         <v>114.0575</v>
@@ -57698,7 +57976,7 @@
         <v>118.2059</v>
       </c>
       <c r="BY206" s="0">
-        <v>81.28032</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ206" s="0">
         <v>145.3296</v>
@@ -57895,7 +58173,7 @@
         <v>84.68794</v>
       </c>
       <c r="BK207" s="0">
-        <v>168.5337</v>
+        <v>168.4252</v>
       </c>
       <c r="BL207" s="0">
         <v>120.3967</v>
@@ -57937,7 +58215,7 @@
         <v>119.4978</v>
       </c>
       <c r="BY207" s="0">
-        <v>83.49027</v>
+        <v>80.86777</v>
       </c>
       <c r="BZ207" s="0">
         <v>186.2002</v>
@@ -58176,7 +58454,7 @@
         <v>120.6303</v>
       </c>
       <c r="BY208" s="0">
-        <v>82.22954</v>
+        <v>83.48485</v>
       </c>
       <c r="BZ208" s="0">
         <v>215.995</v>
@@ -58415,7 +58693,7 @@
         <v>117.1641</v>
       </c>
       <c r="BY209" s="0">
-        <v>85.6055</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ209" s="0">
         <v>221.4201</v>
@@ -58654,7 +58932,7 @@
         <v>121.808</v>
       </c>
       <c r="BY210" s="0">
-        <v>82.47411</v>
+        <v>85.40404</v>
       </c>
       <c r="BZ210" s="0">
         <v>199.8553</v>
@@ -58893,7 +59171,7 @@
         <v>128.0437</v>
       </c>
       <c r="BY211" s="0">
-        <v>71.58959</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ211" s="0">
         <v>208.5378</v>
@@ -59132,7 +59410,7 @@
         <v>128.7356</v>
       </c>
       <c r="BY212" s="0">
-        <v>67.31803</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ212" s="0">
         <v>208.1987</v>
@@ -59371,7 +59649,7 @@
         <v>130.6235</v>
       </c>
       <c r="BY213" s="0">
-        <v>70.61943</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ213" s="0">
         <v>196.8154</v>
@@ -59610,7 +59888,7 @@
         <v>126.4389</v>
       </c>
       <c r="BY214" s="0">
-        <v>69.99341</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ214" s="0">
         <v>180.4433</v>
@@ -59849,7 +60127,7 @@
         <v>129.4755</v>
       </c>
       <c r="BY215" s="0">
-        <v>66.07129</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ215" s="0">
         <v>190.2738</v>
@@ -60088,7 +60366,7 @@
         <v>132.7568</v>
       </c>
       <c r="BY216" s="0">
-        <v>65.23431</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ216" s="0">
         <v>217.4205</v>
@@ -60327,7 +60605,7 @@
         <v>126.0651</v>
       </c>
       <c r="BY217" s="0">
-        <v>65.84434</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ217" s="0">
         <v>200.1618</v>
@@ -60566,7 +60844,7 @@
         <v>128.0364</v>
       </c>
       <c r="BY218" s="0">
-        <v>65.27044</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ218" s="0">
         <v>187.9995</v>
@@ -60805,7 +61083,7 @@
         <v>119.7387</v>
       </c>
       <c r="BY219" s="0">
-        <v>63.68779</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ219" s="0">
         <v>167.7892</v>
@@ -61044,7 +61322,7 @@
         <v>118.6065</v>
       </c>
       <c r="BY220" s="0">
-        <v>60.46358</v>
+        <v>62.72727</v>
       </c>
       <c r="BZ220" s="0">
         <v>150.0851</v>
@@ -61283,7 +61561,7 @@
         <v>116.4512</v>
       </c>
       <c r="BY221" s="0">
-        <v>60.01652</v>
+        <v>62.37374</v>
       </c>
       <c r="BZ221" s="0">
         <v>116.3514</v>
@@ -61522,7 +61800,7 @@
         <v>120.8705</v>
       </c>
       <c r="BY222" s="0">
-        <v>67.07392</v>
+        <v>68.30579</v>
       </c>
       <c r="BZ222" s="0">
         <v>106.0053</v>
@@ -61761,7 +62039,7 @@
         <v>122.3588</v>
       </c>
       <c r="BY223" s="0">
-        <v>62.51267</v>
+        <v>65.45455</v>
       </c>
       <c r="BZ223" s="0">
         <v>93.61729</v>
@@ -62000,7 +62278,7 @@
         <v>115.1408</v>
       </c>
       <c r="BY224" s="0">
-        <v>62.80999</v>
+        <v>68.22727</v>
       </c>
       <c r="BZ224" s="0">
         <v>76.26925</v>
@@ -62239,7 +62517,7 @@
         <v>108.1284</v>
       </c>
       <c r="BY225" s="0">
-        <v>66.91056</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ225" s="0">
         <v>89.59318</v>
@@ -62478,7 +62756,7 @@
         <v>110.1183</v>
       </c>
       <c r="BY226" s="0">
-        <v>68.32919</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ226" s="0">
         <v>97.9519</v>
@@ -62717,7 +62995,7 @@
         <v>106.1392</v>
       </c>
       <c r="BY227" s="0">
-        <v>67.88372</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ227" s="0">
         <v>96.71084</v>
@@ -62956,7 +63234,7 @@
         <v>87.63736</v>
       </c>
       <c r="BY228" s="0">
-        <v>62.95167</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ228" s="0">
         <v>76.39793</v>
@@ -63195,7 +63473,7 @@
         <v>82.26875</v>
       </c>
       <c r="BY229" s="0">
-        <v>60.3638</v>
+        <v>60.45455</v>
       </c>
       <c r="BZ229" s="0">
         <v>68.0347</v>
@@ -63434,7 +63712,7 @@
         <v>82.08736</v>
       </c>
       <c r="BY230" s="0">
-        <v>59.30724</v>
+        <v>52.64069</v>
       </c>
       <c r="BZ230" s="0">
         <v>60.46334</v>
@@ -63673,7 +63951,7 @@
         <v>80.18349</v>
       </c>
       <c r="BY231" s="0">
-        <v>60.45924</v>
+        <v>63.04545</v>
       </c>
       <c r="BZ231" s="0">
         <v>61.48481</v>
@@ -63912,7 +64190,7 @@
         <v>73.44402</v>
       </c>
       <c r="BY232" s="0">
-        <v>62.505</v>
+        <v>68.07487</v>
       </c>
       <c r="BZ232" s="0">
         <v>53.19509</v>
@@ -64151,7 +64429,7 @@
         <v>69.0985</v>
       </c>
       <c r="BY233" s="0">
-        <v>68.77429</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ233" s="0">
         <v>52.1245</v>
@@ -64390,7 +64668,7 @@
         <v>76.32453</v>
       </c>
       <c r="BY234" s="0">
-        <v>75.94356</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ234" s="0">
         <v>63.8163</v>
@@ -64629,7 +64907,7 @@
         <v>80.20418</v>
       </c>
       <c r="BY235" s="0">
-        <v>75.57576</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ235" s="0">
         <v>77.59275</v>
@@ -64868,7 +65146,7 @@
         <v>82.06289</v>
       </c>
       <c r="BY236" s="0">
-        <v>74.54475</v>
+        <v>69.09091</v>
       </c>
       <c r="BZ236" s="0">
         <v>93.76344</v>
@@ -65107,7 +65385,7 @@
         <v>82.89133</v>
       </c>
       <c r="BY237" s="0">
-        <v>77.95927</v>
+        <v>80.08264</v>
       </c>
       <c r="BZ237" s="0">
         <v>87.64593</v>
@@ -65346,7 +65624,7 @@
         <v>89.53158</v>
       </c>
       <c r="BY238" s="0">
-        <v>82.22354</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ238" s="0">
         <v>100.7478</v>
@@ -65585,7 +65863,7 @@
         <v>92.0137</v>
       </c>
       <c r="BY239" s="0">
-        <v>89.87874</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ239" s="0">
         <v>111.534</v>
@@ -65824,7 +66102,7 @@
         <v>94.13735</v>
       </c>
       <c r="BY240" s="0">
-        <v>88.18988</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ240" s="0">
         <v>117.8889</v>
@@ -66063,7 +66341,7 @@
         <v>97.67286</v>
       </c>
       <c r="BY241" s="0">
-        <v>89.79734</v>
+        <v>86.36364</v>
       </c>
       <c r="BZ241" s="0">
         <v>106.742</v>
@@ -66302,7 +66580,7 @@
         <v>99.63909</v>
       </c>
       <c r="BY242" s="0">
-        <v>93.59247</v>
+        <v>90.68182</v>
       </c>
       <c r="BZ242" s="0">
         <v>94.80541</v>
@@ -66780,7 +67058,7 @@
         <v>97.54825</v>
       </c>
       <c r="BY244" s="0">
-        <v>99.28936</v>
+        <v>103.6364</v>
       </c>
       <c r="BZ244" s="0">
         <v>98.74633</v>
@@ -67019,7 +67297,7 @@
         <v>101.97</v>
       </c>
       <c r="BY245" s="0">
-        <v>97.97806</v>
+        <v>103.6364</v>
       </c>
       <c r="BZ245" s="0">
         <v>102.3009</v>
@@ -67258,7 +67536,7 @@
         <v>105.5477</v>
       </c>
       <c r="BY246" s="0">
-        <v>103.3452</v>
+        <v>103.6364</v>
       </c>
       <c r="BZ246" s="0">
         <v>103.8858</v>
@@ -67497,7 +67775,7 @@
         <v>100.2765</v>
       </c>
       <c r="BY247" s="0">
-        <v>105.9541</v>
+        <v>103.6364</v>
       </c>
       <c r="BZ247" s="0">
         <v>102.6506</v>
@@ -67736,7 +68014,7 @@
         <v>97.02071</v>
       </c>
       <c r="BY248" s="0">
-        <v>110.6437</v>
+        <v>109.0909</v>
       </c>
       <c r="BZ248" s="0">
         <v>101.1767</v>
@@ -67975,7 +68253,7 @@
         <v>97.62213</v>
       </c>
       <c r="BY249" s="0">
-        <v>111.3879</v>
+        <v>110.2165</v>
       </c>
       <c r="BZ249" s="0">
         <v>99.91195</v>
@@ -68214,7 +68492,7 @@
         <v>98.84599</v>
       </c>
       <c r="BY250" s="0">
-        <v>111.1414</v>
+        <v>103.6364</v>
       </c>
       <c r="BZ250" s="0">
         <v>91.41386</v>
@@ -68453,7 +68731,7 @@
         <v>101.2112</v>
       </c>
       <c r="BY251" s="0">
-        <v>112.3013</v>
+        <v>119.3388</v>
       </c>
       <c r="BZ251" s="0">
         <v>90.57518</v>
@@ -68692,7 +68970,7 @@
         <v>105.4745</v>
       </c>
       <c r="BY252" s="0">
-        <v>114.7931</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ252" s="0">
         <v>90.34603</v>
@@ -68931,7 +69209,7 @@
         <v>106.9436</v>
       </c>
       <c r="BY253" s="0">
-        <v>114.8337</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ253" s="0">
         <v>87.92955</v>
@@ -69170,7 +69448,7 @@
         <v>109.4929</v>
       </c>
       <c r="BY254" s="0">
-        <v>112.242</v>
+        <v>116.5909</v>
       </c>
       <c r="BZ254" s="0">
         <v>94.53912</v>
@@ -69409,7 +69687,7 @@
         <v>112.7123</v>
       </c>
       <c r="BY255" s="0">
-        <v>113.3</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ255" s="0">
         <v>98.58229</v>
@@ -69648,7 +69926,7 @@
         <v>116.4142</v>
       </c>
       <c r="BY256" s="0">
-        <v>114.7862</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ256" s="0">
         <v>99.06907</v>
@@ -69887,7 +70165,7 @@
         <v>115.3778</v>
       </c>
       <c r="BY257" s="0">
-        <v>119.5816</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ257" s="0">
         <v>92.88554</v>
@@ -70126,7 +70404,7 @@
         <v>118.7527</v>
       </c>
       <c r="BY258" s="0">
-        <v>122.0488</v>
+        <v>120.9091</v>
       </c>
       <c r="BZ258" s="0">
         <v>92.13136</v>
@@ -70365,7 +70643,7 @@
         <v>120.1386</v>
       </c>
       <c r="BY259" s="0">
-        <v>133.929</v>
+        <v>135.8264</v>
       </c>
       <c r="BZ259" s="0">
         <v>89.28531</v>
@@ -70604,7 +70882,7 @@
         <v>115.529</v>
       </c>
       <c r="BY260" s="0">
-        <v>138.6386</v>
+        <v>138.1818</v>
       </c>
       <c r="BZ260" s="0">
         <v>87.52307</v>
@@ -70843,7 +71121,7 @@
         <v>119.4924</v>
       </c>
       <c r="BY261" s="0">
-        <v>146.3209</v>
+        <v>148.1818</v>
       </c>
       <c r="BZ261" s="0">
         <v>83.2478</v>
@@ -71082,7 +71360,7 @@
         <v>108.1689</v>
       </c>
       <c r="BY262" s="0">
-        <v>166.3724</v>
+        <v>166.4463</v>
       </c>
       <c r="BZ262" s="0">
         <v>79.37903</v>
@@ -71321,7 +71599,7 @@
         <v>106.7253</v>
       </c>
       <c r="BY263" s="0">
-        <v>172.0629</v>
+        <v>172.7273</v>
       </c>
       <c r="BZ263" s="0">
         <v>89.26933</v>
@@ -71560,7 +71838,7 @@
         <v>109.9768</v>
       </c>
       <c r="BY264" s="0">
-        <v>175.8817</v>
+        <v>176.1818</v>
       </c>
       <c r="BZ264" s="0">
         <v>82.53706</v>
@@ -71799,7 +72077,7 @@
         <v>112.731</v>
       </c>
       <c r="BY265" s="0">
-        <v>193.2442</v>
+        <v>194.7107</v>
       </c>
       <c r="BZ265" s="0">
         <v>78.44955</v>
@@ -72038,7 +72316,7 @@
         <v>115.3224</v>
       </c>
       <c r="BY266" s="0">
-        <v>199.9937</v>
+        <v>202.9545</v>
       </c>
       <c r="BZ266" s="0">
         <v>73.44267</v>
@@ -72277,7 +72555,7 @@
         <v>119.8607</v>
       </c>
       <c r="BY267" s="0">
-        <v>204.5798</v>
+        <v>207.2727</v>
       </c>
       <c r="BZ267" s="0">
         <v>71.11426</v>
@@ -72516,7 +72794,7 @@
         <v>123.0901</v>
       </c>
       <c r="BY268" s="0">
-        <v>230.0006</v>
+        <v>231.4545</v>
       </c>
       <c r="BZ268" s="0">
         <v>81.41594</v>
@@ -72755,7 +73033,7 @@
         <v>124.9085</v>
       </c>
       <c r="BY269" s="0">
-        <v>298.1748</v>
+        <v>299.3939</v>
       </c>
       <c r="BZ269" s="0">
         <v>87.92094</v>
@@ -72994,7 +73272,7 @@
         <v>124.4433</v>
       </c>
       <c r="BY270" s="0">
-        <v>385.997</v>
+        <v>387.6768</v>
       </c>
       <c r="BZ270" s="0">
         <v>91.88527</v>
@@ -73233,7 +73511,7 @@
         <v>121.486</v>
       </c>
       <c r="BY271" s="0">
-        <v>429.6628</v>
+        <v>432.6407</v>
       </c>
       <c r="BZ271" s="0">
         <v>90.83571</v>
@@ -73472,7 +73750,7 @@
         <v>119.8035</v>
       </c>
       <c r="BY272" s="0">
-        <v>423.2456</v>
+        <v>422.3182</v>
       </c>
       <c r="BZ272" s="0">
         <v>85.09712</v>
@@ -73711,7 +73989,7 @@
         <v>122.3743</v>
       </c>
       <c r="BY273" s="0">
-        <v>425.2616</v>
+        <v>430</v>
       </c>
       <c r="BZ273" s="0">
         <v>82.71023</v>
@@ -73950,7 +74228,7 @@
         <v>125.4379</v>
       </c>
       <c r="BY274" s="0">
-        <v>468.141</v>
+        <v>471.8595</v>
       </c>
       <c r="BZ274" s="0">
         <v>82.61879</v>
@@ -74189,7 +74467,7 @@
         <v>128.1463</v>
       </c>
       <c r="BY275" s="0">
-        <v>512.1005</v>
+        <v>515.5909</v>
       </c>
       <c r="BZ275" s="0">
         <v>78.51116</v>
@@ -74428,7 +74706,7 @@
         <v>127.7848</v>
       </c>
       <c r="BY276" s="0">
-        <v>623.3342</v>
+        <v>624.0711</v>
       </c>
       <c r="BZ276" s="0">
         <v>78.18973</v>
@@ -74667,7 +74945,7 @@
         <v>123.1607</v>
       </c>
       <c r="BY277" s="0">
-        <v>653.1821</v>
+        <v>654.7186</v>
       </c>
       <c r="BZ277" s="0">
         <v>76.17472</v>
@@ -74906,7 +75184,7 @@
         <v>125.5266</v>
       </c>
       <c r="BY278" s="0">
-        <v>771.4704</v>
+        <v>777.2727</v>
       </c>
       <c r="BZ278" s="0">
         <v>78.52448</v>
@@ -75145,7 +75423,7 @@
         <v>130.0259</v>
       </c>
       <c r="BY279" s="0">
-        <v>827.1088</v>
+        <v>827.5207</v>
       </c>
       <c r="BZ279" s="0">
         <v>90.57907</v>
@@ -75384,7 +75662,7 @@
         <v>133.3876</v>
       </c>
       <c r="BY280" s="0">
-        <v>1006.83</v>
+        <v>1011.414</v>
       </c>
       <c r="BZ280" s="0">
         <v>96.18466</v>
@@ -75623,7 +75901,7 @@
         <v>137.694</v>
       </c>
       <c r="BY281" s="0">
-        <v>1075.924</v>
+        <v>1080.505</v>
       </c>
       <c r="BZ281" s="0">
         <v>95.6814</v>
@@ -75862,7 +76140,7 @@
         <v>140.1545</v>
       </c>
       <c r="BY282" s="0">
-        <v>1103.158</v>
+        <v>1107.922</v>
       </c>
       <c r="BZ282" s="0">
         <v>97.70432</v>
@@ -76101,7 +76379,7 @@
         <v>144.8939</v>
       </c>
       <c r="BY283" s="0">
-        <v>1289.242</v>
+        <v>1296.277</v>
       </c>
       <c r="BZ283" s="0">
         <v>98.68136</v>
@@ -76340,7 +76618,7 @@
         <v>143.591</v>
       </c>
       <c r="BY284" s="0">
-        <v>1581.326</v>
+        <v>1586.212</v>
       </c>
       <c r="BZ284" s="0">
         <v>100.4433</v>
@@ -76579,7 +76857,7 @@
         <v>146.9761</v>
       </c>
       <c r="BY285" s="0">
-        <v>2144.076</v>
+        <v>2151.688</v>
       </c>
       <c r="BZ285" s="0">
         <v>97.97012</v>
@@ -76818,7 +77096,7 @@
         <v>145.1151</v>
       </c>
       <c r="BY286" s="0">
-        <v>2228.42</v>
+        <v>2238.874</v>
       </c>
       <c r="BZ286" s="0">
         <v>98.60979</v>
@@ -77057,7 +77335,7 @@
         <v>145.8265</v>
       </c>
       <c r="BY287" s="0">
-        <v>2717.802</v>
+        <v>2729.913</v>
       </c>
       <c r="BZ287" s="0">
         <v>95.34175</v>
@@ -77296,7 +77574,7 @@
         <v>146.0123</v>
       </c>
       <c r="BY288" s="0">
-        <v>3392.95</v>
+        <v>3409.008</v>
       </c>
       <c r="BZ288" s="0">
         <v>99.26878</v>
@@ -77535,7 +77813,7 @@
         <v>151.566</v>
       </c>
       <c r="BY289" s="0">
-        <v>4199.168</v>
+        <v>4219.727</v>
       </c>
       <c r="BZ289" s="0">
         <v>100.1665</v>
@@ -77774,7 +78052,7 @@
         <v>153.7142</v>
       </c>
       <c r="BY290" s="0">
-        <v>4556.974</v>
+        <v>4580</v>
       </c>
       <c r="BZ290" s="0">
         <v>101.0331</v>
@@ -78013,7 +78291,7 @@
         <v>155.1271</v>
       </c>
       <c r="BY291" s="0">
-        <v>4782.183</v>
+        <v>4803.463</v>
       </c>
       <c r="BZ291" s="0">
         <v>105.8718</v>
@@ -78252,7 +78530,7 @@
         <v>152.4027</v>
       </c>
       <c r="BY292" s="0">
-        <v>4765.15</v>
+        <v>4786.465</v>
       </c>
       <c r="BZ292" s="0">
         <v>113.8268</v>
@@ -78491,7 +78769,7 @@
         <v>155.7469</v>
       </c>
       <c r="BY293" s="0">
-        <v>4421.337</v>
+        <v>4439.091</v>
       </c>
       <c r="BZ293" s="0">
         <v>117.7973</v>
@@ -78730,7 +79008,7 @@
         <v>156.6148</v>
       </c>
       <c r="BY294" s="0">
-        <v>4222.443</v>
+        <v>4239.591</v>
       </c>
       <c r="BZ294" s="0">
         <v>116.1294</v>
@@ -78969,7 +79247,7 @@
         <v>158.2168</v>
       </c>
       <c r="BY295" s="0">
-        <v>3824.596</v>
+        <v>3844.416</v>
       </c>
       <c r="BZ295" s="0">
         <v>107.9789</v>
@@ -79208,7 +79486,7 @@
         <v>160.8574</v>
       </c>
       <c r="BY296" s="0">
-        <v>3724.182</v>
+        <v>3737.626</v>
       </c>
       <c r="BZ296" s="0">
         <v>113.0729</v>
@@ -79447,7 +79725,7 @@
         <v>162.2374</v>
       </c>
       <c r="BY297" s="0">
-        <v>3674.627</v>
+        <v>3690.083</v>
       </c>
       <c r="BZ297" s="0">
         <v>117.7633</v>
@@ -79686,7 +79964,7 @@
         <v>160.2022</v>
       </c>
       <c r="BY298" s="0">
-        <v>4079.74</v>
+        <v>4098.818</v>
       </c>
       <c r="BZ298" s="0">
         <v>121.8435</v>
@@ -79925,7 +80203,7 @@
         <v>163.2866</v>
       </c>
       <c r="BY299" s="0">
-        <v>4755.57</v>
+        <v>4777.479</v>
       </c>
       <c r="BZ299" s="0">
         <v>123.8054</v>
@@ -80164,7 +80442,7 @@
         <v>159.5024</v>
       </c>
       <c r="BY300" s="0">
-        <v>5023.533</v>
+        <v>5045.889</v>
       </c>
       <c r="BZ300" s="0">
         <v>119.9232</v>
@@ -80403,7 +80681,7 @@
         <v>168.5472</v>
       </c>
       <c r="BY301" s="0">
-        <v>5039.108</v>
+        <v>5061.773</v>
       </c>
       <c r="BZ301" s="0">
         <v>118.2021</v>
@@ -80642,7 +80920,7 @@
         <v>169.5525</v>
       </c>
       <c r="BY302" s="0">
-        <v>6128.503</v>
+        <v>6154.545</v>
       </c>
       <c r="BZ302" s="0">
         <v>109.2394</v>
@@ -80881,7 +81159,7 @@
         <v>167.528</v>
       </c>
       <c r="BY303" s="0">
-        <v>6736.235</v>
+        <v>6766.591</v>
       </c>
       <c r="BZ303" s="0">
         <v>113.8669</v>
@@ -81120,7 +81398,7 @@
         <v>171.3782</v>
       </c>
       <c r="BY304" s="0">
-        <v>6109.464</v>
+        <v>6134.697</v>
       </c>
       <c r="BZ304" s="0">
         <v>115.4556</v>
@@ -81359,7 +81637,7 @@
         <v>171.2477</v>
       </c>
       <c r="BY305" s="0">
-        <v>7766.462</v>
+        <v>7802.091</v>
       </c>
       <c r="BZ305" s="0">
         <v>115.1605</v>
@@ -81598,7 +81876,7 @@
         <v>171.6179</v>
       </c>
       <c r="BY306" s="0">
-        <v>9550.842</v>
+        <v>9592.409</v>
       </c>
       <c r="BZ306" s="0">
         <v>110.9315</v>
@@ -81837,7 +82115,7 @@
         <v>173.0905</v>
       </c>
       <c r="BY307" s="0">
-        <v>12348.12</v>
+        <v>12403.64</v>
       </c>
       <c r="BZ307" s="0">
         <v>110.0538</v>
@@ -82076,7 +82354,7 @@
         <v>171.2044</v>
       </c>
       <c r="BY308" s="0">
-        <v>22248.72</v>
+        <v>22349.09</v>
       </c>
       <c r="BZ308" s="0">
         <v>115.9013</v>
@@ -82315,7 +82593,7 @@
         <v>169.9419</v>
       </c>
       <c r="BY309" s="0">
-        <v>25372.13</v>
+        <v>25485.12</v>
       </c>
       <c r="BZ309" s="0">
         <v>124.5227</v>
@@ -82554,7 +82832,7 @@
         <v>162.9377</v>
       </c>
       <c r="BY310" s="0">
-        <v>26065.69</v>
+        <v>26180.52</v>
       </c>
       <c r="BZ310" s="0">
         <v>115.6955</v>
@@ -82793,7 +83071,7 @@
         <v>156.0461</v>
       </c>
       <c r="BY311" s="0">
-        <v>23224.79</v>
+        <v>23328.39</v>
       </c>
       <c r="BZ311" s="0">
         <v>112.6702</v>
@@ -83032,7 +83310,7 @@
         <v>164.0903</v>
       </c>
       <c r="BY312" s="0">
-        <v>20582.06</v>
+        <v>20672.16</v>
       </c>
       <c r="BZ312" s="0">
         <v>117.477</v>
@@ -83271,7 +83549,7 @@
         <v>169.2615</v>
       </c>
       <c r="BY313" s="0">
-        <v>21377.03</v>
+        <v>21471.65</v>
       </c>
       <c r="BZ313" s="0">
         <v>120.1484</v>
@@ -83510,7 +83788,7 @@
         <v>167.5338</v>
       </c>
       <c r="BY314" s="0">
-        <v>24427.21</v>
+        <v>24536.36</v>
       </c>
       <c r="BZ314" s="0">
         <v>113.5351</v>
@@ -83749,7 +84027,7 @@
         <v>155.7147</v>
       </c>
       <c r="BY315" s="0">
-        <v>24767.81</v>
+        <v>24876.36</v>
       </c>
       <c r="BZ315" s="0">
         <v>109.706</v>
@@ -83988,7 +84266,7 @@
         <v>155.6636</v>
       </c>
       <c r="BY316" s="0">
-        <v>26664.95</v>
+        <v>26779.09</v>
       </c>
       <c r="BZ316" s="0">
         <v>109.9481</v>
@@ -84227,7 +84505,7 @@
         <v>165.235</v>
       </c>
       <c r="BY317" s="0">
-        <v>26704.67</v>
+        <v>26824.55</v>
       </c>
       <c r="BZ317" s="0">
         <v>114.2249</v>
@@ -84466,7 +84744,7 @@
         <v>170.4132</v>
       </c>
       <c r="BY318" s="0">
-        <v>26737.05</v>
+        <v>26855.64</v>
       </c>
       <c r="BZ318" s="0">
         <v>115.3073</v>
@@ -84705,7 +84983,7 @@
         <v>168.9612</v>
       </c>
       <c r="BY319" s="0">
-        <v>26330.69</v>
+        <v>26448</v>
       </c>
       <c r="BZ319" s="0">
         <v>121.8654</v>
@@ -84944,7 +85222,7 @@
         <v>169.5585</v>
       </c>
       <c r="BY320" s="0">
-        <v>24878.43</v>
+        <v>24989.52</v>
       </c>
       <c r="BZ320" s="0">
         <v>124.6437</v>
@@ -85183,7 +85461,7 @@
         <v>175.1578</v>
       </c>
       <c r="BY321" s="0">
-        <v>21023.23</v>
+        <v>21115.45</v>
       </c>
       <c r="BZ321" s="0">
         <v>130.8453</v>
@@ -85422,7 +85700,7 @@
         <v>176.6285</v>
       </c>
       <c r="BY322" s="0">
-        <v>20991.84</v>
+        <v>21086.07</v>
       </c>
       <c r="BZ322" s="0">
         <v>130.142</v>
@@ -85661,7 +85939,7 @@
         <v>174.4532</v>
       </c>
       <c r="BY323" s="0">
-        <v>21123.44</v>
+        <v>21216.4</v>
       </c>
       <c r="BZ323" s="0">
         <v>133.022</v>
@@ -85900,7 +86178,7 @@
         <v>173.6619</v>
       </c>
       <c r="BY324" s="0">
-        <v>23580.98</v>
+        <v>23686.09</v>
       </c>
       <c r="BZ324" s="0">
         <v>135.7733</v>
@@ -86139,7 +86417,7 @@
         <v>178.5589</v>
       </c>
       <c r="BY325" s="0">
-        <v>41315.12</v>
+        <v>41499.78</v>
       </c>
       <c r="BZ325" s="0">
         <v>134.1406</v>
@@ -86378,7 +86656,7 @@
         <v>188.2531</v>
       </c>
       <c r="BY326" s="0">
-        <v>55534.64</v>
+        <v>55781.86</v>
       </c>
       <c r="BZ326" s="0">
         <v>132.1842</v>
@@ -86575,7 +86853,7 @@
         <v>79</v>
       </c>
       <c r="BK327" s="0">
-        <v>143.5362</v>
+        <v>143.509</v>
       </c>
       <c r="BL327" s="0">
         <v>76.54013</v>
@@ -86617,7 +86895,7 @@
         <v>190.1223</v>
       </c>
       <c r="BY327" s="0">
-        <v>52078.36</v>
+        <v>52309.22</v>
       </c>
       <c r="BZ327" s="0">
         <v>136.1741</v>
@@ -86856,7 +87134,7 @@
         <v>195.05</v>
       </c>
       <c r="BY328" s="0">
-        <v>55399.98</v>
+        <v>55644.6</v>
       </c>
       <c r="BZ328" s="0">
         <v>141.1552</v>
@@ -87095,7 +87373,7 @@
         <v>198.8596</v>
       </c>
       <c r="BY329" s="0">
-        <v>66446.41</v>
+        <v>66741.82</v>
       </c>
       <c r="BZ329" s="0">
         <v>142.6808</v>
@@ -87334,7 +87612,7 @@
         <v>197.5382</v>
       </c>
       <c r="BY330" s="0">
-        <v>84812.94</v>
+        <v>85189.09</v>
       </c>
       <c r="BZ330" s="0">
         <v>143.2373</v>
@@ -87348,118 +87626,118 @@
         <v>408</v>
       </c>
       <c r="B331" s="0">
-        <v>198.536</v>
+        <v>198.3918</v>
       </c>
       <c r="C331" s="0">
-        <v>120.3946</v>
+        <v>120.3125</v>
       </c>
       <c r="D331" s="0">
-        <v>119.5256</v>
+        <v>119.6348</v>
       </c>
       <c r="E331" s="0">
-        <v>157.3656</v>
+        <v>157.1009</v>
       </c>
       <c r="F331" s="0">
-        <v>152.5325</v>
+        <v>152.513</v>
       </c>
       <c r="G331" s="0" t="s">
         <v>79</v>
       </c>
       <c r="H331" s="0">
-        <v>55.08316</v>
+        <v>55.00594</v>
       </c>
       <c r="I331" s="0">
-        <v>95.2127</v>
+        <v>94.9531</v>
       </c>
       <c r="J331" s="0">
-        <v>132.9933</v>
+        <v>132.8854</v>
       </c>
       <c r="K331" s="0">
-        <v>137.8954</v>
+        <v>137.8638</v>
       </c>
       <c r="L331" s="0">
-        <v>129.1379</v>
+        <v>129.2183</v>
       </c>
       <c r="M331" s="0">
-        <v>97.48069</v>
+        <v>97.51855</v>
       </c>
       <c r="N331" s="0" t="s">
         <v>79</v>
       </c>
       <c r="O331" s="0">
-        <v>85.63306</v>
+        <v>85.56882</v>
       </c>
       <c r="P331" s="0">
-        <v>216.0325</v>
+        <v>215.9401</v>
       </c>
       <c r="Q331" s="0">
-        <v>254.2755</v>
+        <v>254.5565</v>
       </c>
       <c r="R331" s="0">
-        <v>118.5073</v>
+        <v>118.4888</v>
       </c>
       <c r="S331" s="0">
-        <v>89.8134</v>
+        <v>89.77968</v>
       </c>
       <c r="T331" s="0">
-        <v>233.4775</v>
+        <v>233.4248</v>
       </c>
       <c r="U331" s="0">
-        <v>146.0723</v>
+        <v>146.1432</v>
       </c>
       <c r="V331" s="0">
-        <v>149.8061</v>
+        <v>149.7015</v>
       </c>
       <c r="W331" s="0">
-        <v>146.7787</v>
+        <v>146.9698</v>
       </c>
       <c r="X331" s="0">
-        <v>36.304</v>
+        <v>36.30719</v>
       </c>
       <c r="Y331" s="0">
-        <v>117.5434</v>
+        <v>117.6592</v>
       </c>
       <c r="Z331" s="0">
-        <v>87.85956</v>
+        <v>87.78899</v>
       </c>
       <c r="AA331" s="0">
-        <v>152.5654</v>
+        <v>152.8015</v>
       </c>
       <c r="AB331" s="0">
-        <v>217.1718</v>
+        <v>217.2643</v>
       </c>
       <c r="AC331" s="0">
-        <v>176.0416</v>
+        <v>176.2418</v>
       </c>
       <c r="AD331" s="0">
-        <v>229.2933</v>
+        <v>229.1774</v>
       </c>
       <c r="AE331" s="0">
-        <v>693.9995</v>
+        <v>694.1136</v>
       </c>
       <c r="AF331" s="0">
-        <v>228.8097</v>
+        <v>228.0318</v>
       </c>
       <c r="AG331" s="0">
         <v>119.2056</v>
       </c>
       <c r="AH331" s="0">
-        <v>92.24037</v>
+        <v>92.01942</v>
       </c>
       <c r="AI331" s="0">
-        <v>74.44331</v>
+        <v>74.44501</v>
       </c>
       <c r="AJ331" s="0">
-        <v>185.0634</v>
+        <v>185.0258</v>
       </c>
       <c r="AK331" s="0">
-        <v>83.17135</v>
+        <v>83.20057</v>
       </c>
       <c r="AL331" s="0">
-        <v>93.67037</v>
+        <v>94.17203</v>
       </c>
       <c r="AM331" s="0">
-        <v>119.9269</v>
+        <v>120.0243</v>
       </c>
       <c r="AN331" s="0" t="s">
         <v>79</v>
@@ -87468,118 +87746,3225 @@
         <v>79</v>
       </c>
       <c r="AP331" s="0">
-        <v>189.1051</v>
+        <v>189.1064</v>
       </c>
       <c r="AQ331" s="0">
-        <v>204.6936</v>
+        <v>204.8177</v>
       </c>
       <c r="AR331" s="0">
-        <v>69.42268</v>
+        <v>69.36127</v>
       </c>
       <c r="AS331" s="0">
-        <v>263.6468</v>
+        <v>263.9485</v>
       </c>
       <c r="AT331" s="0">
-        <v>108.9003</v>
+        <v>108.77</v>
       </c>
       <c r="AU331" s="0">
-        <v>154.2398</v>
+        <v>154.1545</v>
       </c>
       <c r="AV331" s="0">
-        <v>80.00771</v>
+        <v>80.06786</v>
       </c>
       <c r="AW331" s="0">
-        <v>123.458</v>
+        <v>123.4468</v>
       </c>
       <c r="AX331" s="0">
-        <v>300.3555</v>
+        <v>300.4391</v>
       </c>
       <c r="AY331" s="0">
-        <v>137.2988</v>
+        <v>137.2807</v>
       </c>
       <c r="AZ331" s="0">
-        <v>125.2483</v>
+        <v>126.0536</v>
       </c>
       <c r="BA331" s="0">
-        <v>157.8573</v>
+        <v>157.7104</v>
       </c>
       <c r="BB331" s="0">
-        <v>190.1262</v>
+        <v>190.0302</v>
       </c>
       <c r="BC331" s="0">
-        <v>162.392</v>
+        <v>162.3876</v>
       </c>
       <c r="BD331" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BE331" s="0">
-        <v>265.6984</v>
+        <v>265.479</v>
       </c>
       <c r="BF331" s="0">
-        <v>106.1243</v>
+        <v>106.1406</v>
       </c>
       <c r="BG331" s="0">
-        <v>256.7096</v>
+        <v>256.7399</v>
       </c>
       <c r="BH331" s="0">
-        <v>96.42713</v>
+        <v>96.17296</v>
       </c>
       <c r="BI331" s="0">
-        <v>61.62972</v>
+        <v>61.71732</v>
       </c>
       <c r="BJ331" s="0" t="s">
         <v>79</v>
       </c>
       <c r="BK331" s="0">
-        <v>166.2331</v>
+        <v>166.7848</v>
       </c>
       <c r="BL331" s="0">
-        <v>72.05498</v>
+        <v>71.85036</v>
       </c>
       <c r="BM331" s="0">
-        <v>110.0717</v>
+        <v>109.9796</v>
       </c>
       <c r="BN331" s="0">
-        <v>112.7925</v>
+        <v>112.7593</v>
       </c>
       <c r="BO331" s="0">
-        <v>128.797</v>
+        <v>128.6502</v>
       </c>
       <c r="BP331" s="0">
-        <v>77.70263</v>
+        <v>77.77137</v>
       </c>
       <c r="BQ331" s="0">
-        <v>192.6696</v>
+        <v>192.7075</v>
       </c>
       <c r="BR331" s="0">
-        <v>214.355</v>
+        <v>214.3735</v>
       </c>
       <c r="BS331" s="0">
-        <v>125.914</v>
+        <v>125.902</v>
       </c>
       <c r="BT331" s="0">
-        <v>175.7384</v>
+        <v>176.04</v>
       </c>
       <c r="BU331" s="0">
-        <v>123.3696</v>
+        <v>123.4002</v>
       </c>
       <c r="BV331" s="0">
-        <v>207.421</v>
+        <v>207.8072</v>
       </c>
       <c r="BW331" s="0">
-        <v>44.73076</v>
+        <v>44.75388</v>
       </c>
       <c r="BX331" s="0">
-        <v>199.8674</v>
+        <v>199.946</v>
       </c>
       <c r="BY331" s="0">
-        <v>111361</v>
+        <v>113562.4</v>
       </c>
       <c r="BZ331" s="0">
-        <v>145.6203</v>
+        <v>145.6883</v>
       </c>
       <c r="CA331" s="0">
-        <v>195.2909</v>
+        <v>195.2313</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B332" s="0">
+        <v>199.6602</v>
+      </c>
+      <c r="C332" s="0">
+        <v>118.7683</v>
+      </c>
+      <c r="D332" s="0">
+        <v>120.2077</v>
+      </c>
+      <c r="E332" s="0">
+        <v>154.1756</v>
+      </c>
+      <c r="F332" s="0">
+        <v>158.3731</v>
+      </c>
+      <c r="G332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H332" s="0">
+        <v>51.94575</v>
+      </c>
+      <c r="I332" s="0">
+        <v>90.43148</v>
+      </c>
+      <c r="J332" s="0">
+        <v>131.358</v>
+      </c>
+      <c r="K332" s="0">
+        <v>136.723</v>
+      </c>
+      <c r="L332" s="0">
+        <v>128.6579</v>
+      </c>
+      <c r="M332" s="0">
+        <v>99.14067</v>
+      </c>
+      <c r="N332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O332" s="0">
+        <v>84.16015</v>
+      </c>
+      <c r="P332" s="0">
+        <v>216.7844</v>
+      </c>
+      <c r="Q332" s="0">
+        <v>260.8639</v>
+      </c>
+      <c r="R332" s="0">
+        <v>125.4908</v>
+      </c>
+      <c r="S332" s="0">
+        <v>88.8591</v>
+      </c>
+      <c r="T332" s="0">
+        <v>235.4836</v>
+      </c>
+      <c r="U332" s="0">
+        <v>148.7209</v>
+      </c>
+      <c r="V332" s="0">
+        <v>148.0902</v>
+      </c>
+      <c r="W332" s="0">
+        <v>147.4791</v>
+      </c>
+      <c r="X332" s="0">
+        <v>37.66992</v>
+      </c>
+      <c r="Y332" s="0">
+        <v>120.643</v>
+      </c>
+      <c r="Z332" s="0">
+        <v>86.8176</v>
+      </c>
+      <c r="AA332" s="0">
+        <v>159.8331</v>
+      </c>
+      <c r="AB332" s="0">
+        <v>219.2663</v>
+      </c>
+      <c r="AC332" s="0">
+        <v>180.4399</v>
+      </c>
+      <c r="AD332" s="0">
+        <v>228.4728</v>
+      </c>
+      <c r="AE332" s="0">
+        <v>685.204</v>
+      </c>
+      <c r="AF332" s="0">
+        <v>219.6042</v>
+      </c>
+      <c r="AG332" s="0">
+        <v>119.1207</v>
+      </c>
+      <c r="AH332" s="0">
+        <v>90.35617</v>
+      </c>
+      <c r="AI332" s="0">
+        <v>73.93034</v>
+      </c>
+      <c r="AJ332" s="0">
+        <v>188.0167</v>
+      </c>
+      <c r="AK332" s="0">
+        <v>83.88673</v>
+      </c>
+      <c r="AL332" s="0">
+        <v>102.1007</v>
+      </c>
+      <c r="AM332" s="0">
+        <v>124.6725</v>
+      </c>
+      <c r="AN332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP332" s="0">
+        <v>189.655</v>
+      </c>
+      <c r="AQ332" s="0">
+        <v>207.6404</v>
+      </c>
+      <c r="AR332" s="0">
+        <v>67.62804</v>
+      </c>
+      <c r="AS332" s="0">
+        <v>286.1277</v>
+      </c>
+      <c r="AT332" s="0">
+        <v>109.7937</v>
+      </c>
+      <c r="AU332" s="0">
+        <v>153.7904</v>
+      </c>
+      <c r="AV332" s="0">
+        <v>82.15475</v>
+      </c>
+      <c r="AW332" s="0">
+        <v>123.9419</v>
+      </c>
+      <c r="AX332" s="0">
+        <v>303.5881</v>
+      </c>
+      <c r="AY332" s="0">
+        <v>138.118</v>
+      </c>
+      <c r="AZ332" s="0">
+        <v>149.9197</v>
+      </c>
+      <c r="BA332" s="0">
+        <v>155.0272</v>
+      </c>
+      <c r="BB332" s="0">
+        <v>185.8209</v>
+      </c>
+      <c r="BC332" s="0">
+        <v>164.3299</v>
+      </c>
+      <c r="BD332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE332" s="0">
+        <v>244.0332</v>
+      </c>
+      <c r="BF332" s="0">
+        <v>106.3256</v>
+      </c>
+      <c r="BG332" s="0">
+        <v>259.8626</v>
+      </c>
+      <c r="BH332" s="0">
+        <v>94.81729</v>
+      </c>
+      <c r="BI332" s="0">
+        <v>62.30151</v>
+      </c>
+      <c r="BJ332" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK332" s="0">
+        <v>165.186</v>
+      </c>
+      <c r="BL332" s="0">
+        <v>66.5575</v>
+      </c>
+      <c r="BM332" s="0">
+        <v>110.8214</v>
+      </c>
+      <c r="BN332" s="0">
+        <v>112.9133</v>
+      </c>
+      <c r="BO332" s="0">
+        <v>129.95</v>
+      </c>
+      <c r="BP332" s="0">
+        <v>78.6261</v>
+      </c>
+      <c r="BQ332" s="0">
+        <v>193.6987</v>
+      </c>
+      <c r="BR332" s="0">
+        <v>216.5031</v>
+      </c>
+      <c r="BS332" s="0">
+        <v>129.3232</v>
+      </c>
+      <c r="BT332" s="0">
+        <v>181.9038</v>
+      </c>
+      <c r="BU332" s="0">
+        <v>126.7332</v>
+      </c>
+      <c r="BV332" s="0">
+        <v>217.2047</v>
+      </c>
+      <c r="BW332" s="0">
+        <v>45.8414</v>
+      </c>
+      <c r="BX332" s="0">
+        <v>203.5843</v>
+      </c>
+      <c r="BY332" s="0">
+        <v>183205.2</v>
+      </c>
+      <c r="BZ332" s="0">
+        <v>151.415</v>
+      </c>
+      <c r="CA332" s="0">
+        <v>187.0002</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B333" s="0">
+        <v>206.6844</v>
+      </c>
+      <c r="C333" s="0">
+        <v>118.8312</v>
+      </c>
+      <c r="D333" s="0">
+        <v>122.1906</v>
+      </c>
+      <c r="E333" s="0">
+        <v>154.2519</v>
+      </c>
+      <c r="F333" s="0">
+        <v>164.4882</v>
+      </c>
+      <c r="G333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H333" s="0">
+        <v>52.88317</v>
+      </c>
+      <c r="I333" s="0">
+        <v>94.05952</v>
+      </c>
+      <c r="J333" s="0">
+        <v>130.0256</v>
+      </c>
+      <c r="K333" s="0">
+        <v>137.0177</v>
+      </c>
+      <c r="L333" s="0">
+        <v>132.4395</v>
+      </c>
+      <c r="M333" s="0">
+        <v>101.5513</v>
+      </c>
+      <c r="N333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O333" s="0">
+        <v>84.85507</v>
+      </c>
+      <c r="P333" s="0">
+        <v>211.4447</v>
+      </c>
+      <c r="Q333" s="0">
+        <v>260.1718</v>
+      </c>
+      <c r="R333" s="0">
+        <v>135.5722</v>
+      </c>
+      <c r="S333" s="0">
+        <v>86.97062</v>
+      </c>
+      <c r="T333" s="0">
+        <v>249.0629</v>
+      </c>
+      <c r="U333" s="0">
+        <v>146.995</v>
+      </c>
+      <c r="V333" s="0">
+        <v>145.4878</v>
+      </c>
+      <c r="W333" s="0">
+        <v>146.1973</v>
+      </c>
+      <c r="X333" s="0">
+        <v>39.37793</v>
+      </c>
+      <c r="Y333" s="0">
+        <v>122.9682</v>
+      </c>
+      <c r="Z333" s="0">
+        <v>87.58686</v>
+      </c>
+      <c r="AA333" s="0">
+        <v>160.479</v>
+      </c>
+      <c r="AB333" s="0">
+        <v>222.2167</v>
+      </c>
+      <c r="AC333" s="0">
+        <v>184.6978</v>
+      </c>
+      <c r="AD333" s="0">
+        <v>223.0047</v>
+      </c>
+      <c r="AE333" s="0">
+        <v>690.6896</v>
+      </c>
+      <c r="AF333" s="0">
+        <v>215.6699</v>
+      </c>
+      <c r="AG333" s="0">
+        <v>119.9314</v>
+      </c>
+      <c r="AH333" s="0">
+        <v>92.172</v>
+      </c>
+      <c r="AI333" s="0">
+        <v>74.1072</v>
+      </c>
+      <c r="AJ333" s="0">
+        <v>188.0095</v>
+      </c>
+      <c r="AK333" s="0">
+        <v>92.62297</v>
+      </c>
+      <c r="AL333" s="0">
+        <v>105.7298</v>
+      </c>
+      <c r="AM333" s="0">
+        <v>123.7211</v>
+      </c>
+      <c r="AN333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP333" s="0">
+        <v>190.0991</v>
+      </c>
+      <c r="AQ333" s="0">
+        <v>214.526</v>
+      </c>
+      <c r="AR333" s="0">
+        <v>68.76483</v>
+      </c>
+      <c r="AS333" s="0">
+        <v>311.5486</v>
+      </c>
+      <c r="AT333" s="0">
+        <v>114.222</v>
+      </c>
+      <c r="AU333" s="0">
+        <v>159.1739</v>
+      </c>
+      <c r="AV333" s="0">
+        <v>86.04608</v>
+      </c>
+      <c r="AW333" s="0">
+        <v>125.4554</v>
+      </c>
+      <c r="AX333" s="0">
+        <v>318.0442</v>
+      </c>
+      <c r="AY333" s="0">
+        <v>136.5292</v>
+      </c>
+      <c r="AZ333" s="0">
+        <v>154.2739</v>
+      </c>
+      <c r="BA333" s="0">
+        <v>154.5548</v>
+      </c>
+      <c r="BB333" s="0">
+        <v>190.5654</v>
+      </c>
+      <c r="BC333" s="0">
+        <v>166.8086</v>
+      </c>
+      <c r="BD333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE333" s="0">
+        <v>229.8953</v>
+      </c>
+      <c r="BF333" s="0">
+        <v>109.259</v>
+      </c>
+      <c r="BG333" s="0">
+        <v>260.6065</v>
+      </c>
+      <c r="BH333" s="0">
+        <v>95.8527</v>
+      </c>
+      <c r="BI333" s="0">
+        <v>62.04756</v>
+      </c>
+      <c r="BJ333" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK333" s="0">
+        <v>161.728</v>
+      </c>
+      <c r="BL333" s="0">
+        <v>67.14357</v>
+      </c>
+      <c r="BM333" s="0">
+        <v>115.3154</v>
+      </c>
+      <c r="BN333" s="0">
+        <v>114.4818</v>
+      </c>
+      <c r="BO333" s="0">
+        <v>139.7947</v>
+      </c>
+      <c r="BP333" s="0">
+        <v>79.77358</v>
+      </c>
+      <c r="BQ333" s="0">
+        <v>189.1209</v>
+      </c>
+      <c r="BR333" s="0">
+        <v>216.6519</v>
+      </c>
+      <c r="BS333" s="0">
+        <v>135.8726</v>
+      </c>
+      <c r="BT333" s="0">
+        <v>192.1802</v>
+      </c>
+      <c r="BU333" s="0">
+        <v>128.7376</v>
+      </c>
+      <c r="BV333" s="0">
+        <v>218.6578</v>
+      </c>
+      <c r="BW333" s="0">
+        <v>45.97545</v>
+      </c>
+      <c r="BX333" s="0">
+        <v>206.1003</v>
+      </c>
+      <c r="BY333" s="0">
+        <v>223754.5</v>
+      </c>
+      <c r="BZ333" s="0">
+        <v>154.0128</v>
+      </c>
+      <c r="CA333" s="0">
+        <v>193.3447</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B334" s="0">
+        <v>212.5585</v>
+      </c>
+      <c r="C334" s="0">
+        <v>119.1254</v>
+      </c>
+      <c r="D334" s="0">
+        <v>123.5145</v>
+      </c>
+      <c r="E334" s="0">
+        <v>155.6692</v>
+      </c>
+      <c r="F334" s="0">
+        <v>166.7166</v>
+      </c>
+      <c r="G334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H334" s="0">
+        <v>52.79835</v>
+      </c>
+      <c r="I334" s="0">
+        <v>100.3305</v>
+      </c>
+      <c r="J334" s="0">
+        <v>129.6429</v>
+      </c>
+      <c r="K334" s="0">
+        <v>137.1204</v>
+      </c>
+      <c r="L334" s="0">
+        <v>136.3096</v>
+      </c>
+      <c r="M334" s="0">
+        <v>103.6098</v>
+      </c>
+      <c r="N334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O334" s="0">
+        <v>87.04954</v>
+      </c>
+      <c r="P334" s="0">
+        <v>207.2889</v>
+      </c>
+      <c r="Q334" s="0">
+        <v>261.5133</v>
+      </c>
+      <c r="R334" s="0">
+        <v>136.8295</v>
+      </c>
+      <c r="S334" s="0">
+        <v>86.0944</v>
+      </c>
+      <c r="T334" s="0">
+        <v>261.2186</v>
+      </c>
+      <c r="U334" s="0">
+        <v>143.8574</v>
+      </c>
+      <c r="V334" s="0">
+        <v>144.2191</v>
+      </c>
+      <c r="W334" s="0">
+        <v>146.7529</v>
+      </c>
+      <c r="X334" s="0">
+        <v>38.85422</v>
+      </c>
+      <c r="Y334" s="0">
+        <v>128.6034</v>
+      </c>
+      <c r="Z334" s="0">
+        <v>88.77201</v>
+      </c>
+      <c r="AA334" s="0">
+        <v>167.2308</v>
+      </c>
+      <c r="AB334" s="0">
+        <v>223.0807</v>
+      </c>
+      <c r="AC334" s="0">
+        <v>184.0757</v>
+      </c>
+      <c r="AD334" s="0">
+        <v>218.1527</v>
+      </c>
+      <c r="AE334" s="0">
+        <v>708.8565</v>
+      </c>
+      <c r="AF334" s="0">
+        <v>213.8674</v>
+      </c>
+      <c r="AG334" s="0">
+        <v>116.3744</v>
+      </c>
+      <c r="AH334" s="0">
+        <v>93.95041</v>
+      </c>
+      <c r="AI334" s="0">
+        <v>73.09779</v>
+      </c>
+      <c r="AJ334" s="0">
+        <v>184.4951</v>
+      </c>
+      <c r="AK334" s="0">
+        <v>99.64126</v>
+      </c>
+      <c r="AL334" s="0">
+        <v>114.4296</v>
+      </c>
+      <c r="AM334" s="0">
+        <v>120.573</v>
+      </c>
+      <c r="AN334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP334" s="0">
+        <v>183.0825</v>
+      </c>
+      <c r="AQ334" s="0">
+        <v>226.3084</v>
+      </c>
+      <c r="AR334" s="0">
+        <v>69.21834</v>
+      </c>
+      <c r="AS334" s="0">
+        <v>319.5165</v>
+      </c>
+      <c r="AT334" s="0">
+        <v>113.959</v>
+      </c>
+      <c r="AU334" s="0">
+        <v>160.1006</v>
+      </c>
+      <c r="AV334" s="0">
+        <v>93.58544</v>
+      </c>
+      <c r="AW334" s="0">
+        <v>123.8772</v>
+      </c>
+      <c r="AX334" s="0">
+        <v>355.8049</v>
+      </c>
+      <c r="AY334" s="0">
+        <v>137.4536</v>
+      </c>
+      <c r="AZ334" s="0">
+        <v>168.1384</v>
+      </c>
+      <c r="BA334" s="0">
+        <v>155.3251</v>
+      </c>
+      <c r="BB334" s="0">
+        <v>195.374</v>
+      </c>
+      <c r="BC334" s="0">
+        <v>170.0284</v>
+      </c>
+      <c r="BD334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE334" s="0">
+        <v>222.3735</v>
+      </c>
+      <c r="BF334" s="0">
+        <v>113.8618</v>
+      </c>
+      <c r="BG334" s="0">
+        <v>261.8714</v>
+      </c>
+      <c r="BH334" s="0">
+        <v>98.95823</v>
+      </c>
+      <c r="BI334" s="0">
+        <v>61.66013</v>
+      </c>
+      <c r="BJ334" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK334" s="0">
+        <v>164.271</v>
+      </c>
+      <c r="BL334" s="0">
+        <v>68.52848</v>
+      </c>
+      <c r="BM334" s="0">
+        <v>113.9572</v>
+      </c>
+      <c r="BN334" s="0">
+        <v>114.8335</v>
+      </c>
+      <c r="BO334" s="0">
+        <v>139.1059</v>
+      </c>
+      <c r="BP334" s="0">
+        <v>80.62464</v>
+      </c>
+      <c r="BQ334" s="0">
+        <v>183.2002</v>
+      </c>
+      <c r="BR334" s="0">
+        <v>217.1018</v>
+      </c>
+      <c r="BS334" s="0">
+        <v>137.3482</v>
+      </c>
+      <c r="BT334" s="0">
+        <v>198.9906</v>
+      </c>
+      <c r="BU334" s="0">
+        <v>128.8664</v>
+      </c>
+      <c r="BV334" s="0">
+        <v>232.981</v>
+      </c>
+      <c r="BW334" s="0">
+        <v>46.41432</v>
+      </c>
+      <c r="BX334" s="0">
+        <v>209.2788</v>
+      </c>
+      <c r="BY334" s="0">
+        <v>329540.9</v>
+      </c>
+      <c r="BZ334" s="0">
+        <v>154.7734</v>
+      </c>
+      <c r="CA334" s="0">
+        <v>201.7879</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B335" s="0">
+        <v>212.5181</v>
+      </c>
+      <c r="C335" s="0">
+        <v>118.4743</v>
+      </c>
+      <c r="D335" s="0">
+        <v>125.7828</v>
+      </c>
+      <c r="E335" s="0">
+        <v>157.1563</v>
+      </c>
+      <c r="F335" s="0">
+        <v>159.5745</v>
+      </c>
+      <c r="G335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H335" s="0">
+        <v>48.40707</v>
+      </c>
+      <c r="I335" s="0">
+        <v>108.3534</v>
+      </c>
+      <c r="J335" s="0">
+        <v>131.1489</v>
+      </c>
+      <c r="K335" s="0">
+        <v>137.8684</v>
+      </c>
+      <c r="L335" s="0">
+        <v>138.7053</v>
+      </c>
+      <c r="M335" s="0">
+        <v>105.9842</v>
+      </c>
+      <c r="N335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O335" s="0">
+        <v>87.76125</v>
+      </c>
+      <c r="P335" s="0">
+        <v>212.8443</v>
+      </c>
+      <c r="Q335" s="0">
+        <v>264.8776</v>
+      </c>
+      <c r="R335" s="0">
+        <v>142.616</v>
+      </c>
+      <c r="S335" s="0">
+        <v>84.85969</v>
+      </c>
+      <c r="T335" s="0">
+        <v>259.219</v>
+      </c>
+      <c r="U335" s="0">
+        <v>144.8078</v>
+      </c>
+      <c r="V335" s="0">
+        <v>146.778</v>
+      </c>
+      <c r="W335" s="0">
+        <v>145.3697</v>
+      </c>
+      <c r="X335" s="0">
+        <v>36.6135</v>
+      </c>
+      <c r="Y335" s="0">
+        <v>129.8104</v>
+      </c>
+      <c r="Z335" s="0">
+        <v>86.46357</v>
+      </c>
+      <c r="AA335" s="0">
+        <v>170.5645</v>
+      </c>
+      <c r="AB335" s="0">
+        <v>223.8725</v>
+      </c>
+      <c r="AC335" s="0">
+        <v>184.7414</v>
+      </c>
+      <c r="AD335" s="0">
+        <v>219.575</v>
+      </c>
+      <c r="AE335" s="0">
+        <v>729.9999</v>
+      </c>
+      <c r="AF335" s="0">
+        <v>201.2326</v>
+      </c>
+      <c r="AG335" s="0">
+        <v>118.1136</v>
+      </c>
+      <c r="AH335" s="0">
+        <v>96.0833</v>
+      </c>
+      <c r="AI335" s="0">
+        <v>72.86871</v>
+      </c>
+      <c r="AJ335" s="0">
+        <v>186.8796</v>
+      </c>
+      <c r="AK335" s="0">
+        <v>106.7486</v>
+      </c>
+      <c r="AL335" s="0">
+        <v>109.2196</v>
+      </c>
+      <c r="AM335" s="0">
+        <v>122.7511</v>
+      </c>
+      <c r="AN335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP335" s="0">
+        <v>181.4801</v>
+      </c>
+      <c r="AQ335" s="0">
+        <v>225.9999</v>
+      </c>
+      <c r="AR335" s="0">
+        <v>68.01811</v>
+      </c>
+      <c r="AS335" s="0">
+        <v>315.7509</v>
+      </c>
+      <c r="AT335" s="0">
+        <v>116.4168</v>
+      </c>
+      <c r="AU335" s="0">
+        <v>157.3778</v>
+      </c>
+      <c r="AV335" s="0">
+        <v>96.09733</v>
+      </c>
+      <c r="AW335" s="0">
+        <v>123.5058</v>
+      </c>
+      <c r="AX335" s="0">
+        <v>386.7479</v>
+      </c>
+      <c r="AY335" s="0">
+        <v>137.6203</v>
+      </c>
+      <c r="AZ335" s="0">
+        <v>160.9553</v>
+      </c>
+      <c r="BA335" s="0">
+        <v>156.4917</v>
+      </c>
+      <c r="BB335" s="0">
+        <v>204.2122</v>
+      </c>
+      <c r="BC335" s="0">
+        <v>169.3833</v>
+      </c>
+      <c r="BD335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE335" s="0">
+        <v>211.5707</v>
+      </c>
+      <c r="BF335" s="0">
+        <v>120.1038</v>
+      </c>
+      <c r="BG335" s="0">
+        <v>267.4814</v>
+      </c>
+      <c r="BH335" s="0">
+        <v>101.9991</v>
+      </c>
+      <c r="BI335" s="0">
+        <v>61.96301</v>
+      </c>
+      <c r="BJ335" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK335" s="0">
+        <v>157.3405</v>
+      </c>
+      <c r="BL335" s="0">
+        <v>73.59396</v>
+      </c>
+      <c r="BM335" s="0">
+        <v>116.4725</v>
+      </c>
+      <c r="BN335" s="0">
+        <v>112.6382</v>
+      </c>
+      <c r="BO335" s="0">
+        <v>137.5296</v>
+      </c>
+      <c r="BP335" s="0">
+        <v>79.86753</v>
+      </c>
+      <c r="BQ335" s="0">
+        <v>186.2427</v>
+      </c>
+      <c r="BR335" s="0">
+        <v>227.0773</v>
+      </c>
+      <c r="BS335" s="0">
+        <v>138.4616</v>
+      </c>
+      <c r="BT335" s="0">
+        <v>194.9305</v>
+      </c>
+      <c r="BU335" s="0">
+        <v>129.7283</v>
+      </c>
+      <c r="BV335" s="0">
+        <v>224.4308</v>
+      </c>
+      <c r="BW335" s="0">
+        <v>46.98053</v>
+      </c>
+      <c r="BX335" s="0">
+        <v>211.7555</v>
+      </c>
+      <c r="BY335" s="0">
+        <v>642791.6</v>
+      </c>
+      <c r="BZ335" s="0">
+        <v>159.834</v>
+      </c>
+      <c r="CA335" s="0">
+        <v>201.7483</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B336" s="0">
+        <v>212.7046</v>
+      </c>
+      <c r="C336" s="0">
+        <v>121.1135</v>
+      </c>
+      <c r="D336" s="0">
+        <v>129.1842</v>
+      </c>
+      <c r="E336" s="0">
+        <v>161.4947</v>
+      </c>
+      <c r="F336" s="0">
+        <v>155.1175</v>
+      </c>
+      <c r="G336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H336" s="0">
+        <v>47.23668</v>
+      </c>
+      <c r="I336" s="0">
+        <v>110.9914</v>
+      </c>
+      <c r="J336" s="0">
+        <v>135.7954</v>
+      </c>
+      <c r="K336" s="0">
+        <v>141.1111</v>
+      </c>
+      <c r="L336" s="0">
+        <v>146.3186</v>
+      </c>
+      <c r="M336" s="0">
+        <v>106.7345</v>
+      </c>
+      <c r="N336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O336" s="0">
+        <v>89.31119</v>
+      </c>
+      <c r="P336" s="0">
+        <v>221.9271</v>
+      </c>
+      <c r="Q336" s="0">
+        <v>270.6055</v>
+      </c>
+      <c r="R336" s="0">
+        <v>153.1636</v>
+      </c>
+      <c r="S336" s="0">
+        <v>84.49448</v>
+      </c>
+      <c r="T336" s="0">
+        <v>254.664</v>
+      </c>
+      <c r="U336" s="0">
+        <v>148.5099</v>
+      </c>
+      <c r="V336" s="0">
+        <v>151.5257</v>
+      </c>
+      <c r="W336" s="0">
+        <v>148.8962</v>
+      </c>
+      <c r="X336" s="0">
+        <v>35.09155</v>
+      </c>
+      <c r="Y336" s="0">
+        <v>132.6296</v>
+      </c>
+      <c r="Z336" s="0">
+        <v>86.55136</v>
+      </c>
+      <c r="AA336" s="0">
+        <v>174.9098</v>
+      </c>
+      <c r="AB336" s="0">
+        <v>226.78</v>
+      </c>
+      <c r="AC336" s="0">
+        <v>187.6991</v>
+      </c>
+      <c r="AD336" s="0">
+        <v>223.7153</v>
+      </c>
+      <c r="AE336" s="0">
+        <v>741.9162</v>
+      </c>
+      <c r="AF336" s="0">
+        <v>206.8161</v>
+      </c>
+      <c r="AG336" s="0">
+        <v>120.9954</v>
+      </c>
+      <c r="AH336" s="0">
+        <v>97.3276</v>
+      </c>
+      <c r="AI336" s="0">
+        <v>71.41472</v>
+      </c>
+      <c r="AJ336" s="0">
+        <v>199.477</v>
+      </c>
+      <c r="AK336" s="0">
+        <v>109.0711</v>
+      </c>
+      <c r="AL336" s="0">
+        <v>105.3959</v>
+      </c>
+      <c r="AM336" s="0">
+        <v>125.9664</v>
+      </c>
+      <c r="AN336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP336" s="0">
+        <v>186.1691</v>
+      </c>
+      <c r="AQ336" s="0">
+        <v>228.0243</v>
+      </c>
+      <c r="AR336" s="0">
+        <v>69.71609</v>
+      </c>
+      <c r="AS336" s="0">
+        <v>320.2048</v>
+      </c>
+      <c r="AT336" s="0">
+        <v>115.1496</v>
+      </c>
+      <c r="AU336" s="0">
+        <v>155.8278</v>
+      </c>
+      <c r="AV336" s="0">
+        <v>94.88152</v>
+      </c>
+      <c r="AW336" s="0">
+        <v>124.0264</v>
+      </c>
+      <c r="AX336" s="0">
+        <v>379.9661</v>
+      </c>
+      <c r="AY336" s="0">
+        <v>135.7786</v>
+      </c>
+      <c r="AZ336" s="0">
+        <v>165.9177</v>
+      </c>
+      <c r="BA336" s="0">
+        <v>162.1177</v>
+      </c>
+      <c r="BB336" s="0">
+        <v>213.3919</v>
+      </c>
+      <c r="BC336" s="0">
+        <v>173.1481</v>
+      </c>
+      <c r="BD336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE336" s="0">
+        <v>203.0469</v>
+      </c>
+      <c r="BF336" s="0">
+        <v>130.0613</v>
+      </c>
+      <c r="BG336" s="0">
+        <v>274.5335</v>
+      </c>
+      <c r="BH336" s="0">
+        <v>102.1344</v>
+      </c>
+      <c r="BI336" s="0">
+        <v>64.30741</v>
+      </c>
+      <c r="BJ336" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK336" s="0">
+        <v>156.8471</v>
+      </c>
+      <c r="BL336" s="0">
+        <v>74.65135</v>
+      </c>
+      <c r="BM336" s="0">
+        <v>111.6333</v>
+      </c>
+      <c r="BN336" s="0">
+        <v>115.7569</v>
+      </c>
+      <c r="BO336" s="0">
+        <v>132.8419</v>
+      </c>
+      <c r="BP336" s="0">
+        <v>79.94495</v>
+      </c>
+      <c r="BQ336" s="0">
+        <v>193.3908</v>
+      </c>
+      <c r="BR336" s="0">
+        <v>234.3292</v>
+      </c>
+      <c r="BS336" s="0">
+        <v>134.8243</v>
+      </c>
+      <c r="BT336" s="0">
+        <v>194.9077</v>
+      </c>
+      <c r="BU336" s="0">
+        <v>131.9226</v>
+      </c>
+      <c r="BV336" s="0">
+        <v>218.3208</v>
+      </c>
+      <c r="BW336" s="0">
+        <v>48.09211</v>
+      </c>
+      <c r="BX336" s="0">
+        <v>219.9954</v>
+      </c>
+      <c r="BY336" s="0">
+        <v>1019091</v>
+      </c>
+      <c r="BZ336" s="0">
+        <v>163.5119</v>
+      </c>
+      <c r="CA336" s="0">
+        <v>208.7565</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B337" s="0">
+        <v>203.7242</v>
+      </c>
+      <c r="C337" s="0">
+        <v>124.5836</v>
+      </c>
+      <c r="D337" s="0">
+        <v>128.861</v>
+      </c>
+      <c r="E337" s="0">
+        <v>159.5804</v>
+      </c>
+      <c r="F337" s="0">
+        <v>154.9712</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H337" s="0">
+        <v>47.63213</v>
+      </c>
+      <c r="I337" s="0">
+        <v>106.9699</v>
+      </c>
+      <c r="J337" s="0">
+        <v>137.5659</v>
+      </c>
+      <c r="K337" s="0">
+        <v>141.1499</v>
+      </c>
+      <c r="L337" s="0">
+        <v>140.3117</v>
+      </c>
+      <c r="M337" s="0">
+        <v>106.7851</v>
+      </c>
+      <c r="N337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O337" s="0">
+        <v>89.33156</v>
+      </c>
+      <c r="P337" s="0">
+        <v>224.4393</v>
+      </c>
+      <c r="Q337" s="0">
+        <v>262.776</v>
+      </c>
+      <c r="R337" s="0">
+        <v>152.9041</v>
+      </c>
+      <c r="S337" s="0">
+        <v>84.01337</v>
+      </c>
+      <c r="T337" s="0">
+        <v>255.934</v>
+      </c>
+      <c r="U337" s="0">
+        <v>145.2897</v>
+      </c>
+      <c r="V337" s="0">
+        <v>151.3036</v>
+      </c>
+      <c r="W337" s="0">
+        <v>147.7122</v>
+      </c>
+      <c r="X337" s="0">
+        <v>34.32019</v>
+      </c>
+      <c r="Y337" s="0">
+        <v>136.4564</v>
+      </c>
+      <c r="Z337" s="0">
+        <v>86.69911</v>
+      </c>
+      <c r="AA337" s="0">
+        <v>178.0443</v>
+      </c>
+      <c r="AB337" s="0">
+        <v>230.4732</v>
+      </c>
+      <c r="AC337" s="0">
+        <v>193.4782</v>
+      </c>
+      <c r="AD337" s="0">
+        <v>225.3865</v>
+      </c>
+      <c r="AE337" s="0">
+        <v>766.1923</v>
+      </c>
+      <c r="AF337" s="0">
+        <v>204.6106</v>
+      </c>
+      <c r="AG337" s="0">
+        <v>120.2741</v>
+      </c>
+      <c r="AH337" s="0">
+        <v>97.28618</v>
+      </c>
+      <c r="AI337" s="0">
+        <v>70.81341</v>
+      </c>
+      <c r="AJ337" s="0">
+        <v>211.2732</v>
+      </c>
+      <c r="AK337" s="0">
+        <v>110.7808</v>
+      </c>
+      <c r="AL337" s="0">
+        <v>109.0605</v>
+      </c>
+      <c r="AM337" s="0">
+        <v>140.2651</v>
+      </c>
+      <c r="AN337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP337" s="0">
+        <v>184.0547</v>
+      </c>
+      <c r="AQ337" s="0">
+        <v>231.1665</v>
+      </c>
+      <c r="AR337" s="0">
+        <v>67.72555</v>
+      </c>
+      <c r="AS337" s="0">
+        <v>327.897</v>
+      </c>
+      <c r="AT337" s="0">
+        <v>116.937</v>
+      </c>
+      <c r="AU337" s="0">
+        <v>150.2498</v>
+      </c>
+      <c r="AV337" s="0">
+        <v>92.38028</v>
+      </c>
+      <c r="AW337" s="0">
+        <v>119.4066</v>
+      </c>
+      <c r="AX337" s="0">
+        <v>397.0279</v>
+      </c>
+      <c r="AY337" s="0">
+        <v>134.1355</v>
+      </c>
+      <c r="AZ337" s="0">
+        <v>168.4718</v>
+      </c>
+      <c r="BA337" s="0">
+        <v>162.2703</v>
+      </c>
+      <c r="BB337" s="0">
+        <v>217.3909</v>
+      </c>
+      <c r="BC337" s="0">
+        <v>173.1437</v>
+      </c>
+      <c r="BD337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE337" s="0">
+        <v>201.7718</v>
+      </c>
+      <c r="BF337" s="0">
+        <v>131.2809</v>
+      </c>
+      <c r="BG337" s="0">
+        <v>274.8634</v>
+      </c>
+      <c r="BH337" s="0">
+        <v>101.4238</v>
+      </c>
+      <c r="BI337" s="0">
+        <v>62.96072</v>
+      </c>
+      <c r="BJ337" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK337" s="0">
+        <v>153.41</v>
+      </c>
+      <c r="BL337" s="0">
+        <v>75.15419</v>
+      </c>
+      <c r="BM337" s="0">
+        <v>110.0534</v>
+      </c>
+      <c r="BN337" s="0">
+        <v>118.9883</v>
+      </c>
+      <c r="BO337" s="0">
+        <v>134.3436</v>
+      </c>
+      <c r="BP337" s="0">
+        <v>78.07566</v>
+      </c>
+      <c r="BQ337" s="0">
+        <v>191.5589</v>
+      </c>
+      <c r="BR337" s="0">
+        <v>234.2229</v>
+      </c>
+      <c r="BS337" s="0">
+        <v>135.7865</v>
+      </c>
+      <c r="BT337" s="0">
+        <v>198.0049</v>
+      </c>
+      <c r="BU337" s="0">
+        <v>132.6566</v>
+      </c>
+      <c r="BV337" s="0">
+        <v>226.5581</v>
+      </c>
+      <c r="BW337" s="0">
+        <v>48.83022</v>
+      </c>
+      <c r="BX337" s="0">
+        <v>224.9776</v>
+      </c>
+      <c r="BY337" s="0">
+        <v>1304568</v>
+      </c>
+      <c r="BZ337" s="0">
+        <v>177.9142</v>
+      </c>
+      <c r="CA337" s="0">
+        <v>216.8354</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B338" s="0">
+        <v>198.2877</v>
+      </c>
+      <c r="C338" s="0">
+        <v>125.7371</v>
+      </c>
+      <c r="D338" s="0">
+        <v>129.4449</v>
+      </c>
+      <c r="E338" s="0">
+        <v>158.8418</v>
+      </c>
+      <c r="F338" s="0">
+        <v>154.3561</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H338" s="0">
+        <v>45.54752</v>
+      </c>
+      <c r="I338" s="0">
+        <v>107.3395</v>
+      </c>
+      <c r="J338" s="0">
+        <v>138.085</v>
+      </c>
+      <c r="K338" s="0">
+        <v>142.8774</v>
+      </c>
+      <c r="L338" s="0">
+        <v>140.4362</v>
+      </c>
+      <c r="M338" s="0">
+        <v>103.8032</v>
+      </c>
+      <c r="N338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O338" s="0">
+        <v>90.31474</v>
+      </c>
+      <c r="P338" s="0">
+        <v>223.0839</v>
+      </c>
+      <c r="Q338" s="0">
+        <v>261.5207</v>
+      </c>
+      <c r="R338" s="0">
+        <v>164.7936</v>
+      </c>
+      <c r="S338" s="0">
+        <v>84.44308</v>
+      </c>
+      <c r="T338" s="0">
+        <v>253.1585</v>
+      </c>
+      <c r="U338" s="0">
+        <v>143.2116</v>
+      </c>
+      <c r="V338" s="0">
+        <v>150.9943</v>
+      </c>
+      <c r="W338" s="0">
+        <v>148.5043</v>
+      </c>
+      <c r="X338" s="0">
+        <v>35.86631</v>
+      </c>
+      <c r="Y338" s="0">
+        <v>135.9703</v>
+      </c>
+      <c r="Z338" s="0">
+        <v>86.70379</v>
+      </c>
+      <c r="AA338" s="0">
+        <v>173.384</v>
+      </c>
+      <c r="AB338" s="0">
+        <v>233.6415</v>
+      </c>
+      <c r="AC338" s="0">
+        <v>193.6477</v>
+      </c>
+      <c r="AD338" s="0">
+        <v>228.6625</v>
+      </c>
+      <c r="AE338" s="0">
+        <v>817.3396</v>
+      </c>
+      <c r="AF338" s="0">
+        <v>197.8788</v>
+      </c>
+      <c r="AG338" s="0">
+        <v>123.2686</v>
+      </c>
+      <c r="AH338" s="0">
+        <v>96.46351</v>
+      </c>
+      <c r="AI338" s="0">
+        <v>71.75568</v>
+      </c>
+      <c r="AJ338" s="0">
+        <v>213.5687</v>
+      </c>
+      <c r="AK338" s="0">
+        <v>113.2164</v>
+      </c>
+      <c r="AL338" s="0">
+        <v>107.545</v>
+      </c>
+      <c r="AM338" s="0">
+        <v>143.4641</v>
+      </c>
+      <c r="AN338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP338" s="0">
+        <v>180.1618</v>
+      </c>
+      <c r="AQ338" s="0">
+        <v>229.4147</v>
+      </c>
+      <c r="AR338" s="0">
+        <v>71.23727</v>
+      </c>
+      <c r="AS338" s="0">
+        <v>321.3471</v>
+      </c>
+      <c r="AT338" s="0">
+        <v>114.8135</v>
+      </c>
+      <c r="AU338" s="0">
+        <v>150.2719</v>
+      </c>
+      <c r="AV338" s="0">
+        <v>90.18911</v>
+      </c>
+      <c r="AW338" s="0">
+        <v>118.1631</v>
+      </c>
+      <c r="AX338" s="0">
+        <v>416.2896</v>
+      </c>
+      <c r="AY338" s="0">
+        <v>135.2773</v>
+      </c>
+      <c r="AZ338" s="0">
+        <v>174.8472</v>
+      </c>
+      <c r="BA338" s="0">
+        <v>162.8306</v>
+      </c>
+      <c r="BB338" s="0">
+        <v>215.4563</v>
+      </c>
+      <c r="BC338" s="0">
+        <v>177.4178</v>
+      </c>
+      <c r="BD338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE338" s="0">
+        <v>191.1779</v>
+      </c>
+      <c r="BF338" s="0">
+        <v>128.3297</v>
+      </c>
+      <c r="BG338" s="0">
+        <v>273.7517</v>
+      </c>
+      <c r="BH338" s="0">
+        <v>99.63929</v>
+      </c>
+      <c r="BI338" s="0">
+        <v>63.77695</v>
+      </c>
+      <c r="BJ338" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK338" s="0">
+        <v>151.8873</v>
+      </c>
+      <c r="BL338" s="0">
+        <v>74.96336</v>
+      </c>
+      <c r="BM338" s="0">
+        <v>113.4775</v>
+      </c>
+      <c r="BN338" s="0">
+        <v>119.2894</v>
+      </c>
+      <c r="BO338" s="0">
+        <v>135.6028</v>
+      </c>
+      <c r="BP338" s="0">
+        <v>78.17745</v>
+      </c>
+      <c r="BQ338" s="0">
+        <v>188.8268</v>
+      </c>
+      <c r="BR338" s="0">
+        <v>237.142</v>
+      </c>
+      <c r="BS338" s="0">
+        <v>136.4289</v>
+      </c>
+      <c r="BT338" s="0">
+        <v>200.9995</v>
+      </c>
+      <c r="BU338" s="0">
+        <v>129.6696</v>
+      </c>
+      <c r="BV338" s="0">
+        <v>240.7841</v>
+      </c>
+      <c r="BW338" s="0">
+        <v>49.70045</v>
+      </c>
+      <c r="BX338" s="0">
+        <v>234.4077</v>
+      </c>
+      <c r="BY338" s="0">
+        <v>2241221</v>
+      </c>
+      <c r="BZ338" s="0">
+        <v>189.4113</v>
+      </c>
+      <c r="CA338" s="0">
+        <v>210.9221</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B339" s="0">
+        <v>203.9688</v>
+      </c>
+      <c r="C339" s="0">
+        <v>126.9328</v>
+      </c>
+      <c r="D339" s="0">
+        <v>138.3334</v>
+      </c>
+      <c r="E339" s="0">
+        <v>163.9592</v>
+      </c>
+      <c r="F339" s="0">
+        <v>162.7808</v>
+      </c>
+      <c r="G339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H339" s="0">
+        <v>43.80408</v>
+      </c>
+      <c r="I339" s="0">
+        <v>117.8617</v>
+      </c>
+      <c r="J339" s="0">
+        <v>139.6264</v>
+      </c>
+      <c r="K339" s="0">
+        <v>145.0333</v>
+      </c>
+      <c r="L339" s="0">
+        <v>153.5813</v>
+      </c>
+      <c r="M339" s="0">
+        <v>108.9615</v>
+      </c>
+      <c r="N339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O339" s="0">
+        <v>94.43589</v>
+      </c>
+      <c r="P339" s="0">
+        <v>226.3375</v>
+      </c>
+      <c r="Q339" s="0">
+        <v>268.44</v>
+      </c>
+      <c r="R339" s="0">
+        <v>174.0089</v>
+      </c>
+      <c r="S339" s="0">
+        <v>86.48404</v>
+      </c>
+      <c r="T339" s="0">
+        <v>265.5493</v>
+      </c>
+      <c r="U339" s="0">
+        <v>147.9367</v>
+      </c>
+      <c r="V339" s="0">
+        <v>154.5062</v>
+      </c>
+      <c r="W339" s="0">
+        <v>152.6886</v>
+      </c>
+      <c r="X339" s="0">
+        <v>39.89661</v>
+      </c>
+      <c r="Y339" s="0">
+        <v>148.6861</v>
+      </c>
+      <c r="Z339" s="0">
+        <v>87.35984</v>
+      </c>
+      <c r="AA339" s="0">
+        <v>180.6374</v>
+      </c>
+      <c r="AB339" s="0">
+        <v>246.7687</v>
+      </c>
+      <c r="AC339" s="0">
+        <v>202.7148</v>
+      </c>
+      <c r="AD339" s="0">
+        <v>232.1345</v>
+      </c>
+      <c r="AE339" s="0">
+        <v>844.2912</v>
+      </c>
+      <c r="AF339" s="0">
+        <v>208.529</v>
+      </c>
+      <c r="AG339" s="0">
+        <v>128.5377</v>
+      </c>
+      <c r="AH339" s="0">
+        <v>100.6986</v>
+      </c>
+      <c r="AI339" s="0">
+        <v>72.64965</v>
+      </c>
+      <c r="AJ339" s="0">
+        <v>222.4071</v>
+      </c>
+      <c r="AK339" s="0">
+        <v>122.6482</v>
+      </c>
+      <c r="AL339" s="0">
+        <v>107.1971</v>
+      </c>
+      <c r="AM339" s="0">
+        <v>162.9414</v>
+      </c>
+      <c r="AN339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP339" s="0">
+        <v>183.1205</v>
+      </c>
+      <c r="AQ339" s="0">
+        <v>234.3247</v>
+      </c>
+      <c r="AR339" s="0">
+        <v>75.13067</v>
+      </c>
+      <c r="AS339" s="0">
+        <v>326.2134</v>
+      </c>
+      <c r="AT339" s="0">
+        <v>118.9369</v>
+      </c>
+      <c r="AU339" s="0">
+        <v>156.0738</v>
+      </c>
+      <c r="AV339" s="0">
+        <v>96.15124</v>
+      </c>
+      <c r="AW339" s="0">
+        <v>118.9055</v>
+      </c>
+      <c r="AX339" s="0">
+        <v>426.2198</v>
+      </c>
+      <c r="AY339" s="0">
+        <v>141.766</v>
+      </c>
+      <c r="AZ339" s="0">
+        <v>193.927</v>
+      </c>
+      <c r="BA339" s="0">
+        <v>167.2193</v>
+      </c>
+      <c r="BB339" s="0">
+        <v>223.5894</v>
+      </c>
+      <c r="BC339" s="0">
+        <v>178.1655</v>
+      </c>
+      <c r="BD339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE339" s="0">
+        <v>213.8048</v>
+      </c>
+      <c r="BF339" s="0">
+        <v>138.1349</v>
+      </c>
+      <c r="BG339" s="0">
+        <v>291.5042</v>
+      </c>
+      <c r="BH339" s="0">
+        <v>105.2191</v>
+      </c>
+      <c r="BI339" s="0">
+        <v>67.07652</v>
+      </c>
+      <c r="BJ339" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK339" s="0">
+        <v>162.6752</v>
+      </c>
+      <c r="BL339" s="0">
+        <v>82.9772</v>
+      </c>
+      <c r="BM339" s="0">
+        <v>117.9614</v>
+      </c>
+      <c r="BN339" s="0">
+        <v>123.3751</v>
+      </c>
+      <c r="BO339" s="0">
+        <v>140.4461</v>
+      </c>
+      <c r="BP339" s="0">
+        <v>81.70489</v>
+      </c>
+      <c r="BQ339" s="0">
+        <v>192.17</v>
+      </c>
+      <c r="BR339" s="0">
+        <v>249.5197</v>
+      </c>
+      <c r="BS339" s="0">
+        <v>139.3819</v>
+      </c>
+      <c r="BT339" s="0">
+        <v>214.427</v>
+      </c>
+      <c r="BU339" s="0">
+        <v>135.8927</v>
+      </c>
+      <c r="BV339" s="0">
+        <v>260.8466</v>
+      </c>
+      <c r="BW339" s="0">
+        <v>53.18905</v>
+      </c>
+      <c r="BX339" s="0">
+        <v>246.4276</v>
+      </c>
+      <c r="BY339" s="0">
+        <v>3808888</v>
+      </c>
+      <c r="BZ339" s="0">
+        <v>210.6454</v>
+      </c>
+      <c r="CA339" s="0">
+        <v>218.3543</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B340" s="0">
+        <v>194.5765</v>
+      </c>
+      <c r="C340" s="0">
+        <v>124.3969</v>
+      </c>
+      <c r="D340" s="0">
+        <v>131.8433</v>
+      </c>
+      <c r="E340" s="0">
+        <v>157.1271</v>
+      </c>
+      <c r="F340" s="0">
+        <v>161.1209</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H340" s="0">
+        <v>43.80238</v>
+      </c>
+      <c r="I340" s="0">
+        <v>123.4129</v>
+      </c>
+      <c r="J340" s="0">
+        <v>132.4031</v>
+      </c>
+      <c r="K340" s="0">
+        <v>136.5907</v>
+      </c>
+      <c r="L340" s="0">
+        <v>151.0265</v>
+      </c>
+      <c r="M340" s="0">
+        <v>103.8937</v>
+      </c>
+      <c r="N340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O340" s="0">
+        <v>94.15739</v>
+      </c>
+      <c r="P340" s="0">
+        <v>212.5003</v>
+      </c>
+      <c r="Q340" s="0">
+        <v>258.6326</v>
+      </c>
+      <c r="R340" s="0">
+        <v>177.4232</v>
+      </c>
+      <c r="S340" s="0">
+        <v>82.05945</v>
+      </c>
+      <c r="T340" s="0">
+        <v>266.8371</v>
+      </c>
+      <c r="U340" s="0">
+        <v>148.6441</v>
+      </c>
+      <c r="V340" s="0">
+        <v>148.4723</v>
+      </c>
+      <c r="W340" s="0">
+        <v>144.2058</v>
+      </c>
+      <c r="X340" s="0">
+        <v>39.4899</v>
+      </c>
+      <c r="Y340" s="0">
+        <v>144.6568</v>
+      </c>
+      <c r="Z340" s="0">
+        <v>86.80257</v>
+      </c>
+      <c r="AA340" s="0">
+        <v>175.0873</v>
+      </c>
+      <c r="AB340" s="0">
+        <v>251.3706</v>
+      </c>
+      <c r="AC340" s="0">
+        <v>198.6455</v>
+      </c>
+      <c r="AD340" s="0">
+        <v>220.8046</v>
+      </c>
+      <c r="AE340" s="0">
+        <v>847.6794</v>
+      </c>
+      <c r="AF340" s="0">
+        <v>214.1548</v>
+      </c>
+      <c r="AG340" s="0">
+        <v>125.2546</v>
+      </c>
+      <c r="AH340" s="0">
+        <v>97.85968</v>
+      </c>
+      <c r="AI340" s="0">
+        <v>76.21909</v>
+      </c>
+      <c r="AJ340" s="0">
+        <v>206.2695</v>
+      </c>
+      <c r="AK340" s="0">
+        <v>124.4161</v>
+      </c>
+      <c r="AL340" s="0">
+        <v>107.6112</v>
+      </c>
+      <c r="AM340" s="0">
+        <v>161.2955</v>
+      </c>
+      <c r="AN340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP340" s="0">
+        <v>185.6176</v>
+      </c>
+      <c r="AQ340" s="0">
+        <v>235.6567</v>
+      </c>
+      <c r="AR340" s="0">
+        <v>72.14106</v>
+      </c>
+      <c r="AS340" s="0">
+        <v>323.0869</v>
+      </c>
+      <c r="AT340" s="0">
+        <v>122.1531</v>
+      </c>
+      <c r="AU340" s="0">
+        <v>152.0934</v>
+      </c>
+      <c r="AV340" s="0">
+        <v>99.81518</v>
+      </c>
+      <c r="AW340" s="0">
+        <v>118.8419</v>
+      </c>
+      <c r="AX340" s="0">
+        <v>439.7837</v>
+      </c>
+      <c r="AY340" s="0">
+        <v>143.1994</v>
+      </c>
+      <c r="AZ340" s="0">
+        <v>195.2787</v>
+      </c>
+      <c r="BA340" s="0">
+        <v>158.6681</v>
+      </c>
+      <c r="BB340" s="0">
+        <v>217.7958</v>
+      </c>
+      <c r="BC340" s="0">
+        <v>175.4402</v>
+      </c>
+      <c r="BD340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE340" s="0">
+        <v>212.8506</v>
+      </c>
+      <c r="BF340" s="0">
+        <v>137.0246</v>
+      </c>
+      <c r="BG340" s="0">
+        <v>282.4264</v>
+      </c>
+      <c r="BH340" s="0">
+        <v>99.54109</v>
+      </c>
+      <c r="BI340" s="0">
+        <v>64.42093</v>
+      </c>
+      <c r="BJ340" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK340" s="0">
+        <v>162.4867</v>
+      </c>
+      <c r="BL340" s="0">
+        <v>82.9067</v>
+      </c>
+      <c r="BM340" s="0">
+        <v>118.9163</v>
+      </c>
+      <c r="BN340" s="0">
+        <v>121.0999</v>
+      </c>
+      <c r="BO340" s="0">
+        <v>140.4282</v>
+      </c>
+      <c r="BP340" s="0">
+        <v>80.96016</v>
+      </c>
+      <c r="BQ340" s="0">
+        <v>185.2907</v>
+      </c>
+      <c r="BR340" s="0">
+        <v>248.3209</v>
+      </c>
+      <c r="BS340" s="0">
+        <v>145.2928</v>
+      </c>
+      <c r="BT340" s="0">
+        <v>213.4293</v>
+      </c>
+      <c r="BU340" s="0">
+        <v>132.3434</v>
+      </c>
+      <c r="BV340" s="0">
+        <v>268.2351</v>
+      </c>
+      <c r="BW340" s="0">
+        <v>54.39392</v>
+      </c>
+      <c r="BX340" s="0">
+        <v>238.573</v>
+      </c>
+      <c r="BY340" s="0">
+        <v>7105307</v>
+      </c>
+      <c r="BZ340" s="0">
+        <v>213.3311</v>
+      </c>
+      <c r="CA340" s="0">
+        <v>209.3475</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B341" s="0">
+        <v>185.4669</v>
+      </c>
+      <c r="C341" s="0">
+        <v>123.7397</v>
+      </c>
+      <c r="D341" s="0">
+        <v>132.1793</v>
+      </c>
+      <c r="E341" s="0">
+        <v>155.3037</v>
+      </c>
+      <c r="F341" s="0">
+        <v>155.5925</v>
+      </c>
+      <c r="G341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H341" s="0">
+        <v>43.58494</v>
+      </c>
+      <c r="I341" s="0">
+        <v>124.2335</v>
+      </c>
+      <c r="J341" s="0">
+        <v>132.9159</v>
+      </c>
+      <c r="K341" s="0">
+        <v>134.0245</v>
+      </c>
+      <c r="L341" s="0">
+        <v>147.9932</v>
+      </c>
+      <c r="M341" s="0">
+        <v>102.356</v>
+      </c>
+      <c r="N341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O341" s="0">
+        <v>94.56619</v>
+      </c>
+      <c r="P341" s="0">
+        <v>207.4958</v>
+      </c>
+      <c r="Q341" s="0">
+        <v>258.7205</v>
+      </c>
+      <c r="R341" s="0">
+        <v>193.0871</v>
+      </c>
+      <c r="S341" s="0">
+        <v>79.97124</v>
+      </c>
+      <c r="T341" s="0">
+        <v>271.0527</v>
+      </c>
+      <c r="U341" s="0">
+        <v>147.3492</v>
+      </c>
+      <c r="V341" s="0">
+        <v>147.1119</v>
+      </c>
+      <c r="W341" s="0">
+        <v>141.5607</v>
+      </c>
+      <c r="X341" s="0">
+        <v>37.76874</v>
+      </c>
+      <c r="Y341" s="0">
+        <v>144.3244</v>
+      </c>
+      <c r="Z341" s="0">
+        <v>86.20987</v>
+      </c>
+      <c r="AA341" s="0">
+        <v>170.2851</v>
+      </c>
+      <c r="AB341" s="0">
+        <v>242.57</v>
+      </c>
+      <c r="AC341" s="0">
+        <v>193.0621</v>
+      </c>
+      <c r="AD341" s="0">
+        <v>217.0983</v>
+      </c>
+      <c r="AE341" s="0">
+        <v>834.1824</v>
+      </c>
+      <c r="AF341" s="0">
+        <v>215.6181</v>
+      </c>
+      <c r="AG341" s="0">
+        <v>123.5256</v>
+      </c>
+      <c r="AH341" s="0">
+        <v>97.11434</v>
+      </c>
+      <c r="AI341" s="0">
+        <v>76.87121</v>
+      </c>
+      <c r="AJ341" s="0">
+        <v>200.6778</v>
+      </c>
+      <c r="AK341" s="0">
+        <v>128.8189</v>
+      </c>
+      <c r="AL341" s="0">
+        <v>109.2128</v>
+      </c>
+      <c r="AM341" s="0">
+        <v>162.0948</v>
+      </c>
+      <c r="AN341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP341" s="0">
+        <v>184.1271</v>
+      </c>
+      <c r="AQ341" s="0">
+        <v>240.4546</v>
+      </c>
+      <c r="AR341" s="0">
+        <v>69.29789</v>
+      </c>
+      <c r="AS341" s="0">
+        <v>328.596</v>
+      </c>
+      <c r="AT341" s="0">
+        <v>121.8053</v>
+      </c>
+      <c r="AU341" s="0">
+        <v>148.7585</v>
+      </c>
+      <c r="AV341" s="0">
+        <v>101.5085</v>
+      </c>
+      <c r="AW341" s="0">
+        <v>119.2074</v>
+      </c>
+      <c r="AX341" s="0">
+        <v>477.1284</v>
+      </c>
+      <c r="AY341" s="0">
+        <v>143.8475</v>
+      </c>
+      <c r="AZ341" s="0">
+        <v>192.4452</v>
+      </c>
+      <c r="BA341" s="0">
+        <v>157.8009</v>
+      </c>
+      <c r="BB341" s="0">
+        <v>217.8443</v>
+      </c>
+      <c r="BC341" s="0">
+        <v>178.9642</v>
+      </c>
+      <c r="BD341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE341" s="0">
+        <v>215.8867</v>
+      </c>
+      <c r="BF341" s="0">
+        <v>137.5617</v>
+      </c>
+      <c r="BG341" s="0">
+        <v>270.5058</v>
+      </c>
+      <c r="BH341" s="0">
+        <v>94.30936</v>
+      </c>
+      <c r="BI341" s="0">
+        <v>63.84626</v>
+      </c>
+      <c r="BJ341" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK341" s="0">
+        <v>169.9663</v>
+      </c>
+      <c r="BL341" s="0">
+        <v>82.90094</v>
+      </c>
+      <c r="BM341" s="0">
+        <v>122.391</v>
+      </c>
+      <c r="BN341" s="0">
+        <v>121.5285</v>
+      </c>
+      <c r="BO341" s="0">
+        <v>140.3546</v>
+      </c>
+      <c r="BP341" s="0">
+        <v>81.28398</v>
+      </c>
+      <c r="BQ341" s="0">
+        <v>185.1748</v>
+      </c>
+      <c r="BR341" s="0">
+        <v>247.0583</v>
+      </c>
+      <c r="BS341" s="0">
+        <v>152.285</v>
+      </c>
+      <c r="BT341" s="0">
+        <v>214.2185</v>
+      </c>
+      <c r="BU341" s="0">
+        <v>134.6307</v>
+      </c>
+      <c r="BV341" s="0">
+        <v>276.7831</v>
+      </c>
+      <c r="BW341" s="0">
+        <v>57.11533</v>
+      </c>
+      <c r="BX341" s="0">
+        <v>234.759</v>
+      </c>
+      <c r="BY341" s="0">
+        <v>9430074</v>
+      </c>
+      <c r="BZ341" s="0">
+        <v>227.9982</v>
+      </c>
+      <c r="CA341" s="0">
+        <v>208.757</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B342" s="0">
+        <v>180.9132</v>
+      </c>
+      <c r="C342" s="0">
+        <v>122.3149</v>
+      </c>
+      <c r="D342" s="0">
+        <v>132.133</v>
+      </c>
+      <c r="E342" s="0">
+        <v>154.4454</v>
+      </c>
+      <c r="F342" s="0">
+        <v>152.7063</v>
+      </c>
+      <c r="G342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H342" s="0">
+        <v>40.15828</v>
+      </c>
+      <c r="I342" s="0">
+        <v>123.9933</v>
+      </c>
+      <c r="J342" s="0">
+        <v>131.9722</v>
+      </c>
+      <c r="K342" s="0">
+        <v>133.7375</v>
+      </c>
+      <c r="L342" s="0">
+        <v>150.1354</v>
+      </c>
+      <c r="M342" s="0">
+        <v>98.45666</v>
+      </c>
+      <c r="N342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O342" s="0">
+        <v>95.21008</v>
+      </c>
+      <c r="P342" s="0">
+        <v>211.6857</v>
+      </c>
+      <c r="Q342" s="0">
+        <v>256.3075</v>
+      </c>
+      <c r="R342" s="0">
+        <v>196.3046</v>
+      </c>
+      <c r="S342" s="0">
+        <v>81.41544</v>
+      </c>
+      <c r="T342" s="0">
+        <v>262.0675</v>
+      </c>
+      <c r="U342" s="0">
+        <v>146.6036</v>
+      </c>
+      <c r="V342" s="0">
+        <v>150.6647</v>
+      </c>
+      <c r="W342" s="0">
+        <v>145.0105</v>
+      </c>
+      <c r="X342" s="0">
+        <v>38.59362</v>
+      </c>
+      <c r="Y342" s="0">
+        <v>141.8857</v>
+      </c>
+      <c r="Z342" s="0">
+        <v>84.02689</v>
+      </c>
+      <c r="AA342" s="0">
+        <v>171.8447</v>
+      </c>
+      <c r="AB342" s="0">
+        <v>237.2426</v>
+      </c>
+      <c r="AC342" s="0">
+        <v>197.8265</v>
+      </c>
+      <c r="AD342" s="0">
+        <v>219.3776</v>
+      </c>
+      <c r="AE342" s="0">
+        <v>826.7972</v>
+      </c>
+      <c r="AF342" s="0">
+        <v>216.3218</v>
+      </c>
+      <c r="AG342" s="0">
+        <v>121.6717</v>
+      </c>
+      <c r="AH342" s="0">
+        <v>101.3516</v>
+      </c>
+      <c r="AI342" s="0">
+        <v>76.08231</v>
+      </c>
+      <c r="AJ342" s="0">
+        <v>205.1169</v>
+      </c>
+      <c r="AK342" s="0">
+        <v>129.7445</v>
+      </c>
+      <c r="AL342" s="0">
+        <v>108.7469</v>
+      </c>
+      <c r="AM342" s="0">
+        <v>164.3303</v>
+      </c>
+      <c r="AN342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP342" s="0">
+        <v>184.0099</v>
+      </c>
+      <c r="AQ342" s="0">
+        <v>246.5227</v>
+      </c>
+      <c r="AR342" s="0">
+        <v>69.69623</v>
+      </c>
+      <c r="AS342" s="0">
+        <v>330.7783</v>
+      </c>
+      <c r="AT342" s="0">
+        <v>119.7397</v>
+      </c>
+      <c r="AU342" s="0">
+        <v>150.5637</v>
+      </c>
+      <c r="AV342" s="0">
+        <v>100.7591</v>
+      </c>
+      <c r="AW342" s="0">
+        <v>115.8425</v>
+      </c>
+      <c r="AX342" s="0">
+        <v>502.9732</v>
+      </c>
+      <c r="AY342" s="0">
+        <v>144.4596</v>
+      </c>
+      <c r="AZ342" s="0">
+        <v>185.6952</v>
+      </c>
+      <c r="BA342" s="0">
+        <v>162.8309</v>
+      </c>
+      <c r="BB342" s="0">
+        <v>227.2864</v>
+      </c>
+      <c r="BC342" s="0">
+        <v>177.0016</v>
+      </c>
+      <c r="BD342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE342" s="0">
+        <v>223.3708</v>
+      </c>
+      <c r="BF342" s="0">
+        <v>140.8092</v>
+      </c>
+      <c r="BG342" s="0">
+        <v>257.3171</v>
+      </c>
+      <c r="BH342" s="0">
+        <v>93.44953</v>
+      </c>
+      <c r="BI342" s="0">
+        <v>64.96455</v>
+      </c>
+      <c r="BJ342" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK342" s="0">
+        <v>175.1847</v>
+      </c>
+      <c r="BL342" s="0">
+        <v>76.02374</v>
+      </c>
+      <c r="BM342" s="0">
+        <v>127.9572</v>
+      </c>
+      <c r="BN342" s="0">
+        <v>122.3827</v>
+      </c>
+      <c r="BO342" s="0">
+        <v>141.1242</v>
+      </c>
+      <c r="BP342" s="0">
+        <v>82.62955</v>
+      </c>
+      <c r="BQ342" s="0">
+        <v>185.377</v>
+      </c>
+      <c r="BR342" s="0">
+        <v>243.4298</v>
+      </c>
+      <c r="BS342" s="0">
+        <v>157.1644</v>
+      </c>
+      <c r="BT342" s="0">
+        <v>203.4823</v>
+      </c>
+      <c r="BU342" s="0">
+        <v>133.3054</v>
+      </c>
+      <c r="BV342" s="0">
+        <v>289.6321</v>
+      </c>
+      <c r="BW342" s="0">
+        <v>62.77916</v>
+      </c>
+      <c r="BX342" s="0">
+        <v>232.1045</v>
+      </c>
+      <c r="BY342" s="0">
+        <v>26431551</v>
+      </c>
+      <c r="BZ342" s="0">
+        <v>228.4269</v>
+      </c>
+      <c r="CA342" s="0">
+        <v>204.9524</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="0" t="s">
+        <v>420</v>
+      </c>
+      <c r="B343" s="0">
+        <v>172.5048</v>
+      </c>
+      <c r="C343" s="0">
+        <v>126.8342</v>
+      </c>
+      <c r="D343" s="0">
+        <v>133.0795</v>
+      </c>
+      <c r="E343" s="0">
+        <v>153.6538</v>
+      </c>
+      <c r="F343" s="0">
+        <v>149.4257</v>
+      </c>
+      <c r="G343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H343" s="0">
+        <v>40.43164</v>
+      </c>
+      <c r="I343" s="0">
+        <v>120.0019</v>
+      </c>
+      <c r="J343" s="0">
+        <v>136.9832</v>
+      </c>
+      <c r="K343" s="0">
+        <v>135.2045</v>
+      </c>
+      <c r="L343" s="0">
+        <v>150.0647</v>
+      </c>
+      <c r="M343" s="0">
+        <v>99.18306</v>
+      </c>
+      <c r="N343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O343" s="0">
+        <v>92.95859</v>
+      </c>
+      <c r="P343" s="0">
+        <v>220.206</v>
+      </c>
+      <c r="Q343" s="0">
+        <v>265.5553</v>
+      </c>
+      <c r="R343" s="0">
+        <v>191.1444</v>
+      </c>
+      <c r="S343" s="0">
+        <v>83.09194</v>
+      </c>
+      <c r="T343" s="0">
+        <v>260.5431</v>
+      </c>
+      <c r="U343" s="0">
+        <v>154.1645</v>
+      </c>
+      <c r="V343" s="0">
+        <v>155.8405</v>
+      </c>
+      <c r="W343" s="0">
+        <v>152.7244</v>
+      </c>
+      <c r="X343" s="0">
+        <v>37.29712</v>
+      </c>
+      <c r="Y343" s="0">
+        <v>143.3928</v>
+      </c>
+      <c r="Z343" s="0">
+        <v>86.37323</v>
+      </c>
+      <c r="AA343" s="0">
+        <v>165.4932</v>
+      </c>
+      <c r="AB343" s="0">
+        <v>224.5815</v>
+      </c>
+      <c r="AC343" s="0">
+        <v>203.2371</v>
+      </c>
+      <c r="AD343" s="0">
+        <v>230.1177</v>
+      </c>
+      <c r="AE343" s="0">
+        <v>818.2599</v>
+      </c>
+      <c r="AF343" s="0">
+        <v>212.4471</v>
+      </c>
+      <c r="AG343" s="0">
+        <v>124.3502</v>
+      </c>
+      <c r="AH343" s="0">
+        <v>101.1178</v>
+      </c>
+      <c r="AI343" s="0">
+        <v>76.17458</v>
+      </c>
+      <c r="AJ343" s="0">
+        <v>211.8819</v>
+      </c>
+      <c r="AK343" s="0">
+        <v>132.9132</v>
+      </c>
+      <c r="AL343" s="0">
+        <v>101.5589</v>
+      </c>
+      <c r="AM343" s="0">
+        <v>161.333</v>
+      </c>
+      <c r="AN343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP343" s="0">
+        <v>183.4854</v>
+      </c>
+      <c r="AQ343" s="0">
+        <v>248.4823</v>
+      </c>
+      <c r="AR343" s="0">
+        <v>73.61442</v>
+      </c>
+      <c r="AS343" s="0">
+        <v>333.7394</v>
+      </c>
+      <c r="AT343" s="0">
+        <v>117.6745</v>
+      </c>
+      <c r="AU343" s="0">
+        <v>143.7141</v>
+      </c>
+      <c r="AV343" s="0">
+        <v>105.8341</v>
+      </c>
+      <c r="AW343" s="0">
+        <v>114.3934</v>
+      </c>
+      <c r="AX343" s="0">
+        <v>548.1864</v>
+      </c>
+      <c r="AY343" s="0">
+        <v>141.2771</v>
+      </c>
+      <c r="AZ343" s="0">
+        <v>183.7208</v>
+      </c>
+      <c r="BA343" s="0">
+        <v>167.1174</v>
+      </c>
+      <c r="BB343" s="0">
+        <v>237.7334</v>
+      </c>
+      <c r="BC343" s="0">
+        <v>181.6941</v>
+      </c>
+      <c r="BD343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE343" s="0">
+        <v>206.1715</v>
+      </c>
+      <c r="BF343" s="0">
+        <v>139.7093</v>
+      </c>
+      <c r="BG343" s="0">
+        <v>250.6927</v>
+      </c>
+      <c r="BH343" s="0">
+        <v>92.18821</v>
+      </c>
+      <c r="BI343" s="0">
+        <v>66.28506</v>
+      </c>
+      <c r="BJ343" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK343" s="0">
+        <v>168.2256</v>
+      </c>
+      <c r="BL343" s="0">
+        <v>76.97012</v>
+      </c>
+      <c r="BM343" s="0">
+        <v>127.6621</v>
+      </c>
+      <c r="BN343" s="0">
+        <v>123.3395</v>
+      </c>
+      <c r="BO343" s="0">
+        <v>138.4598</v>
+      </c>
+      <c r="BP343" s="0">
+        <v>87.54138</v>
+      </c>
+      <c r="BQ343" s="0">
+        <v>191.6909</v>
+      </c>
+      <c r="BR343" s="0">
+        <v>241.6732</v>
+      </c>
+      <c r="BS343" s="0">
+        <v>162.688</v>
+      </c>
+      <c r="BT343" s="0">
+        <v>188.1706</v>
+      </c>
+      <c r="BU343" s="0">
+        <v>133.575</v>
+      </c>
+      <c r="BV343" s="0">
+        <v>278.3672</v>
+      </c>
+      <c r="BW343" s="0">
+        <v>75.48854</v>
+      </c>
+      <c r="BX343" s="0">
+        <v>234.667</v>
+      </c>
+      <c r="BY343" s="0">
+        <v>41913085</v>
+      </c>
+      <c r="BZ343" s="0">
+        <v>202.5438</v>
+      </c>
+      <c r="CA343" s="0">
+        <v>207.8761</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="B344" s="0">
+        <v>179.1138</v>
+      </c>
+      <c r="C344" s="0">
+        <v>126.2942</v>
+      </c>
+      <c r="D344" s="0">
+        <v>128.0981</v>
+      </c>
+      <c r="E344" s="0">
+        <v>150.963</v>
+      </c>
+      <c r="F344" s="0">
+        <v>146.665</v>
+      </c>
+      <c r="G344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H344" s="0">
+        <v>41.11214</v>
+      </c>
+      <c r="I344" s="0">
+        <v>109.9259</v>
+      </c>
+      <c r="J344" s="0">
+        <v>138.5888</v>
+      </c>
+      <c r="K344" s="0">
+        <v>130.8813</v>
+      </c>
+      <c r="L344" s="0">
+        <v>146.8258</v>
+      </c>
+      <c r="M344" s="0">
+        <v>97.36366</v>
+      </c>
+      <c r="N344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="O344" s="0">
+        <v>91.13084</v>
+      </c>
+      <c r="P344" s="0">
+        <v>218.1461</v>
+      </c>
+      <c r="Q344" s="0">
+        <v>264.2162</v>
+      </c>
+      <c r="R344" s="0">
+        <v>179.0566</v>
+      </c>
+      <c r="S344" s="0">
+        <v>80.93285</v>
+      </c>
+      <c r="T344" s="0">
+        <v>260.3254</v>
+      </c>
+      <c r="U344" s="0">
+        <v>155.6281</v>
+      </c>
+      <c r="V344" s="0">
+        <v>153.9877</v>
+      </c>
+      <c r="W344" s="0">
+        <v>153.4479</v>
+      </c>
+      <c r="X344" s="0">
+        <v>36.38551</v>
+      </c>
+      <c r="Y344" s="0">
+        <v>145.0812</v>
+      </c>
+      <c r="Z344" s="0">
+        <v>85.9691</v>
+      </c>
+      <c r="AA344" s="0">
+        <v>165.8935</v>
+      </c>
+      <c r="AB344" s="0">
+        <v>231.1056</v>
+      </c>
+      <c r="AC344" s="0">
+        <v>204.5171</v>
+      </c>
+      <c r="AD344" s="0">
+        <v>234.0551</v>
+      </c>
+      <c r="AE344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF344" s="0">
+        <v>209.7554</v>
+      </c>
+      <c r="AG344" s="0">
+        <v>127.6559</v>
+      </c>
+      <c r="AH344" s="0">
+        <v>94.42689</v>
+      </c>
+      <c r="AI344" s="0">
+        <v>74.22355</v>
+      </c>
+      <c r="AJ344" s="0">
+        <v>212.2246</v>
+      </c>
+      <c r="AK344" s="0">
+        <v>131.3288</v>
+      </c>
+      <c r="AL344" s="0">
+        <v>95.7352</v>
+      </c>
+      <c r="AM344" s="0">
+        <v>164.2389</v>
+      </c>
+      <c r="AN344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP344" s="0">
+        <v>180.7369</v>
+      </c>
+      <c r="AQ344" s="0">
+        <v>248.9701</v>
+      </c>
+      <c r="AR344" s="0">
+        <v>73.63474</v>
+      </c>
+      <c r="AS344" s="0">
+        <v>330.9539</v>
+      </c>
+      <c r="AT344" s="0">
+        <v>114.1238</v>
+      </c>
+      <c r="AU344" s="0">
+        <v>142.1408</v>
+      </c>
+      <c r="AV344" s="0">
+        <v>111.4363</v>
+      </c>
+      <c r="AW344" s="0">
+        <v>116.3317</v>
+      </c>
+      <c r="AX344" s="0">
+        <v>588.5728</v>
+      </c>
+      <c r="AY344" s="0">
+        <v>137.1201</v>
+      </c>
+      <c r="AZ344" s="0">
+        <v>173.2841</v>
+      </c>
+      <c r="BA344" s="0">
+        <v>167.2374</v>
+      </c>
+      <c r="BB344" s="0">
+        <v>240.2139</v>
+      </c>
+      <c r="BC344" s="0">
+        <v>186.3136</v>
+      </c>
+      <c r="BD344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE344" s="0">
+        <v>209.9572</v>
+      </c>
+      <c r="BF344" s="0">
+        <v>140.5326</v>
+      </c>
+      <c r="BG344" s="0">
+        <v>252.8735</v>
+      </c>
+      <c r="BH344" s="0">
+        <v>91.77414</v>
+      </c>
+      <c r="BI344" s="0">
+        <v>66.29896</v>
+      </c>
+      <c r="BJ344" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="BK344" s="0">
+        <v>162.6105</v>
+      </c>
+      <c r="BL344" s="0">
+        <v>76.61085</v>
+      </c>
+      <c r="BM344" s="0">
+        <v>132.5886</v>
+      </c>
+      <c r="BN344" s="0">
+        <v>120.5667</v>
+      </c>
+      <c r="BO344" s="0">
+        <v>138.9541</v>
+      </c>
+      <c r="BP344" s="0">
+        <v>89.08716</v>
+      </c>
+      <c r="BQ344" s="0">
+        <v>189.949</v>
+      </c>
+      <c r="BR344" s="0">
+        <v>237.4943</v>
+      </c>
+      <c r="BS344" s="0">
+        <v>169.5314</v>
+      </c>
+      <c r="BT344" s="0">
+        <v>179.4171</v>
+      </c>
+      <c r="BU344" s="0">
+        <v>137.4666</v>
+      </c>
+      <c r="BV344" s="0">
+        <v>270.4318</v>
+      </c>
+      <c r="BW344" s="0">
+        <v>72.11025</v>
+      </c>
+      <c r="BX344" s="0">
+        <v>239.1252</v>
+      </c>
+      <c r="BY344" s="0">
+        <v>67712931</v>
+      </c>
+      <c r="BZ344" s="0">
+        <v>204.2673</v>
+      </c>
+      <c r="CA344" s="0">
+        <v>209.4792</v>
       </c>
     </row>
   </sheetData>
